--- a/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
@@ -1027,14 +1027,14 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -6559,7 +6559,7 @@
         <v>1.0</v>
       </c>
       <c r="S26" s="50">
-        <v>224.0</v>
+        <v>172.0</v>
       </c>
       <c r="T26" s="50">
         <v>3.0</v>
@@ -7096,19 +7096,19 @@
       <c r="R34" s="45">
         <v>1.0</v>
       </c>
-      <c r="S34" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T34" s="64">
+      <c r="S34" s="50">
+        <v>227.0</v>
+      </c>
+      <c r="T34" s="63">
         <v>3.0</v>
       </c>
-      <c r="U34" s="65">
+      <c r="U34" s="64">
         <v>5.0</v>
       </c>
-      <c r="V34" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W34" s="65">
+      <c r="V34" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W34" s="64">
         <v>0.0</v>
       </c>
       <c r="X34" s="56" t="s">
@@ -7431,19 +7431,19 @@
       <c r="R39" s="45">
         <v>0.0</v>
       </c>
-      <c r="S39" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T39" s="64">
+      <c r="S39" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T39" s="63">
         <v>2.0</v>
       </c>
-      <c r="U39" s="65">
+      <c r="U39" s="64">
         <v>5.0</v>
       </c>
-      <c r="V39" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W39" s="65">
+      <c r="V39" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W39" s="64">
         <v>0.0</v>
       </c>
       <c r="X39" s="60" t="s">
@@ -7632,19 +7632,19 @@
       <c r="R42" s="45">
         <v>1.0</v>
       </c>
-      <c r="S42" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T42" s="64">
+      <c r="S42" s="50">
+        <v>172.0</v>
+      </c>
+      <c r="T42" s="63">
         <v>3.0</v>
       </c>
-      <c r="U42" s="65">
+      <c r="U42" s="64">
         <v>5.0</v>
       </c>
-      <c r="V42" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W42" s="65">
+      <c r="V42" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W42" s="64">
         <v>0.0</v>
       </c>
       <c r="X42" s="66" t="s">
@@ -7766,19 +7766,19 @@
       <c r="R44" s="45">
         <v>0.0</v>
       </c>
-      <c r="S44" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T44" s="64">
+      <c r="S44" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T44" s="63">
         <v>2.0</v>
       </c>
-      <c r="U44" s="65">
+      <c r="U44" s="64">
         <v>5.0</v>
       </c>
-      <c r="V44" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W44" s="65">
+      <c r="V44" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W44" s="64">
         <v>0.0</v>
       </c>
       <c r="X44" s="60" t="s">
@@ -8168,19 +8168,19 @@
       <c r="R50" s="45">
         <v>1.0</v>
       </c>
-      <c r="S50" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T50" s="64">
+      <c r="S50" s="50">
+        <v>227.0</v>
+      </c>
+      <c r="T50" s="63">
         <v>5.0</v>
       </c>
-      <c r="U50" s="65">
+      <c r="U50" s="64">
         <v>5.0</v>
       </c>
-      <c r="V50" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W50" s="65">
+      <c r="V50" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="64">
         <v>0.0</v>
       </c>
       <c r="X50" s="56" t="s">
@@ -8302,19 +8302,19 @@
       <c r="R52" s="45">
         <v>0.0</v>
       </c>
-      <c r="S52" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T52" s="64">
+      <c r="S52" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T52" s="63">
         <v>3.0</v>
       </c>
-      <c r="U52" s="65">
+      <c r="U52" s="64">
         <v>5.0</v>
       </c>
-      <c r="V52" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W52" s="65">
+      <c r="V52" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="64">
         <v>0.0</v>
       </c>
       <c r="X52" s="60" t="s">
@@ -8503,19 +8503,19 @@
       <c r="R55" s="45">
         <v>0.0</v>
       </c>
-      <c r="S55" s="63">
+      <c r="S55" s="65">
         <v>2.0</v>
       </c>
-      <c r="T55" s="64">
+      <c r="T55" s="63">
         <v>3.0</v>
       </c>
-      <c r="U55" s="65">
+      <c r="U55" s="64">
         <v>5.0</v>
       </c>
-      <c r="V55" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W55" s="65">
+      <c r="V55" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="64">
         <v>0.0</v>
       </c>
       <c r="X55" s="60" t="s">
@@ -8704,19 +8704,19 @@
       <c r="R58" s="45">
         <v>1.0</v>
       </c>
-      <c r="S58" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T58" s="64">
+      <c r="S58" s="50">
+        <v>172.0</v>
+      </c>
+      <c r="T58" s="63">
         <v>5.0</v>
       </c>
-      <c r="U58" s="65">
+      <c r="U58" s="64">
         <v>5.0</v>
       </c>
-      <c r="V58" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W58" s="65">
+      <c r="V58" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="64">
         <v>0.0</v>
       </c>
       <c r="X58" s="56" t="s">
@@ -8773,19 +8773,19 @@
       <c r="R59" s="45">
         <v>0.0</v>
       </c>
-      <c r="S59" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T59" s="64">
+      <c r="S59" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T59" s="63">
         <v>4.0</v>
       </c>
-      <c r="U59" s="65">
+      <c r="U59" s="64">
         <v>5.0</v>
       </c>
-      <c r="V59" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W59" s="65">
+      <c r="V59" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="64">
         <v>0.0</v>
       </c>
       <c r="X59" s="60" t="s">
@@ -9242,19 +9242,19 @@
       <c r="R66" s="45">
         <v>1.0</v>
       </c>
-      <c r="S66" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T66" s="64">
+      <c r="S66" s="50">
+        <v>227.0</v>
+      </c>
+      <c r="T66" s="63">
         <v>5.0</v>
       </c>
-      <c r="U66" s="65">
+      <c r="U66" s="64">
         <v>5.0</v>
       </c>
-      <c r="V66" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W66" s="65">
+      <c r="V66" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="64">
         <v>0.0</v>
       </c>
       <c r="X66" s="56" t="s">
@@ -9711,19 +9711,19 @@
       <c r="R73" s="45">
         <v>0.0</v>
       </c>
-      <c r="S73" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T73" s="64">
+      <c r="S73" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T73" s="63">
         <v>4.0</v>
       </c>
-      <c r="U73" s="65">
+      <c r="U73" s="64">
         <v>5.0</v>
       </c>
-      <c r="V73" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W73" s="65">
+      <c r="V73" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W73" s="64">
         <v>0.0</v>
       </c>
       <c r="X73" s="60" t="s">
@@ -9778,19 +9778,19 @@
       <c r="R74" s="45">
         <v>1.0</v>
       </c>
-      <c r="S74" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T74" s="64">
+      <c r="S74" s="50">
+        <v>172.0</v>
+      </c>
+      <c r="T74" s="63">
         <v>10.0</v>
       </c>
-      <c r="U74" s="65">
+      <c r="U74" s="64">
         <v>5.0</v>
       </c>
-      <c r="V74" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W74" s="65">
+      <c r="V74" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W74" s="64">
         <v>0.0</v>
       </c>
       <c r="X74" s="56" t="s">
@@ -10249,19 +10249,19 @@
       <c r="R81" s="45">
         <v>0.0</v>
       </c>
-      <c r="S81" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T81" s="64">
+      <c r="S81" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T81" s="63">
         <v>5.0</v>
       </c>
-      <c r="U81" s="65">
+      <c r="U81" s="64">
         <v>5.0</v>
       </c>
-      <c r="V81" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W81" s="65">
+      <c r="V81" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W81" s="64">
         <v>0.0</v>
       </c>
       <c r="X81" s="32" t="s">
@@ -10316,19 +10316,19 @@
       <c r="R82" s="45">
         <v>1.0</v>
       </c>
-      <c r="S82" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T82" s="64">
+      <c r="S82" s="50">
+        <v>227.0</v>
+      </c>
+      <c r="T82" s="63">
         <v>10.0</v>
       </c>
-      <c r="U82" s="65">
+      <c r="U82" s="64">
         <v>5.0</v>
       </c>
-      <c r="V82" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W82" s="65">
+      <c r="V82" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W82" s="64">
         <v>0.0</v>
       </c>
       <c r="X82" s="56" t="s">
@@ -10743,19 +10743,19 @@
       <c r="R89" s="45">
         <v>0.0</v>
       </c>
-      <c r="S89" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T89" s="64">
+      <c r="S89" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T89" s="63">
         <v>5.0</v>
       </c>
-      <c r="U89" s="65">
+      <c r="U89" s="64">
         <v>5.0</v>
       </c>
-      <c r="V89" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W89" s="65">
+      <c r="V89" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W89" s="64">
         <v>0.0</v>
       </c>
       <c r="X89" s="32" t="s">
@@ -10804,19 +10804,19 @@
       <c r="R90" s="45">
         <v>1.0</v>
       </c>
-      <c r="S90" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T90" s="64">
+      <c r="S90" s="50">
+        <v>172.0</v>
+      </c>
+      <c r="T90" s="63">
         <v>10.0</v>
       </c>
-      <c r="U90" s="65">
+      <c r="U90" s="64">
         <v>5.0</v>
       </c>
-      <c r="V90" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W90" s="65">
+      <c r="V90" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W90" s="64">
         <v>0.0</v>
       </c>
       <c r="X90" s="56" t="s">
@@ -11231,19 +11231,19 @@
       <c r="R97" s="45">
         <v>0.0</v>
       </c>
-      <c r="S97" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T97" s="64">
+      <c r="S97" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T97" s="63">
         <v>5.0</v>
       </c>
-      <c r="U97" s="65">
+      <c r="U97" s="64">
         <v>5.0</v>
       </c>
-      <c r="V97" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W97" s="65">
+      <c r="V97" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W97" s="64">
         <v>0.0</v>
       </c>
       <c r="X97" s="32" t="s">
@@ -11294,19 +11294,19 @@
       <c r="R98" s="45">
         <v>1.0</v>
       </c>
-      <c r="S98" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T98" s="64">
+      <c r="S98" s="50">
+        <v>227.0</v>
+      </c>
+      <c r="T98" s="63">
         <v>10.0</v>
       </c>
-      <c r="U98" s="65">
+      <c r="U98" s="64">
         <v>5.0</v>
       </c>
-      <c r="V98" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W98" s="65">
+      <c r="V98" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W98" s="64">
         <v>0.0</v>
       </c>
       <c r="X98" s="56" t="s">
@@ -11617,19 +11617,19 @@
       <c r="R105" s="45">
         <v>0.0</v>
       </c>
-      <c r="S105" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T105" s="64">
+      <c r="S105" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T105" s="63">
         <v>5.0</v>
       </c>
-      <c r="U105" s="65">
+      <c r="U105" s="64">
         <v>5.0</v>
       </c>
-      <c r="V105" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W105" s="65">
+      <c r="V105" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W105" s="64">
         <v>0.0</v>
       </c>
       <c r="X105" s="32" t="s">
@@ -11643,19 +11643,19 @@
       <c r="R106" s="45">
         <v>1.0</v>
       </c>
-      <c r="S106" s="63">
-        <v>224.0</v>
-      </c>
-      <c r="T106" s="64">
+      <c r="S106" s="50">
+        <v>172.0</v>
+      </c>
+      <c r="T106" s="63">
         <v>10.0</v>
       </c>
-      <c r="U106" s="65">
+      <c r="U106" s="64">
         <v>5.0</v>
       </c>
-      <c r="V106" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W106" s="65">
+      <c r="V106" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W106" s="64">
         <v>0.0</v>
       </c>
       <c r="X106" s="56" t="s">
@@ -11825,19 +11825,19 @@
       <c r="R113" s="45">
         <v>0.0</v>
       </c>
-      <c r="S113" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="T113" s="64">
+      <c r="S113" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="T113" s="63">
         <v>5.0</v>
       </c>
-      <c r="U113" s="65">
+      <c r="U113" s="64">
         <v>5.0</v>
       </c>
-      <c r="V113" s="65">
-        <v>0.0</v>
-      </c>
-      <c r="W113" s="65">
+      <c r="V113" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="W113" s="64">
         <v>0.0</v>
       </c>
       <c r="X113" s="32" t="s">
@@ -23111,7 +23111,7 @@
         <v>1.0</v>
       </c>
       <c r="P19" s="54">
-        <v>260.0</v>
+        <v>266.0</v>
       </c>
       <c r="Q19" s="54">
         <v>5.0</v>
@@ -24091,7 +24091,7 @@
         <v>1.0</v>
       </c>
       <c r="P29" s="54">
-        <v>260.0</v>
+        <v>266.0</v>
       </c>
       <c r="Q29" s="54">
         <v>10.0</v>
@@ -25076,7 +25076,7 @@
         <v>1.0</v>
       </c>
       <c r="P39" s="54">
-        <v>260.0</v>
+        <v>266.0</v>
       </c>
       <c r="Q39" s="54">
         <v>15.0</v>

--- a/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
@@ -9,13 +9,15 @@
     <sheet state="visible" name="reward_config" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Sheet2" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">reward_config!$I$1:$I$1000</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="221">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -236,15 +238,6 @@
     <t>You forgot some rewards, please check</t>
   </si>
   <si>
-    <t>color_tours  // 将不同颜色的球场再配置到不同的Tour中</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>tour_id</t>
-  </si>
-  <si>
     <t>pve_conf</t>
   </si>
   <si>
@@ -350,7 +343,7 @@
     <t>chapter 1</t>
   </si>
   <si>
-    <t>弹球*4</t>
+    <t>弹球*2</t>
   </si>
   <si>
     <t>剧本（银色宝箱*1）</t>
@@ -360,9 +353,6 @@
   </si>
   <si>
     <t>体力*2</t>
-  </si>
-  <si>
-    <t>弹球*2</t>
   </si>
   <si>
     <t>8,9,10,11</t>
@@ -408,6 +398,9 @@
   </si>
   <si>
     <t>第二大区</t>
+  </si>
+  <si>
+    <t>弹球*4</t>
   </si>
   <si>
     <t>紫卡*4</t>
@@ -3824,9 +3817,7 @@
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="36" t="s">
-        <v>73</v>
-      </c>
+      <c r="A105" s="36"/>
       <c r="B105" s="41"/>
       <c r="C105" s="41"/>
       <c r="D105" s="41"/>
@@ -3861,34 +3852,8 @@
       <c r="AG105" s="41"/>
     </row>
     <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B107" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C107" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D107" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="C108" s="1">
-        <v>97.0</v>
-      </c>
-      <c r="D108" s="1">
-        <v>96.0</v>
-      </c>
-    </row>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
     <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
@@ -4902,7 +4867,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6506,7 +6471,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
@@ -6514,7 +6479,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
@@ -6522,7 +6487,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="13">
         <v>420.0</v>
@@ -6538,7 +6503,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1">
         <v>43200.0</v>
@@ -6546,7 +6511,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1">
         <v>8.0</v>
@@ -6554,7 +6519,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1">
         <v>60.0</v>
@@ -6562,7 +6527,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -6587,7 +6552,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="11">
         <v>90.0</v>
@@ -6607,7 +6572,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="13">
         <v>2.0</v>
@@ -6627,7 +6592,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" s="13">
         <v>1.0</v>
@@ -6648,7 +6613,7 @@
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="13">
         <v>420.0</v>
@@ -6664,7 +6629,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -8270,38 +8235,38 @@
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="S19" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="F20" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="12"/>
       <c r="E21" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -8323,47 +8288,47 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="L22" s="49" t="s">
         <v>103</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="M22" s="44" t="s">
         <v>32</v>
       </c>
       <c r="N22" s="50"/>
       <c r="Q22" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S22" s="51" t="s">
         <v>40</v>
@@ -8381,7 +8346,7 @@
         <v>44</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -8389,7 +8354,7 @@
         <v>1.0</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C23" s="47">
         <v>1.0</v>
@@ -8436,7 +8401,7 @@
         <v>1.0</v>
       </c>
       <c r="T23" s="52">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U23" s="52">
         <v>5.0</v>
@@ -8448,7 +8413,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Y23" s="53"/>
     </row>
@@ -8457,7 +8422,7 @@
         <v>2.0</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C24" s="54">
         <v>2.0</v>
@@ -8516,7 +8481,7 @@
         <v>23.0</v>
       </c>
       <c r="X24" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y24" s="56"/>
     </row>
@@ -8525,7 +8490,7 @@
         <v>3.0</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" s="47">
         <v>3.0</v>
@@ -8584,7 +8549,7 @@
         <v>23.0</v>
       </c>
       <c r="X25" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y25" s="56"/>
     </row>
@@ -8593,7 +8558,7 @@
         <v>4.0</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C26" s="47">
         <v>4.0</v>
@@ -8652,7 +8617,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y26" s="58"/>
     </row>
@@ -8661,7 +8626,7 @@
         <v>5.0</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" s="47">
         <v>5.0</v>
@@ -8720,7 +8685,7 @@
         <v>0.0</v>
       </c>
       <c r="X27" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y27" s="61"/>
     </row>
@@ -8729,7 +8694,7 @@
         <v>6.0</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" s="47">
         <v>6.0</v>
@@ -8788,7 +8753,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" s="61" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y28" s="61"/>
     </row>
@@ -8797,7 +8762,7 @@
         <v>7.0</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C29" s="47">
         <v>7.0</v>
@@ -8856,7 +8821,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" s="53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y29" s="53"/>
     </row>
@@ -8865,10 +8830,10 @@
         <v>8.0</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E30" s="48">
         <v>8.0</v>
@@ -8924,7 +8889,7 @@
         <v>3.0</v>
       </c>
       <c r="X30" s="57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Y30" s="58"/>
     </row>
@@ -8933,7 +8898,7 @@
         <v>9.0</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="54">
         <v>12.0</v>
@@ -8992,7 +8957,7 @@
         <v>0.0</v>
       </c>
       <c r="X31" s="61" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y31" s="61"/>
     </row>
@@ -9001,7 +8966,7 @@
         <v>10.0</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C32" s="54">
         <v>13.0</v>
@@ -9060,7 +9025,7 @@
         <v>3.0</v>
       </c>
       <c r="X32" s="60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Y32" s="58"/>
     </row>
@@ -9069,7 +9034,7 @@
         <v>11.0</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C33" s="54">
         <v>14.0</v>
@@ -9128,7 +9093,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" s="53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y33" s="53"/>
     </row>
@@ -9137,7 +9102,7 @@
         <v>12.0</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C34" s="54">
         <v>15.0</v>
@@ -9170,7 +9135,7 @@
         <v>3.0</v>
       </c>
       <c r="N34" s="62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O34" s="2">
         <f>vlookup(G34,Sheet2!$A$1:$E$9,2,false)</f>
@@ -9198,7 +9163,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" s="65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y34" s="61"/>
     </row>
@@ -9207,7 +9172,7 @@
         <v>13.0</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C35" s="54">
         <v>16.0</v>
@@ -9266,7 +9231,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y35" s="56"/>
     </row>
@@ -9275,10 +9240,10 @@
         <v>14.0</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E36" s="48">
         <v>14.0</v>
@@ -9334,7 +9299,7 @@
         <v>3.0</v>
       </c>
       <c r="X36" s="60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Y36" s="58"/>
     </row>
@@ -9343,7 +9308,7 @@
         <v>15.0</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C37" s="54">
         <v>21.0</v>
@@ -9402,7 +9367,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" s="53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y37" s="53"/>
     </row>
@@ -9411,7 +9376,7 @@
         <v>16.0</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="54">
         <v>22.0</v>
@@ -9470,7 +9435,7 @@
         <v>3.0</v>
       </c>
       <c r="X38" s="57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Y38" s="58"/>
     </row>
@@ -9479,7 +9444,7 @@
         <v>17.0</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C39" s="54">
         <v>23.0</v>
@@ -9538,7 +9503,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" s="60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y39" s="58"/>
     </row>
@@ -9547,7 +9512,7 @@
         <v>18.0</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C40" s="54">
         <v>24.0</v>
@@ -9606,7 +9571,7 @@
         <v>3.0</v>
       </c>
       <c r="X40" s="60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Y40" s="58"/>
     </row>
@@ -9615,7 +9580,7 @@
         <v>19.0</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C41" s="54">
         <v>25.0</v>
@@ -9674,7 +9639,7 @@
         <v>0.0</v>
       </c>
       <c r="X41" s="53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y41" s="53"/>
     </row>
@@ -9683,7 +9648,7 @@
         <v>20.0</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C42" s="54">
         <v>26.0</v>
@@ -9742,7 +9707,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" s="66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y42" s="61"/>
     </row>
@@ -9751,7 +9716,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43" s="54">
         <v>27.0</v>
@@ -9810,7 +9775,7 @@
         <v>0.0</v>
       </c>
       <c r="X43" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y43" s="58"/>
     </row>
@@ -9819,7 +9784,7 @@
         <v>22.0</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C44" s="54">
         <v>28.0</v>
@@ -9878,7 +9843,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" s="60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y44" s="58"/>
     </row>
@@ -9887,7 +9852,7 @@
         <v>23.0</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C45" s="54">
         <v>29.0</v>
@@ -9946,7 +9911,7 @@
         <v>3.0</v>
       </c>
       <c r="X45" s="60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Y45" s="58"/>
     </row>
@@ -9955,7 +9920,7 @@
         <v>24.0</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C46" s="54">
         <v>30.0</v>
@@ -10014,7 +9979,7 @@
         <v>3.0</v>
       </c>
       <c r="X46" s="57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Y46" s="58"/>
     </row>
@@ -10023,7 +9988,7 @@
         <v>25.0</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C47" s="54">
         <v>31.0</v>
@@ -10082,7 +10047,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" s="53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y47" s="53"/>
     </row>
@@ -10091,10 +10056,10 @@
         <v>26.0</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E48" s="48">
         <v>26.0</v>
@@ -10150,7 +10115,7 @@
         <v>0.0</v>
       </c>
       <c r="X48" s="60" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Y48" s="58"/>
     </row>
@@ -10159,7 +10124,7 @@
         <v>27.0</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C49" s="54">
         <v>36.0</v>
@@ -10218,7 +10183,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y49" s="58"/>
     </row>
@@ -10227,7 +10192,7 @@
         <v>28.0</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C50" s="54">
         <v>37.0</v>
@@ -10286,7 +10251,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" s="65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y50" s="61"/>
     </row>
@@ -10295,7 +10260,7 @@
         <v>29.0</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C51" s="54">
         <v>38.0</v>
@@ -10354,7 +10319,7 @@
         <v>0.0</v>
       </c>
       <c r="X51" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y51" s="53"/>
     </row>
@@ -10363,7 +10328,7 @@
         <v>30.0</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C52" s="54">
         <v>39.0</v>
@@ -10422,7 +10387,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y52" s="58"/>
     </row>
@@ -10431,7 +10396,7 @@
         <v>31.0</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C53" s="54">
         <v>40.0</v>
@@ -10490,7 +10455,7 @@
         <v>3.0</v>
       </c>
       <c r="X53" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y53" s="58"/>
     </row>
@@ -10499,10 +10464,10 @@
         <v>32.0</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E54" s="48">
         <v>32.0</v>
@@ -10558,7 +10523,7 @@
         <v>3.0</v>
       </c>
       <c r="X54" s="57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Y54" s="58"/>
     </row>
@@ -10567,7 +10532,7 @@
         <v>33.0</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C55" s="54">
         <v>45.0</v>
@@ -10626,7 +10591,7 @@
         <v>0.0</v>
       </c>
       <c r="X55" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y55" s="53"/>
     </row>
@@ -10635,7 +10600,7 @@
         <v>34.0</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C56" s="54">
         <v>46.0</v>
@@ -10694,7 +10659,7 @@
         <v>3.0</v>
       </c>
       <c r="X56" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y56" s="58"/>
     </row>
@@ -10703,7 +10668,7 @@
         <v>35.0</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C57" s="54">
         <v>47.0</v>
@@ -10762,7 +10727,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y57" s="53"/>
     </row>
@@ -10771,7 +10736,7 @@
         <v>36.0</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C58" s="54">
         <v>48.0</v>
@@ -10830,7 +10795,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" s="65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y58" s="61"/>
     </row>
@@ -10839,7 +10804,7 @@
         <v>37.0</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C59" s="54">
         <v>49.0</v>
@@ -10872,7 +10837,7 @@
         <v>5.0</v>
       </c>
       <c r="N59" s="38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O59" s="2">
         <f>vlookup(G59,Sheet2!$A$1:$E$9,3,false)</f>
@@ -10900,7 +10865,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" s="60" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y59" s="58"/>
     </row>
@@ -10909,7 +10874,7 @@
         <v>38.0</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C60" s="54">
         <v>50.0</v>
@@ -10968,7 +10933,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" s="60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y60" s="58"/>
     </row>
@@ -10977,7 +10942,7 @@
         <v>39.0</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C61" s="54">
         <v>51.0</v>
@@ -11036,7 +11001,7 @@
         <v>3.0</v>
       </c>
       <c r="X61" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y61" s="58"/>
     </row>
@@ -11045,7 +11010,7 @@
         <v>40.0</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C62" s="54">
         <v>52.0</v>
@@ -11104,7 +11069,7 @@
         <v>3.0</v>
       </c>
       <c r="X62" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y62" s="58"/>
     </row>
@@ -11113,7 +11078,7 @@
         <v>41.0</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C63" s="54">
         <v>53.0</v>
@@ -11172,7 +11137,7 @@
         <v>0.0</v>
       </c>
       <c r="X63" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y63" s="58"/>
     </row>
@@ -11181,7 +11146,7 @@
         <v>42.0</v>
       </c>
       <c r="B64" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C64" s="54">
         <v>54.0</v>
@@ -11240,7 +11205,7 @@
         <v>3.0</v>
       </c>
       <c r="X64" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y64" s="58"/>
     </row>
@@ -11249,7 +11214,7 @@
         <v>43.0</v>
       </c>
       <c r="B65" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" s="54">
         <v>55.0</v>
@@ -11308,7 +11273,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y65" s="53"/>
     </row>
@@ -11317,10 +11282,10 @@
         <v>44.0</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C66" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E66" s="48">
         <v>44.0</v>
@@ -11376,7 +11341,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y66" s="58"/>
     </row>
@@ -11385,7 +11350,7 @@
         <v>45.0</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C67" s="54">
         <v>60.0</v>
@@ -11444,7 +11409,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y67" s="56"/>
     </row>
@@ -11453,7 +11418,7 @@
         <v>46.0</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C68" s="54">
         <v>61.0</v>
@@ -11512,7 +11477,7 @@
         <v>3.0</v>
       </c>
       <c r="X68" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y68" s="58"/>
     </row>
@@ -11521,7 +11486,7 @@
         <v>47.0</v>
       </c>
       <c r="B69" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C69" s="54">
         <v>62.0</v>
@@ -11580,7 +11545,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y69" s="53"/>
     </row>
@@ -11589,7 +11554,7 @@
         <v>48.0</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C70" s="54">
         <v>63.0</v>
@@ -11648,7 +11613,7 @@
         <v>3.0</v>
       </c>
       <c r="X70" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y70" s="58"/>
     </row>
@@ -11657,7 +11622,7 @@
         <v>49.0</v>
       </c>
       <c r="B71" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C71" s="54">
         <v>64.0</v>
@@ -11716,7 +11681,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" s="60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y71" s="58"/>
     </row>
@@ -11725,10 +11690,10 @@
         <v>50.0</v>
       </c>
       <c r="B72" s="54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C72" s="54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E72" s="48">
         <v>50.0</v>
@@ -11784,7 +11749,7 @@
         <v>3.0</v>
       </c>
       <c r="X72" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y72" s="56"/>
     </row>
@@ -11793,7 +11758,7 @@
         <v>51.0</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C73" s="54">
         <v>69.0</v>
@@ -11852,7 +11817,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y73" s="53"/>
     </row>
@@ -11861,7 +11826,7 @@
         <v>52.0</v>
       </c>
       <c r="B74" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C74" s="54">
         <v>70.0</v>
@@ -11920,7 +11885,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y74" s="58"/>
     </row>
@@ -11929,7 +11894,7 @@
         <v>53.0</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C75" s="54">
         <v>71.0</v>
@@ -11988,7 +11953,7 @@
         <v>3.0</v>
       </c>
       <c r="X75" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y75" s="56"/>
     </row>
@@ -11997,7 +11962,7 @@
         <v>54.0</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C76" s="54">
         <v>72.0</v>
@@ -12056,7 +12021,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" s="60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y76" s="58"/>
     </row>
@@ -12065,7 +12030,7 @@
         <v>55.0</v>
       </c>
       <c r="B77" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C77" s="54">
         <v>73.0</v>
@@ -12124,7 +12089,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" s="61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y77" s="61"/>
     </row>
@@ -12133,7 +12098,7 @@
         <v>56.0</v>
       </c>
       <c r="B78" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C78" s="54">
         <v>74.0</v>
@@ -12192,7 +12157,7 @@
         <v>3.0</v>
       </c>
       <c r="X78" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y78" s="58"/>
     </row>
@@ -12201,7 +12166,7 @@
         <v>57.0</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C79" s="54">
         <v>75.0</v>
@@ -12260,7 +12225,7 @@
         <v>3.0</v>
       </c>
       <c r="X79" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y79" s="58"/>
     </row>
@@ -12269,10 +12234,10 @@
         <v>58.0</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E80" s="48">
         <v>58.0</v>
@@ -12328,7 +12293,7 @@
         <v>0.0</v>
       </c>
       <c r="X80" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y80" s="56"/>
     </row>
@@ -12337,7 +12302,7 @@
         <v>59.0</v>
       </c>
       <c r="B81" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C81" s="54">
         <v>79.0</v>
@@ -12370,7 +12335,7 @@
         <v>9.0</v>
       </c>
       <c r="N81" s="70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O81" s="2">
         <f>vlookup(G81,Sheet2!$A$1:$E$9,4,false)</f>
@@ -12398,7 +12363,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y81" s="53"/>
     </row>
@@ -12407,7 +12372,7 @@
         <v>60.0</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C82" s="54">
         <v>80.0</v>
@@ -12466,7 +12431,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y82" s="58"/>
     </row>
@@ -12528,7 +12493,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y83" s="53"/>
     </row>
@@ -12590,7 +12555,7 @@
         <v>3.0</v>
       </c>
       <c r="X84" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y84" s="56"/>
     </row>
@@ -12652,7 +12617,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y85" s="56"/>
     </row>
@@ -12714,7 +12679,7 @@
         <v>3.0</v>
       </c>
       <c r="X86" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y86" s="58"/>
     </row>
@@ -12776,7 +12741,7 @@
         <v>3.0</v>
       </c>
       <c r="X87" s="60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y87" s="58"/>
     </row>
@@ -12838,7 +12803,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y88" s="56"/>
     </row>
@@ -12900,7 +12865,7 @@
         <v>0.0</v>
       </c>
       <c r="X89" s="53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y89" s="56"/>
     </row>
@@ -12962,7 +12927,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y90" s="58"/>
     </row>
@@ -13024,7 +12989,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" s="53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Y91" s="53"/>
     </row>
@@ -13086,7 +13051,7 @@
         <v>3.0</v>
       </c>
       <c r="X92" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y92" s="56"/>
     </row>
@@ -13148,7 +13113,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y93" s="56"/>
     </row>
@@ -13210,7 +13175,7 @@
         <v>3.0</v>
       </c>
       <c r="X94" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y94" s="58"/>
     </row>
@@ -13272,7 +13237,7 @@
         <v>3.0</v>
       </c>
       <c r="X95" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y95" s="58"/>
     </row>
@@ -13334,7 +13299,7 @@
         <v>0.0</v>
       </c>
       <c r="X96" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y96" s="56"/>
     </row>
@@ -13396,7 +13361,7 @@
         <v>0.0</v>
       </c>
       <c r="X97" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y97" s="53"/>
     </row>
@@ -13432,7 +13397,7 @@
         <v>10.0</v>
       </c>
       <c r="N98" s="29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O98" s="2">
         <f>vlookup(G98,Sheet2!$A$1:$E$9,5,false)</f>
@@ -13460,7 +13425,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y98" s="58"/>
     </row>
@@ -13522,7 +13487,7 @@
         <v>0.0</v>
       </c>
       <c r="X99" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y99" s="53"/>
     </row>
@@ -13584,7 +13549,7 @@
         <v>3.0</v>
       </c>
       <c r="X100" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y100" s="56"/>
     </row>
@@ -13646,7 +13611,7 @@
         <v>0.0</v>
       </c>
       <c r="X101" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y101" s="56"/>
     </row>
@@ -13708,7 +13673,7 @@
         <v>3.0</v>
       </c>
       <c r="X102" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y102" s="58"/>
     </row>
@@ -13736,7 +13701,7 @@
         <v>3.0</v>
       </c>
       <c r="X103" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y103" s="58"/>
     </row>
@@ -13763,7 +13728,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y104" s="56"/>
     </row>
@@ -13790,7 +13755,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y105" s="53"/>
     </row>
@@ -13817,7 +13782,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y106" s="58"/>
     </row>
@@ -13844,7 +13809,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y107" s="53"/>
     </row>
@@ -13871,7 +13836,7 @@
         <v>3.0</v>
       </c>
       <c r="X108" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y108" s="56"/>
     </row>
@@ -13898,7 +13863,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y109" s="56"/>
     </row>
@@ -13925,7 +13890,7 @@
         <v>3.0</v>
       </c>
       <c r="X110" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y110" s="58"/>
     </row>
@@ -13952,7 +13917,7 @@
         <v>3.0</v>
       </c>
       <c r="X111" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y111" s="58"/>
     </row>
@@ -13979,7 +13944,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y112" s="56"/>
     </row>
@@ -14006,7 +13971,7 @@
         <v>0.0</v>
       </c>
       <c r="X113" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y113" s="53"/>
     </row>
@@ -14033,7 +13998,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y114" s="58"/>
     </row>
@@ -14060,7 +14025,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y115" s="53"/>
     </row>
@@ -14087,7 +14052,7 @@
         <v>3.0</v>
       </c>
       <c r="X116" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y116" s="56"/>
     </row>
@@ -14114,7 +14079,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y117" s="56"/>
     </row>
@@ -14141,7 +14106,7 @@
         <v>3.0</v>
       </c>
       <c r="X118" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y118" s="58"/>
     </row>
@@ -14168,7 +14133,7 @@
         <v>3.0</v>
       </c>
       <c r="X119" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y119" s="58"/>
     </row>
@@ -14195,7 +14160,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y120" s="56"/>
     </row>
@@ -14222,7 +14187,7 @@
         <v>0.0</v>
       </c>
       <c r="X121" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y121" s="53"/>
     </row>
@@ -14263,7 +14228,7 @@
         <v>0.0</v>
       </c>
       <c r="X122" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y122" s="72"/>
       <c r="Z122" s="31"/>
@@ -15879,7 +15844,7 @@
         <v>0.0</v>
       </c>
       <c r="X123" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y123" s="53"/>
       <c r="Z123" s="31"/>
@@ -17481,7 +17446,7 @@
         <v>3.0</v>
       </c>
       <c r="X124" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y124" s="56"/>
     </row>
@@ -17508,7 +17473,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y125" s="56"/>
     </row>
@@ -17535,7 +17500,7 @@
         <v>3.0</v>
       </c>
       <c r="X126" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y126" s="58"/>
     </row>
@@ -17562,7 +17527,7 @@
         <v>3.0</v>
       </c>
       <c r="X127" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y127" s="58"/>
     </row>
@@ -17589,7 +17554,7 @@
         <v>0.0</v>
       </c>
       <c r="X128" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y128" s="56"/>
     </row>
@@ -17616,7 +17581,7 @@
         <v>0.0</v>
       </c>
       <c r="X129" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y129" s="53"/>
     </row>
@@ -17643,7 +17608,7 @@
         <v>0.0</v>
       </c>
       <c r="X130" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y130" s="58"/>
     </row>
@@ -17670,7 +17635,7 @@
         <v>0.0</v>
       </c>
       <c r="X131" s="53" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Y131" s="53"/>
     </row>
@@ -17697,7 +17662,7 @@
         <v>3.0</v>
       </c>
       <c r="X132" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y132" s="56"/>
     </row>
@@ -17724,7 +17689,7 @@
         <v>0.0</v>
       </c>
       <c r="X133" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y133" s="56"/>
     </row>
@@ -17751,7 +17716,7 @@
         <v>3.0</v>
       </c>
       <c r="X134" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y134" s="58"/>
     </row>
@@ -17778,7 +17743,7 @@
         <v>3.0</v>
       </c>
       <c r="X135" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y135" s="58"/>
     </row>
@@ -17805,7 +17770,7 @@
         <v>0.0</v>
       </c>
       <c r="X136" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y136" s="56"/>
     </row>
@@ -17832,7 +17797,7 @@
         <v>0.0</v>
       </c>
       <c r="X137" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y137" s="53"/>
     </row>
@@ -17859,7 +17824,7 @@
         <v>0.0</v>
       </c>
       <c r="X138" s="65" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y138" s="61"/>
     </row>
@@ -17886,7 +17851,7 @@
         <v>0.0</v>
       </c>
       <c r="X139" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y139" s="53"/>
     </row>
@@ -17913,7 +17878,7 @@
         <v>3.0</v>
       </c>
       <c r="X140" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y140" s="56"/>
     </row>
@@ -17940,7 +17905,7 @@
         <v>0.0</v>
       </c>
       <c r="X141" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y141" s="56"/>
     </row>
@@ -17967,7 +17932,7 @@
         <v>3.0</v>
       </c>
       <c r="X142" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y142" s="58"/>
     </row>
@@ -17994,7 +17959,7 @@
         <v>3.0</v>
       </c>
       <c r="X143" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y143" s="58"/>
     </row>
@@ -18021,7 +17986,7 @@
         <v>0.0</v>
       </c>
       <c r="X144" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y144" s="56"/>
     </row>
@@ -18048,7 +18013,7 @@
         <v>0.0</v>
       </c>
       <c r="X145" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y145" s="53"/>
     </row>
@@ -18075,7 +18040,7 @@
         <v>0.0</v>
       </c>
       <c r="X146" s="65" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y146" s="61"/>
     </row>
@@ -18102,7 +18067,7 @@
         <v>0.0</v>
       </c>
       <c r="X147" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y147" s="53"/>
     </row>
@@ -18129,7 +18094,7 @@
         <v>3.0</v>
       </c>
       <c r="X148" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y148" s="56"/>
     </row>
@@ -18156,7 +18121,7 @@
         <v>0.0</v>
       </c>
       <c r="X149" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y149" s="56"/>
     </row>
@@ -18183,7 +18148,7 @@
         <v>3.0</v>
       </c>
       <c r="X150" s="57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y150" s="58"/>
     </row>
@@ -18210,7 +18175,7 @@
         <v>3.0</v>
       </c>
       <c r="X151" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y151" s="58"/>
     </row>
@@ -18237,7 +18202,7 @@
         <v>0.0</v>
       </c>
       <c r="X152" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y152" s="56"/>
     </row>
@@ -18264,7 +18229,7 @@
         <v>0.0</v>
       </c>
       <c r="X153" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y153" s="53"/>
     </row>
@@ -18291,7 +18256,7 @@
         <v>0.0</v>
       </c>
       <c r="X154" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y154" s="58"/>
     </row>
@@ -18318,7 +18283,7 @@
         <v>0.0</v>
       </c>
       <c r="X155" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y155" s="53"/>
     </row>
@@ -18345,7 +18310,7 @@
         <v>3.0</v>
       </c>
       <c r="X156" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y156" s="56"/>
     </row>
@@ -18372,7 +18337,7 @@
         <v>0.0</v>
       </c>
       <c r="X157" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y157" s="56"/>
     </row>
@@ -18399,7 +18364,7 @@
         <v>3.0</v>
       </c>
       <c r="X158" s="57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y158" s="58"/>
     </row>
@@ -18426,7 +18391,7 @@
         <v>3.0</v>
       </c>
       <c r="X159" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y159" s="58"/>
     </row>
@@ -18453,7 +18418,7 @@
         <v>0.0</v>
       </c>
       <c r="X160" s="53" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y160" s="56"/>
     </row>
@@ -18480,7 +18445,7 @@
         <v>0.0</v>
       </c>
       <c r="X161" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y161" s="53"/>
     </row>
@@ -18507,7 +18472,7 @@
         <v>0.0</v>
       </c>
       <c r="X162" s="57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y162" s="58"/>
     </row>
@@ -18526,10 +18491,10 @@
     <row r="175" ht="15.75" customHeight="1"/>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B176" s="73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C176" s="74"/>
       <c r="D176" s="74"/>
@@ -20132,7 +20097,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B177" s="31">
         <v>1.0</v>
@@ -23736,7 +23701,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B178" s="31">
         <v>1.0</v>
@@ -26741,7 +26706,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B179" s="31">
         <v>2.0</v>
@@ -32659,12 +32624,12 @@
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="5">
         <v>3.0</v>
@@ -32672,7 +32637,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5">
         <v>0.0</v>
@@ -32681,7 +32646,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" s="29">
         <v>3.0</v>
@@ -32689,7 +32654,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -32754,7 +32719,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="G13" s="76" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="76"/>
@@ -32766,40 +32731,40 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="G14" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="H14" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="J14" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="K14" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="L14" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="M14" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="N14" s="77" t="s">
         <v>165</v>
-      </c>
-      <c r="L14" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="N14" s="77" t="s">
-        <v>168</v>
       </c>
       <c r="P14" s="44" t="s">
         <v>40</v>
@@ -32817,7 +32782,7 @@
         <v>44</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V14" s="47" t="s">
         <v>40</v>
@@ -32935,7 +32900,7 @@
         <v>0.0</v>
       </c>
       <c r="U15" s="82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V15" s="47"/>
       <c r="W15" s="47"/>
@@ -33033,7 +32998,7 @@
         <v>0.0</v>
       </c>
       <c r="U16" s="82" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V16" s="47"/>
       <c r="W16" s="47"/>
@@ -33131,7 +33096,7 @@
         <v>3.0</v>
       </c>
       <c r="U17" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V17" s="47"/>
       <c r="W17" s="47"/>
@@ -33229,7 +33194,7 @@
         <v>0.0</v>
       </c>
       <c r="U18" s="82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="V18" s="47"/>
       <c r="W18" s="47"/>
@@ -33327,7 +33292,7 @@
         <v>3.0</v>
       </c>
       <c r="U19" s="83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V19" s="84"/>
       <c r="W19" s="84"/>
@@ -33425,7 +33390,7 @@
         <v>0.0</v>
       </c>
       <c r="U20" s="82" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="V20" s="47"/>
       <c r="W20" s="47"/>
@@ -33523,7 +33488,7 @@
         <v>0.0</v>
       </c>
       <c r="U21" s="82" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="47"/>
@@ -33621,7 +33586,7 @@
         <v>3.0</v>
       </c>
       <c r="U22" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V22" s="47"/>
       <c r="W22" s="47"/>
@@ -33719,7 +33684,7 @@
         <v>0.0</v>
       </c>
       <c r="U23" s="82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
@@ -33817,7 +33782,7 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V24" s="84"/>
       <c r="W24" s="84"/>
@@ -33915,7 +33880,7 @@
         <v>0.0</v>
       </c>
       <c r="U25" s="82" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="V25" s="47"/>
       <c r="W25" s="47"/>
@@ -34013,7 +33978,7 @@
         <v>0.0</v>
       </c>
       <c r="U26" s="82" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V26" s="47"/>
       <c r="W26" s="47"/>
@@ -34111,7 +34076,7 @@
         <v>3.0</v>
       </c>
       <c r="U27" s="82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="V27" s="47"/>
       <c r="W27" s="47"/>
@@ -34209,7 +34174,7 @@
         <v>0.0</v>
       </c>
       <c r="U28" s="82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V28" s="47"/>
       <c r="W28" s="47"/>
@@ -34307,7 +34272,7 @@
         <v>3.0</v>
       </c>
       <c r="U29" s="83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V29" s="84"/>
       <c r="W29" s="84"/>
@@ -34405,7 +34370,7 @@
         <v>0.0</v>
       </c>
       <c r="U30" s="82" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V30" s="47"/>
       <c r="W30" s="47"/>
@@ -34503,7 +34468,7 @@
         <v>0.0</v>
       </c>
       <c r="U31" s="82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V31" s="47"/>
       <c r="W31" s="47"/>
@@ -34601,7 +34566,7 @@
         <v>3.0</v>
       </c>
       <c r="U32" s="82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="V32" s="47"/>
       <c r="W32" s="47"/>
@@ -34699,7 +34664,7 @@
         <v>0.0</v>
       </c>
       <c r="U33" s="82" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V33" s="47"/>
       <c r="W33" s="47"/>
@@ -34797,7 +34762,7 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="V34" s="84"/>
       <c r="W34" s="84"/>
@@ -34896,7 +34861,7 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="82" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V35" s="47"/>
       <c r="W35" s="47"/>
@@ -34995,7 +34960,7 @@
         <v>0.0</v>
       </c>
       <c r="U36" s="82" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V36" s="47"/>
       <c r="W36" s="47"/>
@@ -35094,7 +35059,7 @@
         <v>3.0</v>
       </c>
       <c r="U37" s="82" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="V37" s="47"/>
       <c r="W37" s="47"/>
@@ -35193,7 +35158,7 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="82" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="V38" s="47"/>
       <c r="W38" s="47"/>
@@ -35292,7 +35257,7 @@
         <v>3.0</v>
       </c>
       <c r="U39" s="83" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V39" s="84"/>
       <c r="W39" s="84"/>
@@ -35390,7 +35355,7 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="V40" s="47"/>
       <c r="W40" s="47"/>
@@ -35488,7 +35453,7 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="82" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="V41" s="47"/>
       <c r="W41" s="47"/>
@@ -35586,7 +35551,7 @@
         <v>3.0</v>
       </c>
       <c r="U42" s="82" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="V42" s="47"/>
       <c r="W42" s="47"/>
@@ -35684,7 +35649,7 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V43" s="47"/>
       <c r="W43" s="47"/>
@@ -35782,7 +35747,7 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="83" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="V44" s="47"/>
       <c r="W44" s="47"/>
@@ -36011,7 +35976,7 @@
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -36077,13 +36042,13 @@
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>40</v>
@@ -36211,7 +36176,7 @@
     <row r="60" ht="15.75" customHeight="1"/>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B61" s="68"/>
       <c r="C61" s="68"/>
@@ -36276,7 +36241,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B62" s="1">
         <v>1.4</v>
@@ -37361,13 +37326,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
@@ -37385,7 +37350,7 @@
         <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>40</v>
@@ -37403,7 +37368,7 @@
         <v>44</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>40</v>
@@ -37421,7 +37386,7 @@
         <v>44</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>40</v>
@@ -37439,7 +37404,7 @@
         <v>44</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>40</v>
@@ -37457,7 +37422,7 @@
         <v>44</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -37465,7 +37430,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -37486,7 +37451,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J3" s="53"/>
       <c r="K3" s="2">
@@ -37528,7 +37493,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="2">
@@ -37570,7 +37535,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="2">
@@ -37612,7 +37577,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J6" s="53"/>
       <c r="K6" s="2">
@@ -37638,8 +37603,8 @@
       <c r="C7" s="2">
         <v>5.0</v>
       </c>
-      <c r="D7" s="80">
-        <v>0.0</v>
+      <c r="D7" s="1">
+        <v>1.0</v>
       </c>
       <c r="E7" s="1">
         <v>1.0</v>
@@ -37654,7 +37619,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="2">
@@ -37696,7 +37661,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="2">
@@ -37722,8 +37687,8 @@
       <c r="C9" s="2">
         <v>7.0</v>
       </c>
-      <c r="D9" s="80">
-        <v>0.0</v>
+      <c r="D9" s="1">
+        <v>1.0</v>
       </c>
       <c r="E9" s="1">
         <v>1.0</v>
@@ -37738,7 +37703,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="2">
@@ -37780,7 +37745,7 @@
         <v>0.0</v>
       </c>
       <c r="I10" s="89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="2">
@@ -37822,7 +37787,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="2">
@@ -37864,7 +37829,7 @@
         <v>0.0</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="2">
@@ -37906,7 +37871,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J13" s="53"/>
       <c r="K13" s="2">
@@ -37948,7 +37913,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J14" s="53"/>
       <c r="K14" s="2">
@@ -37990,7 +37955,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="2">
@@ -38032,7 +37997,7 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J16" s="53"/>
       <c r="K16" s="2">
@@ -38057,7 +38022,7 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -38078,7 +38043,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="2">
@@ -38120,7 +38085,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J18" s="53"/>
       <c r="K18" s="2">
@@ -38162,7 +38127,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J19" s="53"/>
       <c r="K19" s="2">
@@ -38204,7 +38169,7 @@
         <v>0.0</v>
       </c>
       <c r="I20" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J20" s="53"/>
       <c r="K20" s="2">
@@ -38246,7 +38211,7 @@
         <v>0.0</v>
       </c>
       <c r="I21" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="2">
@@ -38288,7 +38253,7 @@
         <v>0.0</v>
       </c>
       <c r="I22" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="2">
@@ -38330,7 +38295,7 @@
         <v>0.0</v>
       </c>
       <c r="I23" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J23" s="53"/>
       <c r="K23" s="2">
@@ -38372,7 +38337,7 @@
         <v>0.0</v>
       </c>
       <c r="I24" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J24" s="53"/>
       <c r="K24" s="2">
@@ -38414,7 +38379,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J25" s="53"/>
       <c r="K25" s="2">
@@ -38456,7 +38421,7 @@
         <v>0.0</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J26" s="53"/>
       <c r="K26" s="2">
@@ -38481,7 +38446,7 @@
         <v>3.0</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -38502,7 +38467,7 @@
         <v>0.0</v>
       </c>
       <c r="I27" s="93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="2">
@@ -38544,7 +38509,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J28" s="53"/>
       <c r="K28" s="2">
@@ -38586,7 +38551,7 @@
         <v>0.0</v>
       </c>
       <c r="I29" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J29" s="53"/>
       <c r="K29" s="2">
@@ -38628,7 +38593,7 @@
         <v>0.0</v>
       </c>
       <c r="I30" s="89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J30" s="53"/>
       <c r="K30" s="2">
@@ -38670,7 +38635,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J31" s="53"/>
       <c r="K31" s="2">
@@ -38712,7 +38677,7 @@
         <v>0.0</v>
       </c>
       <c r="I32" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J32" s="53"/>
       <c r="K32" s="2">
@@ -38737,7 +38702,7 @@
         <v>4.0</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C33" s="1">
         <v>1.0</v>
@@ -38758,7 +38723,7 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J33" s="53"/>
       <c r="K33" s="2">
@@ -38800,7 +38765,7 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J34" s="53"/>
       <c r="K34" s="2">
@@ -38842,7 +38807,7 @@
         <v>0.0</v>
       </c>
       <c r="I35" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J35" s="53"/>
       <c r="K35" s="2">
@@ -38884,7 +38849,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J36" s="53"/>
       <c r="K36" s="2">
@@ -38926,7 +38891,7 @@
         <v>0.0</v>
       </c>
       <c r="I37" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J37" s="53"/>
       <c r="K37" s="2">
@@ -38968,7 +38933,7 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J38" s="53"/>
       <c r="K38" s="2">
@@ -39010,7 +38975,7 @@
         <v>0.0</v>
       </c>
       <c r="I39" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J39" s="53"/>
       <c r="K39" s="2">
@@ -39052,7 +39017,7 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J40" s="53"/>
       <c r="K40" s="2">
@@ -39094,7 +39059,7 @@
         <v>0.0</v>
       </c>
       <c r="I41" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J41" s="53"/>
       <c r="K41" s="2">
@@ -39136,7 +39101,7 @@
         <v>0.0</v>
       </c>
       <c r="I42" s="89" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J42" s="53"/>
       <c r="K42" s="2">
@@ -39178,7 +39143,7 @@
         <v>0.0</v>
       </c>
       <c r="I43" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J43" s="53"/>
       <c r="K43" s="2">
@@ -39220,7 +39185,7 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J44" s="53"/>
       <c r="K44" s="2">
@@ -39262,7 +39227,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J45" s="53"/>
       <c r="K45" s="2">
@@ -39304,7 +39269,7 @@
         <v>0.0</v>
       </c>
       <c r="I46" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J46" s="53"/>
       <c r="K46" s="2">
@@ -39346,7 +39311,7 @@
         <v>0.0</v>
       </c>
       <c r="I47" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J47" s="53"/>
       <c r="K47" s="2">
@@ -39388,7 +39353,7 @@
         <v>0.0</v>
       </c>
       <c r="I48" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J48" s="53"/>
       <c r="K48" s="2">
@@ -39413,7 +39378,7 @@
         <v>5.0</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1">
         <v>1.0</v>
@@ -39434,7 +39399,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J49" s="53"/>
       <c r="K49" s="2">
@@ -39476,7 +39441,7 @@
         <v>0.0</v>
       </c>
       <c r="I50" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J50" s="53"/>
       <c r="K50" s="2">
@@ -39518,7 +39483,7 @@
         <v>0.0</v>
       </c>
       <c r="I51" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J51" s="53"/>
       <c r="K51" s="2">
@@ -39560,7 +39525,7 @@
         <v>0.0</v>
       </c>
       <c r="I52" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J52" s="53"/>
       <c r="K52" s="2">
@@ -39602,7 +39567,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J53" s="53"/>
       <c r="K53" s="2">
@@ -39644,7 +39609,7 @@
         <v>0.0</v>
       </c>
       <c r="I54" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J54" s="53"/>
       <c r="K54" s="2">
@@ -39686,7 +39651,7 @@
         <v>0.0</v>
       </c>
       <c r="I55" s="89" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J55" s="53"/>
       <c r="K55" s="2">
@@ -39728,7 +39693,7 @@
         <v>0.0</v>
       </c>
       <c r="I56" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J56" s="53"/>
       <c r="K56" s="2">
@@ -39770,7 +39735,7 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J57" s="53"/>
       <c r="K57" s="2">
@@ -39812,7 +39777,7 @@
         <v>0.0</v>
       </c>
       <c r="I58" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J58" s="53"/>
       <c r="K58" s="2">
@@ -39854,7 +39819,7 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J59" s="53"/>
       <c r="K59" s="2">
@@ -39896,7 +39861,7 @@
         <v>0.0</v>
       </c>
       <c r="I60" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J60" s="53"/>
       <c r="K60" s="2">
@@ -39921,7 +39886,7 @@
         <v>6.0</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C61" s="1">
         <v>1.0</v>
@@ -39942,7 +39907,7 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J61" s="94"/>
       <c r="K61" s="2">
@@ -39984,7 +39949,7 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J62" s="53"/>
       <c r="K62" s="2">
@@ -40026,7 +39991,7 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J63" s="53"/>
       <c r="K63" s="2">
@@ -40068,7 +40033,7 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J64" s="53"/>
       <c r="K64" s="2">
@@ -40110,7 +40075,7 @@
         <v>0.0</v>
       </c>
       <c r="I65" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J65" s="53"/>
       <c r="K65" s="2">
@@ -40152,7 +40117,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J66" s="53"/>
       <c r="K66" s="2">
@@ -40194,7 +40159,7 @@
         <v>0.0</v>
       </c>
       <c r="I67" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J67" s="53"/>
       <c r="K67" s="2">
@@ -40236,7 +40201,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J68" s="53"/>
       <c r="K68" s="2">
@@ -40261,7 +40226,7 @@
         <v>7.0</v>
       </c>
       <c r="B69" s="86" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C69" s="1">
         <v>1.0</v>
@@ -40282,7 +40247,7 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J69" s="53"/>
       <c r="K69" s="2">
@@ -40324,7 +40289,7 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J70" s="53"/>
       <c r="K70" s="2">
@@ -40366,7 +40331,7 @@
         <v>0.0</v>
       </c>
       <c r="I71" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J71" s="53"/>
       <c r="K71" s="2">
@@ -40408,7 +40373,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J72" s="53"/>
       <c r="K72" s="2">
@@ -40450,7 +40415,7 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J73" s="53"/>
       <c r="K73" s="2">
@@ -40492,7 +40457,7 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J74" s="53"/>
       <c r="K74" s="2">
@@ -40534,7 +40499,7 @@
         <v>0.0</v>
       </c>
       <c r="I75" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J75" s="53"/>
       <c r="K75" s="2">
@@ -40576,7 +40541,7 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J76" s="53"/>
       <c r="K76" s="2">
@@ -40618,7 +40583,7 @@
         <v>0.0</v>
       </c>
       <c r="I77" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J77" s="53"/>
       <c r="K77" s="2">
@@ -40660,7 +40625,7 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J78" s="53"/>
       <c r="K78" s="2">
@@ -40702,7 +40667,7 @@
         <v>0.0</v>
       </c>
       <c r="I79" s="89" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J79" s="53"/>
       <c r="K79" s="2">
@@ -40744,7 +40709,7 @@
         <v>0.0</v>
       </c>
       <c r="I80" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J80" s="53"/>
       <c r="K80" s="2">
@@ -40786,7 +40751,7 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J81" s="53"/>
       <c r="K81" s="2">
@@ -40828,7 +40793,7 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J82" s="53"/>
       <c r="K82" s="2">
@@ -40870,7 +40835,7 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J83" s="53"/>
       <c r="K83" s="2">
@@ -40912,7 +40877,7 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J84" s="53"/>
       <c r="K84" s="2">
@@ -40954,7 +40919,7 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J85" s="53"/>
       <c r="K85" s="2">
@@ -40996,7 +40961,7 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J86" s="53"/>
       <c r="K86" s="2">
@@ -41021,7 +40986,7 @@
         <v>8.0</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
@@ -41042,7 +41007,7 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J87" s="53"/>
       <c r="K87" s="2">
@@ -41084,7 +41049,7 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J88" s="53"/>
       <c r="K88" s="2">
@@ -41126,7 +41091,7 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J89" s="53"/>
       <c r="K89" s="2">
@@ -41168,7 +41133,7 @@
         <v>0.0</v>
       </c>
       <c r="I90" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J90" s="53"/>
       <c r="K90" s="2">
@@ -41210,7 +41175,7 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J91" s="53"/>
       <c r="K91" s="2">
@@ -41252,7 +41217,7 @@
         <v>0.0</v>
       </c>
       <c r="I92" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J92" s="53"/>
       <c r="K92" s="2">
@@ -41294,7 +41259,7 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J93" s="53"/>
       <c r="K93" s="2">
@@ -41336,7 +41301,7 @@
         <v>0.0</v>
       </c>
       <c r="I94" s="89" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J94" s="53"/>
       <c r="K94" s="2">
@@ -41378,7 +41343,7 @@
         <v>0.0</v>
       </c>
       <c r="I95" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J95" s="53"/>
       <c r="K95" s="2">
@@ -41420,7 +41385,7 @@
         <v>0.0</v>
       </c>
       <c r="I96" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J96" s="53"/>
       <c r="K96" s="2">
@@ -41462,7 +41427,7 @@
         <v>0.0</v>
       </c>
       <c r="I97" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J97" s="53"/>
       <c r="K97" s="2">
@@ -41504,7 +41469,7 @@
         <v>0.0</v>
       </c>
       <c r="I98" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J98" s="53"/>
       <c r="K98" s="2">
@@ -41546,7 +41511,7 @@
         <v>0.0</v>
       </c>
       <c r="I99" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J99" s="53"/>
       <c r="K99" s="2">
@@ -41588,7 +41553,7 @@
         <v>0.0</v>
       </c>
       <c r="I100" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J100" s="53"/>
       <c r="K100" s="2">
@@ -41613,7 +41578,7 @@
         <v>9.0</v>
       </c>
       <c r="B101" s="92" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C101" s="1">
         <v>1.0</v>
@@ -41634,7 +41599,7 @@
         <v>0.0</v>
       </c>
       <c r="I101" s="93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J101" s="94"/>
       <c r="K101" s="2">
@@ -41676,7 +41641,7 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J102" s="53"/>
       <c r="K102" s="2">
@@ -41718,7 +41683,7 @@
         <v>0.0</v>
       </c>
       <c r="I103" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J103" s="53"/>
       <c r="K103" s="2">
@@ -41760,7 +41725,7 @@
         <v>0.0</v>
       </c>
       <c r="I104" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J104" s="53"/>
       <c r="K104" s="2">
@@ -41802,7 +41767,7 @@
         <v>0.0</v>
       </c>
       <c r="I105" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J105" s="53"/>
       <c r="K105" s="2">
@@ -41844,7 +41809,7 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J106" s="53"/>
       <c r="K106" s="2">
@@ -41886,7 +41851,7 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="89" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J107" s="53"/>
       <c r="K107" s="2">
@@ -41928,7 +41893,7 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J108" s="53"/>
       <c r="K108" s="2">
@@ -41970,7 +41935,7 @@
         <v>0.0</v>
       </c>
       <c r="I109" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J109" s="53"/>
       <c r="K109" s="2">
@@ -42012,7 +41977,7 @@
         <v>0.0</v>
       </c>
       <c r="I110" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J110" s="53"/>
       <c r="K110" s="2">
@@ -42037,7 +42002,7 @@
         <v>10.0</v>
       </c>
       <c r="B111" s="86" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C111" s="1">
         <v>1.0</v>
@@ -42058,7 +42023,7 @@
         <v>0.0</v>
       </c>
       <c r="I111" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J111" s="53"/>
       <c r="K111" s="2">
@@ -42100,7 +42065,7 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J112" s="53"/>
       <c r="K112" s="2">
@@ -42142,7 +42107,7 @@
         <v>0.0</v>
       </c>
       <c r="I113" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J113" s="53"/>
       <c r="K113" s="2">
@@ -42184,7 +42149,7 @@
         <v>0.0</v>
       </c>
       <c r="I114" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J114" s="53"/>
       <c r="K114" s="2">
@@ -42226,7 +42191,7 @@
         <v>0.0</v>
       </c>
       <c r="I115" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J115" s="53"/>
       <c r="K115" s="2">
@@ -42268,7 +42233,7 @@
         <v>0.0</v>
       </c>
       <c r="I116" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J116" s="53"/>
       <c r="K116" s="2">
@@ -42294,8 +42259,8 @@
       <c r="C117" s="1">
         <v>7.0</v>
       </c>
-      <c r="D117" s="80">
-        <v>0.0</v>
+      <c r="D117" s="1">
+        <v>1.0</v>
       </c>
       <c r="E117" s="1">
         <v>1.0</v>
@@ -42310,7 +42275,7 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J117" s="53"/>
       <c r="K117" s="2">
@@ -42352,7 +42317,7 @@
         <v>0.0</v>
       </c>
       <c r="I118" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J118" s="53"/>
       <c r="K118" s="2">
@@ -42378,8 +42343,8 @@
       <c r="C119" s="1">
         <v>9.0</v>
       </c>
-      <c r="D119" s="80">
-        <v>0.0</v>
+      <c r="D119" s="1">
+        <v>1.0</v>
       </c>
       <c r="E119" s="1">
         <v>1.0</v>
@@ -42394,7 +42359,7 @@
         <v>0.0</v>
       </c>
       <c r="I119" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J119" s="53"/>
       <c r="K119" s="2">
@@ -42436,7 +42401,7 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J120" s="53"/>
       <c r="K120" s="2">
@@ -42462,8 +42427,8 @@
       <c r="C121" s="1">
         <v>11.0</v>
       </c>
-      <c r="D121" s="80">
-        <v>0.0</v>
+      <c r="D121" s="1">
+        <v>1.0</v>
       </c>
       <c r="E121" s="1">
         <v>1.0</v>
@@ -42478,7 +42443,7 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J121" s="53"/>
       <c r="K121" s="2">
@@ -42520,7 +42485,7 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J122" s="53"/>
       <c r="K122" s="2">
@@ -42562,7 +42527,7 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J123" s="53"/>
       <c r="K123" s="2">
@@ -42604,7 +42569,7 @@
         <v>0.0</v>
       </c>
       <c r="I124" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J124" s="53"/>
       <c r="K124" s="2">
@@ -42646,7 +42611,7 @@
         <v>0.0</v>
       </c>
       <c r="I125" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J125" s="53"/>
       <c r="K125" s="2">
@@ -42688,7 +42653,7 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J126" s="53"/>
       <c r="K126" s="2">
@@ -42730,7 +42695,7 @@
         <v>0.0</v>
       </c>
       <c r="I127" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J127" s="53"/>
       <c r="K127" s="2">
@@ -42772,7 +42737,7 @@
         <v>0.0</v>
       </c>
       <c r="I128" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J128" s="53"/>
       <c r="K128" s="2">
@@ -42814,7 +42779,7 @@
         <v>0.0</v>
       </c>
       <c r="I129" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J129" s="53"/>
       <c r="K129" s="2">
@@ -42856,7 +42821,7 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J130" s="53"/>
       <c r="K130" s="2">
@@ -42881,7 +42846,7 @@
         <v>11.0</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C131" s="1">
         <v>1.0</v>
@@ -42902,7 +42867,7 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J131" s="53"/>
       <c r="K131" s="2">
@@ -42944,7 +42909,7 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J132" s="53"/>
       <c r="K132" s="2">
@@ -42986,7 +42951,7 @@
         <v>0.0</v>
       </c>
       <c r="I133" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J133" s="53"/>
       <c r="K133" s="2">
@@ -43028,7 +42993,7 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J134" s="53"/>
       <c r="K134" s="2">
@@ -43070,7 +43035,7 @@
         <v>0.0</v>
       </c>
       <c r="I135" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J135" s="53"/>
       <c r="K135" s="2">
@@ -43112,7 +43077,7 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J136" s="53"/>
       <c r="K136" s="2">
@@ -43154,7 +43119,7 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J137" s="53"/>
       <c r="K137" s="2">
@@ -43196,7 +43161,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J138" s="53"/>
       <c r="K138" s="2">
@@ -43238,7 +43203,7 @@
         <v>0.0</v>
       </c>
       <c r="I139" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J139" s="53"/>
       <c r="K139" s="2">
@@ -43280,7 +43245,7 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="89" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J140" s="53"/>
       <c r="K140" s="2">
@@ -43322,7 +43287,7 @@
         <v>0.0</v>
       </c>
       <c r="I141" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J141" s="53"/>
       <c r="K141" s="2">
@@ -43364,7 +43329,7 @@
         <v>0.0</v>
       </c>
       <c r="I142" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J142" s="53"/>
       <c r="K142" s="2">
@@ -43406,7 +43371,7 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J143" s="53"/>
       <c r="K143" s="2">
@@ -43448,7 +43413,7 @@
         <v>0.0</v>
       </c>
       <c r="I144" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J144" s="53"/>
       <c r="K144" s="2">
@@ -43490,7 +43455,7 @@
         <v>0.0</v>
       </c>
       <c r="I145" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J145" s="53"/>
       <c r="K145" s="2">
@@ -43532,7 +43497,7 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="90" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J146" s="53"/>
       <c r="K146" s="2">
@@ -43557,7 +43522,7 @@
         <v>12.0</v>
       </c>
       <c r="B147" s="92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C147" s="1">
         <v>1.0</v>
@@ -43578,7 +43543,7 @@
         <v>0.0</v>
       </c>
       <c r="I147" s="93" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J147" s="94"/>
       <c r="K147" s="2">
@@ -43620,7 +43585,7 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J148" s="53"/>
       <c r="K148" s="2">
@@ -43662,7 +43627,7 @@
         <v>0.0</v>
       </c>
       <c r="I149" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J149" s="53"/>
       <c r="K149" s="2">
@@ -43704,7 +43669,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J150" s="53"/>
       <c r="K150" s="2">
@@ -43746,7 +43711,7 @@
         <v>0.0</v>
       </c>
       <c r="I151" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J151" s="53"/>
       <c r="K151" s="2">
@@ -43788,7 +43753,7 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J152" s="53"/>
       <c r="K152" s="2">
@@ -43830,7 +43795,7 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="87" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J153" s="53"/>
       <c r="K153" s="2">
@@ -43872,7 +43837,7 @@
         <v>0.0</v>
       </c>
       <c r="I154" s="89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J154" s="53"/>
       <c r="K154" s="2">
@@ -43914,7 +43879,7 @@
         <v>0.0</v>
       </c>
       <c r="I155" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J155" s="53"/>
       <c r="K155" s="2">
@@ -43956,7 +43921,7 @@
         <v>0.0</v>
       </c>
       <c r="I156" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J156" s="53"/>
       <c r="K156" s="2">
@@ -43998,7 +43963,7 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="96" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J157" s="53"/>
       <c r="K157" s="2">
@@ -44040,7 +44005,7 @@
         <v>0.0</v>
       </c>
       <c r="I158" s="91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J158" s="53"/>
       <c r="K158" s="2">
@@ -44903,6 +44868,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$I$1:$I$1000"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -44923,16 +44889,16 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">

--- a/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
@@ -9,15 +9,13 @@
     <sheet state="visible" name="reward_config" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Sheet2" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">pve!$X$1:$X$973</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="225">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -239,6 +237,15 @@
   </si>
   <si>
     <t>You left off some Course Rival rewards, claim it now!</t>
+  </si>
+  <si>
+    <t>color_tours</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>tour_id</t>
   </si>
   <si>
     <t>pve_conf</t>
@@ -520,40 +527,43 @@
     <t>big_reward</t>
   </si>
   <si>
-    <t>紫卡*10</t>
+    <t>紫卡*15（cr)</t>
   </si>
   <si>
     <t>金币*500</t>
   </si>
   <si>
-    <t>钻石*100</t>
+    <t>钻石*50</t>
   </si>
   <si>
-    <t>紫卡*15</t>
+    <t>紫卡*20 (cr)</t>
   </si>
   <si>
     <t>金币*1000</t>
   </si>
   <si>
-    <t>钻石*200</t>
+    <t>钻石*100</t>
   </si>
   <si>
-    <t>紫卡*20</t>
+    <t>紫卡*25 (cr)</t>
   </si>
   <si>
     <t>金币*1500</t>
   </si>
   <si>
-    <t>钻石*300</t>
+    <t>EPIC宝箱</t>
   </si>
   <si>
-    <t>紫卡*25</t>
+    <t>钻石*150</t>
+  </si>
+  <si>
+    <t>紫卡*30(cr)</t>
   </si>
   <si>
     <t>金币*2000</t>
   </si>
   <si>
-    <t>钻石*400</t>
+    <t>钻石*200</t>
   </si>
   <si>
     <t>紫卡*30</t>
@@ -562,10 +572,10 @@
     <t>金币*2500</t>
   </si>
   <si>
-    <t>EPIC宝箱</t>
+    <t>紫钻宝箱</t>
   </si>
   <si>
-    <t>钻石*500</t>
+    <t>钻石*250</t>
   </si>
   <si>
     <t>紫卡*35</t>
@@ -574,7 +584,7 @@
     <t>金币*3000</t>
   </si>
   <si>
-    <t>钻石*600</t>
+    <t>钻石*300</t>
   </si>
   <si>
     <t>特殊球*15</t>
@@ -640,9 +650,6 @@
     <t>大区2-紫</t>
   </si>
   <si>
-    <t>钻石*50</t>
-  </si>
-  <si>
     <t>大区2-橙</t>
   </si>
   <si>
@@ -676,9 +683,6 @@
     <t>大区4-紫</t>
   </si>
   <si>
-    <t>钻石*150</t>
-  </si>
-  <si>
     <t>大区4-橙</t>
   </si>
   <si>
@@ -692,7 +696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -763,6 +767,16 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFF4B084"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF5CACF9"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -958,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1177,8 +1191,14 @@
     <xf borderId="1" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="22" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="22" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1187,7 +1207,7 @@
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="23" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1202,10 +1222,10 @@
     <xf borderId="0" fillId="25" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="25" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3877,7 +3897,9 @@
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="48"/>
+      <c r="A105" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="B105" s="53"/>
       <c r="C105" s="53"/>
       <c r="D105" s="53"/>
@@ -3912,8 +3934,34 @@
       <c r="AG105" s="53"/>
     </row>
     <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>96.0</v>
+      </c>
+    </row>
     <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
@@ -4927,7 +4975,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6531,7 +6579,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
@@ -6539,7 +6587,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
@@ -6547,7 +6595,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B5" s="57">
         <v>420.0</v>
@@ -6563,7 +6611,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B6" s="55">
         <v>43200.0</v>
@@ -6571,7 +6619,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>8.0</v>
@@ -6579,7 +6627,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B8" s="55">
         <v>60.0</v>
@@ -6587,7 +6635,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -6612,7 +6660,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" s="11">
         <v>90.0</v>
@@ -6632,7 +6680,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B12" s="14">
         <v>2.0</v>
@@ -6652,7 +6700,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B13" s="14">
         <v>1.0</v>
@@ -6673,7 +6721,7 @@
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15" s="57">
         <v>420.0</v>
@@ -6689,7 +6737,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -8295,41 +8343,41 @@
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="13"/>
       <c r="E21" s="62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -8351,47 +8399,47 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B22" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M22" s="58" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="64"/>
       <c r="Q22" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S22" s="65" t="s">
         <v>41</v>
@@ -8409,7 +8457,7 @@
         <v>45</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -8417,7 +8465,7 @@
         <v>1.0</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C23" s="61">
         <v>1.0</v>
@@ -8476,7 +8524,7 @@
         <v>0.0</v>
       </c>
       <c r="X23" s="67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y23" s="67"/>
     </row>
@@ -8485,7 +8533,7 @@
         <v>2.0</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C24" s="68">
         <v>2.0</v>
@@ -8544,7 +8592,7 @@
         <v>23.0</v>
       </c>
       <c r="X24" s="67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y24" s="70"/>
     </row>
@@ -8553,7 +8601,7 @@
         <v>3.0</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C25" s="61">
         <v>3.0</v>
@@ -8612,7 +8660,7 @@
         <v>23.0</v>
       </c>
       <c r="X25" s="67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y25" s="70"/>
     </row>
@@ -8621,7 +8669,7 @@
         <v>4.0</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C26" s="61">
         <v>4.0</v>
@@ -8680,7 +8728,7 @@
         <v>0.0</v>
       </c>
       <c r="X26" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y26" s="72"/>
     </row>
@@ -8689,7 +8737,7 @@
         <v>5.0</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C27" s="61">
         <v>5.0</v>
@@ -8748,7 +8796,7 @@
         <v>0.0</v>
       </c>
       <c r="X27" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y27" s="74"/>
     </row>
@@ -8757,7 +8805,7 @@
         <v>6.0</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C28" s="61">
         <v>6.0</v>
@@ -8816,7 +8864,7 @@
         <v>0.0</v>
       </c>
       <c r="X28" s="67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y28" s="74"/>
     </row>
@@ -8825,7 +8873,7 @@
         <v>7.0</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C29" s="61">
         <v>7.0</v>
@@ -8884,7 +8932,7 @@
         <v>0.0</v>
       </c>
       <c r="X29" s="75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y29" s="67"/>
     </row>
@@ -8893,10 +8941,10 @@
         <v>8.0</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E30" s="62">
         <v>8.0</v>
@@ -8952,7 +9000,7 @@
         <v>3.0</v>
       </c>
       <c r="X30" s="71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y30" s="72"/>
     </row>
@@ -8961,7 +9009,7 @@
         <v>9.0</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C31" s="68">
         <v>12.0</v>
@@ -9020,7 +9068,7 @@
         <v>3.0</v>
       </c>
       <c r="X31" s="75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y31" s="74"/>
     </row>
@@ -9029,7 +9077,7 @@
         <v>10.0</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C32" s="68">
         <v>13.0</v>
@@ -9088,7 +9136,7 @@
         <v>0.0</v>
       </c>
       <c r="X32" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y32" s="72"/>
     </row>
@@ -9097,7 +9145,7 @@
         <v>11.0</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C33" s="68">
         <v>14.0</v>
@@ -9156,7 +9204,7 @@
         <v>0.0</v>
       </c>
       <c r="X33" s="67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y33" s="67"/>
     </row>
@@ -9165,7 +9213,7 @@
         <v>12.0</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C34" s="68">
         <v>15.0</v>
@@ -9198,7 +9246,7 @@
         <v>3.0</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O34" s="2">
         <f>vlookup(G34,Sheet2!$A$1:$E$9,2,false)</f>
@@ -9226,7 +9274,7 @@
         <v>0.0</v>
       </c>
       <c r="X34" s="79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y34" s="74"/>
     </row>
@@ -9235,7 +9283,7 @@
         <v>13.0</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C35" s="68">
         <v>16.0</v>
@@ -9294,7 +9342,7 @@
         <v>0.0</v>
       </c>
       <c r="X35" s="67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y35" s="67"/>
     </row>
@@ -9303,10 +9351,10 @@
         <v>14.0</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E36" s="62">
         <v>14.0</v>
@@ -9362,7 +9410,7 @@
         <v>3.0</v>
       </c>
       <c r="X36" s="75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y36" s="72"/>
     </row>
@@ -9371,7 +9419,7 @@
         <v>15.0</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C37" s="68">
         <v>21.0</v>
@@ -9430,7 +9478,7 @@
         <v>0.0</v>
       </c>
       <c r="X37" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y37" s="67"/>
     </row>
@@ -9439,7 +9487,7 @@
         <v>16.0</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C38" s="68">
         <v>22.0</v>
@@ -9498,7 +9546,7 @@
         <v>3.0</v>
       </c>
       <c r="X38" s="71" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y38" s="72"/>
     </row>
@@ -9507,7 +9555,7 @@
         <v>17.0</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C39" s="68">
         <v>23.0</v>
@@ -9566,7 +9614,7 @@
         <v>0.0</v>
       </c>
       <c r="X39" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y39" s="72"/>
     </row>
@@ -9575,7 +9623,7 @@
         <v>18.0</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C40" s="68">
         <v>24.0</v>
@@ -9634,7 +9682,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" s="67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y40" s="74"/>
     </row>
@@ -9643,7 +9691,7 @@
         <v>19.0</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C41" s="68">
         <v>25.0</v>
@@ -9702,7 +9750,7 @@
         <v>3.0</v>
       </c>
       <c r="X41" s="75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y41" s="67"/>
     </row>
@@ -9711,7 +9759,7 @@
         <v>20.0</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" s="68">
         <v>26.0</v>
@@ -9770,7 +9818,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" s="80" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y42" s="74"/>
     </row>
@@ -9779,7 +9827,7 @@
         <v>21.0</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C43" s="68">
         <v>27.0</v>
@@ -9838,7 +9886,7 @@
         <v>3.0</v>
       </c>
       <c r="X43" s="75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y43" s="72"/>
     </row>
@@ -9847,7 +9895,7 @@
         <v>22.0</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C44" s="68">
         <v>28.0</v>
@@ -9906,7 +9954,7 @@
         <v>0.0</v>
       </c>
       <c r="X44" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y44" s="72"/>
     </row>
@@ -9915,7 +9963,7 @@
         <v>23.0</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C45" s="68">
         <v>29.0</v>
@@ -9974,7 +10022,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" s="75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y45" s="74"/>
     </row>
@@ -9983,7 +10031,7 @@
         <v>24.0</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C46" s="68">
         <v>30.0</v>
@@ -10042,7 +10090,7 @@
         <v>3.0</v>
       </c>
       <c r="X46" s="71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y46" s="72"/>
     </row>
@@ -10051,7 +10099,7 @@
         <v>25.0</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C47" s="68">
         <v>31.0</v>
@@ -10110,7 +10158,7 @@
         <v>0.0</v>
       </c>
       <c r="X47" s="67" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y47" s="67"/>
     </row>
@@ -10119,10 +10167,10 @@
         <v>26.0</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E48" s="62">
         <v>26.0</v>
@@ -10178,7 +10226,7 @@
         <v>0.0</v>
       </c>
       <c r="X48" s="75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y48" s="72"/>
     </row>
@@ -10187,7 +10235,7 @@
         <v>27.0</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C49" s="68">
         <v>36.0</v>
@@ -10246,7 +10294,7 @@
         <v>0.0</v>
       </c>
       <c r="X49" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y49" s="72"/>
     </row>
@@ -10255,7 +10303,7 @@
         <v>28.0</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C50" s="68">
         <v>37.0</v>
@@ -10314,7 +10362,7 @@
         <v>0.0</v>
       </c>
       <c r="X50" s="79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y50" s="74"/>
     </row>
@@ -10323,7 +10371,7 @@
         <v>29.0</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C51" s="68">
         <v>38.0</v>
@@ -10382,7 +10430,7 @@
         <v>3.0</v>
       </c>
       <c r="X51" s="75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y51" s="67"/>
     </row>
@@ -10391,7 +10439,7 @@
         <v>30.0</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C52" s="68">
         <v>39.0</v>
@@ -10450,7 +10498,7 @@
         <v>0.0</v>
       </c>
       <c r="X52" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y52" s="74"/>
     </row>
@@ -10459,7 +10507,7 @@
         <v>31.0</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C53" s="68">
         <v>40.0</v>
@@ -10518,7 +10566,7 @@
         <v>0.0</v>
       </c>
       <c r="X53" s="75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y53" s="72"/>
     </row>
@@ -10527,10 +10575,10 @@
         <v>32.0</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C54" s="68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E54" s="62">
         <v>32.0</v>
@@ -10586,7 +10634,7 @@
         <v>3.0</v>
       </c>
       <c r="X54" s="71" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Y54" s="72"/>
     </row>
@@ -10595,7 +10643,7 @@
         <v>33.0</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C55" s="68">
         <v>45.0</v>
@@ -10654,7 +10702,7 @@
         <v>0.0</v>
       </c>
       <c r="X55" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y55" s="67"/>
     </row>
@@ -10663,7 +10711,7 @@
         <v>34.0</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C56" s="68">
         <v>46.0</v>
@@ -10722,7 +10770,7 @@
         <v>3.0</v>
       </c>
       <c r="X56" s="75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y56" s="72"/>
     </row>
@@ -10731,7 +10779,7 @@
         <v>35.0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C57" s="68">
         <v>47.0</v>
@@ -10790,7 +10838,7 @@
         <v>0.0</v>
       </c>
       <c r="X57" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y57" s="67"/>
     </row>
@@ -10799,7 +10847,7 @@
         <v>36.0</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C58" s="68">
         <v>48.0</v>
@@ -10858,7 +10906,7 @@
         <v>0.0</v>
       </c>
       <c r="X58" s="79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y58" s="74"/>
     </row>
@@ -10867,7 +10915,7 @@
         <v>37.0</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C59" s="68">
         <v>49.0</v>
@@ -10900,7 +10948,7 @@
         <v>5.0</v>
       </c>
       <c r="N59" s="50" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O59" s="2">
         <f>vlookup(G59,Sheet2!$A$1:$E$9,3,false)</f>
@@ -10928,7 +10976,7 @@
         <v>0.0</v>
       </c>
       <c r="X59" s="75" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y59" s="74"/>
     </row>
@@ -10937,7 +10985,7 @@
         <v>38.0</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C60" s="68">
         <v>50.0</v>
@@ -10996,7 +11044,7 @@
         <v>0.0</v>
       </c>
       <c r="X60" s="75" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y60" s="72"/>
     </row>
@@ -11005,7 +11053,7 @@
         <v>39.0</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C61" s="68">
         <v>51.0</v>
@@ -11064,7 +11112,7 @@
         <v>3.0</v>
       </c>
       <c r="X61" s="75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y61" s="72"/>
     </row>
@@ -11073,7 +11121,7 @@
         <v>40.0</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C62" s="68">
         <v>52.0</v>
@@ -11132,7 +11180,7 @@
         <v>3.0</v>
       </c>
       <c r="X62" s="71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y62" s="72"/>
     </row>
@@ -11141,7 +11189,7 @@
         <v>41.0</v>
       </c>
       <c r="B63" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C63" s="68">
         <v>53.0</v>
@@ -11200,7 +11248,7 @@
         <v>3.0</v>
       </c>
       <c r="X63" s="75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y63" s="72"/>
     </row>
@@ -11209,7 +11257,7 @@
         <v>42.0</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C64" s="68">
         <v>54.0</v>
@@ -11268,7 +11316,7 @@
         <v>0.0</v>
       </c>
       <c r="X64" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y64" s="74"/>
     </row>
@@ -11277,7 +11325,7 @@
         <v>43.0</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C65" s="68">
         <v>55.0</v>
@@ -11336,7 +11384,7 @@
         <v>0.0</v>
       </c>
       <c r="X65" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y65" s="67"/>
     </row>
@@ -11345,10 +11393,10 @@
         <v>44.0</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C66" s="68" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E66" s="62">
         <v>44.0</v>
@@ -11404,7 +11452,7 @@
         <v>0.0</v>
       </c>
       <c r="X66" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y66" s="72"/>
     </row>
@@ -11413,7 +11461,7 @@
         <v>45.0</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C67" s="68">
         <v>60.0</v>
@@ -11472,7 +11520,7 @@
         <v>0.0</v>
       </c>
       <c r="X67" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y67" s="70"/>
     </row>
@@ -11481,7 +11529,7 @@
         <v>46.0</v>
       </c>
       <c r="B68" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <v>61.0</v>
@@ -11540,7 +11588,7 @@
         <v>3.0</v>
       </c>
       <c r="X68" s="75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y68" s="72"/>
     </row>
@@ -11549,7 +11597,7 @@
         <v>47.0</v>
       </c>
       <c r="B69" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C69" s="68">
         <v>62.0</v>
@@ -11608,7 +11656,7 @@
         <v>0.0</v>
       </c>
       <c r="X69" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y69" s="67"/>
     </row>
@@ -11617,7 +11665,7 @@
         <v>48.0</v>
       </c>
       <c r="B70" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C70" s="68">
         <v>63.0</v>
@@ -11676,7 +11724,7 @@
         <v>3.0</v>
       </c>
       <c r="X70" s="71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y70" s="72"/>
     </row>
@@ -11685,7 +11733,7 @@
         <v>49.0</v>
       </c>
       <c r="B71" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C71" s="68">
         <v>64.0</v>
@@ -11744,7 +11792,7 @@
         <v>0.0</v>
       </c>
       <c r="X71" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y71" s="74"/>
     </row>
@@ -11753,10 +11801,10 @@
         <v>50.0</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C72" s="68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E72" s="62">
         <v>50.0</v>
@@ -11812,7 +11860,7 @@
         <v>0.0</v>
       </c>
       <c r="X72" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y72" s="70"/>
     </row>
@@ -11821,7 +11869,7 @@
         <v>51.0</v>
       </c>
       <c r="B73" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C73" s="68">
         <v>69.0</v>
@@ -11880,7 +11928,7 @@
         <v>0.0</v>
       </c>
       <c r="X73" s="75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y73" s="67"/>
     </row>
@@ -11889,7 +11937,7 @@
         <v>52.0</v>
       </c>
       <c r="B74" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C74" s="68">
         <v>70.0</v>
@@ -11948,7 +11996,7 @@
         <v>0.0</v>
       </c>
       <c r="X74" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y74" s="72"/>
     </row>
@@ -11957,7 +12005,7 @@
         <v>53.0</v>
       </c>
       <c r="B75" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C75" s="68">
         <v>71.0</v>
@@ -12016,7 +12064,7 @@
         <v>3.0</v>
       </c>
       <c r="X75" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y75" s="70"/>
     </row>
@@ -12025,7 +12073,7 @@
         <v>54.0</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C76" s="68">
         <v>72.0</v>
@@ -12084,7 +12132,7 @@
         <v>0.0</v>
       </c>
       <c r="X76" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y76" s="74"/>
     </row>
@@ -12093,7 +12141,7 @@
         <v>55.0</v>
       </c>
       <c r="B77" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C77" s="68">
         <v>73.0</v>
@@ -12152,7 +12200,7 @@
         <v>0.0</v>
       </c>
       <c r="X77" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y77" s="74"/>
     </row>
@@ -12161,7 +12209,7 @@
         <v>56.0</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C78" s="68">
         <v>74.0</v>
@@ -12220,7 +12268,7 @@
         <v>3.0</v>
       </c>
       <c r="X78" s="71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y78" s="72"/>
     </row>
@@ -12229,7 +12277,7 @@
         <v>57.0</v>
       </c>
       <c r="B79" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C79" s="68">
         <v>75.0</v>
@@ -12288,7 +12336,7 @@
         <v>0.0</v>
       </c>
       <c r="X79" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y79" s="72"/>
     </row>
@@ -12297,10 +12345,10 @@
         <v>58.0</v>
       </c>
       <c r="B80" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C80" s="68" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E80" s="62">
         <v>58.0</v>
@@ -12356,7 +12404,7 @@
         <v>3.0</v>
       </c>
       <c r="X80" s="75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y80" s="70"/>
     </row>
@@ -12365,7 +12413,7 @@
         <v>59.0</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C81" s="68">
         <v>79.0</v>
@@ -12398,7 +12446,7 @@
         <v>9.0</v>
       </c>
       <c r="N81" s="84" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O81" s="2">
         <f>vlookup(G81,Sheet2!$A$1:$E$9,4,false)</f>
@@ -12426,7 +12474,7 @@
         <v>0.0</v>
       </c>
       <c r="X81" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y81" s="67"/>
     </row>
@@ -12435,7 +12483,7 @@
         <v>60.0</v>
       </c>
       <c r="B82" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C82" s="68">
         <v>80.0</v>
@@ -12494,7 +12542,7 @@
         <v>0.0</v>
       </c>
       <c r="X82" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y82" s="72"/>
     </row>
@@ -12556,7 +12604,7 @@
         <v>0.0</v>
       </c>
       <c r="X83" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y83" s="67"/>
     </row>
@@ -12618,7 +12666,7 @@
         <v>0.0</v>
       </c>
       <c r="X84" s="75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y84" s="70"/>
     </row>
@@ -12680,7 +12728,7 @@
         <v>0.0</v>
       </c>
       <c r="X85" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y85" s="70"/>
     </row>
@@ -12742,7 +12790,7 @@
         <v>3.0</v>
       </c>
       <c r="X86" s="71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y86" s="72"/>
     </row>
@@ -12804,7 +12852,7 @@
         <v>0.0</v>
       </c>
       <c r="X87" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y87" s="72"/>
     </row>
@@ -12866,7 +12914,7 @@
         <v>0.0</v>
       </c>
       <c r="X88" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y88" s="67"/>
     </row>
@@ -12928,7 +12976,7 @@
         <v>3.0</v>
       </c>
       <c r="X89" s="75" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y89" s="70"/>
     </row>
@@ -12990,7 +13038,7 @@
         <v>0.0</v>
       </c>
       <c r="X90" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y90" s="72"/>
     </row>
@@ -13052,7 +13100,7 @@
         <v>0.0</v>
       </c>
       <c r="X91" s="75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y91" s="67"/>
     </row>
@@ -13114,7 +13162,7 @@
         <v>3.0</v>
       </c>
       <c r="X92" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y92" s="70"/>
     </row>
@@ -13176,7 +13224,7 @@
         <v>0.0</v>
       </c>
       <c r="X93" s="67" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y93" s="67"/>
     </row>
@@ -13238,7 +13286,7 @@
         <v>3.0</v>
       </c>
       <c r="X94" s="71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y94" s="72"/>
     </row>
@@ -13300,7 +13348,7 @@
         <v>0.0</v>
       </c>
       <c r="X95" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y95" s="74"/>
     </row>
@@ -13362,7 +13410,7 @@
         <v>0.0</v>
       </c>
       <c r="X96" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y96" s="70"/>
     </row>
@@ -13424,7 +13472,7 @@
         <v>3.0</v>
       </c>
       <c r="X97" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y97" s="67"/>
     </row>
@@ -13460,7 +13508,7 @@
         <v>10.0</v>
       </c>
       <c r="N98" s="41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O98" s="2">
         <f>vlookup(G98,Sheet2!$A$1:$E$9,5,false)</f>
@@ -13488,7 +13536,7 @@
         <v>0.0</v>
       </c>
       <c r="X98" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y98" s="72"/>
     </row>
@@ -13550,7 +13598,7 @@
         <v>3.0</v>
       </c>
       <c r="X99" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y99" s="67"/>
     </row>
@@ -13612,7 +13660,7 @@
         <v>0.0</v>
       </c>
       <c r="X100" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y100" s="67"/>
     </row>
@@ -13674,7 +13722,7 @@
         <v>0.0</v>
       </c>
       <c r="X101" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y101" s="70"/>
     </row>
@@ -13736,7 +13784,7 @@
         <v>3.0</v>
       </c>
       <c r="X102" s="71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y102" s="72"/>
     </row>
@@ -13764,7 +13812,7 @@
         <v>0.0</v>
       </c>
       <c r="X103" s="75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y103" s="72"/>
     </row>
@@ -13791,7 +13839,7 @@
         <v>0.0</v>
       </c>
       <c r="X104" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y104" s="70"/>
     </row>
@@ -13818,7 +13866,7 @@
         <v>0.0</v>
       </c>
       <c r="X105" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y105" s="67"/>
     </row>
@@ -13845,7 +13893,7 @@
         <v>0.0</v>
       </c>
       <c r="X106" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y106" s="72"/>
     </row>
@@ -13872,7 +13920,7 @@
         <v>0.0</v>
       </c>
       <c r="X107" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y107" s="67"/>
     </row>
@@ -13899,7 +13947,7 @@
         <v>3.0</v>
       </c>
       <c r="X108" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y108" s="70"/>
     </row>
@@ -13926,7 +13974,7 @@
         <v>0.0</v>
       </c>
       <c r="X109" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y109" s="70"/>
     </row>
@@ -13953,7 +14001,7 @@
         <v>3.0</v>
       </c>
       <c r="X110" s="71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y110" s="72"/>
     </row>
@@ -13980,7 +14028,7 @@
         <v>3.0</v>
       </c>
       <c r="X111" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y111" s="72"/>
     </row>
@@ -14007,7 +14055,7 @@
         <v>0.0</v>
       </c>
       <c r="X112" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y112" s="67"/>
     </row>
@@ -14034,7 +14082,7 @@
         <v>0.0</v>
       </c>
       <c r="X113" s="75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y113" s="67"/>
     </row>
@@ -14061,7 +14109,7 @@
         <v>0.0</v>
       </c>
       <c r="X114" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y114" s="72"/>
     </row>
@@ -14088,7 +14136,7 @@
         <v>0.0</v>
       </c>
       <c r="X115" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y115" s="67"/>
     </row>
@@ -14115,7 +14163,7 @@
         <v>3.0</v>
       </c>
       <c r="X116" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y116" s="70"/>
     </row>
@@ -14142,7 +14190,7 @@
         <v>0.0</v>
       </c>
       <c r="X117" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y117" s="67"/>
     </row>
@@ -14169,7 +14217,7 @@
         <v>3.0</v>
       </c>
       <c r="X118" s="71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y118" s="72"/>
     </row>
@@ -14196,7 +14244,7 @@
         <v>0.0</v>
       </c>
       <c r="X119" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y119" s="74"/>
     </row>
@@ -14223,7 +14271,7 @@
         <v>0.0</v>
       </c>
       <c r="X120" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y120" s="70"/>
     </row>
@@ -14250,7 +14298,7 @@
         <v>3.0</v>
       </c>
       <c r="X121" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y121" s="67"/>
     </row>
@@ -14291,7 +14339,7 @@
         <v>0.0</v>
       </c>
       <c r="X122" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y122" s="86"/>
       <c r="Z122" s="43"/>
@@ -15907,7 +15955,7 @@
         <v>3.0</v>
       </c>
       <c r="X123" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y123" s="67"/>
       <c r="Z123" s="43"/>
@@ -17509,7 +17557,7 @@
         <v>0.0</v>
       </c>
       <c r="X124" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y124" s="67"/>
     </row>
@@ -17536,7 +17584,7 @@
         <v>0.0</v>
       </c>
       <c r="X125" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y125" s="70"/>
     </row>
@@ -17563,7 +17611,7 @@
         <v>3.0</v>
       </c>
       <c r="X126" s="71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y126" s="72"/>
     </row>
@@ -17590,7 +17638,7 @@
         <v>0.0</v>
       </c>
       <c r="X127" s="75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y127" s="72"/>
     </row>
@@ -17617,7 +17665,7 @@
         <v>0.0</v>
       </c>
       <c r="X128" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y128" s="70"/>
     </row>
@@ -17644,7 +17692,7 @@
         <v>0.0</v>
       </c>
       <c r="X129" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y129" s="67"/>
     </row>
@@ -17671,7 +17719,7 @@
         <v>0.0</v>
       </c>
       <c r="X130" s="71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y130" s="72"/>
     </row>
@@ -17698,7 +17746,7 @@
         <v>0.0</v>
       </c>
       <c r="X131" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y131" s="67"/>
     </row>
@@ -17725,7 +17773,7 @@
         <v>3.0</v>
       </c>
       <c r="X132" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y132" s="70"/>
     </row>
@@ -17752,7 +17800,7 @@
         <v>0.0</v>
       </c>
       <c r="X133" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y133" s="70"/>
     </row>
@@ -17779,7 +17827,7 @@
         <v>3.0</v>
       </c>
       <c r="X134" s="71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y134" s="72"/>
     </row>
@@ -17806,7 +17854,7 @@
         <v>3.0</v>
       </c>
       <c r="X135" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y135" s="72"/>
     </row>
@@ -17833,7 +17881,7 @@
         <v>0.0</v>
       </c>
       <c r="X136" s="67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Y136" s="67"/>
     </row>
@@ -17860,7 +17908,7 @@
         <v>0.0</v>
       </c>
       <c r="X137" s="75" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y137" s="67"/>
     </row>
@@ -17887,7 +17935,7 @@
         <v>0.0</v>
       </c>
       <c r="X138" s="79" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y138" s="74"/>
     </row>
@@ -17914,7 +17962,7 @@
         <v>0.0</v>
       </c>
       <c r="X139" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y139" s="67"/>
     </row>
@@ -17941,7 +17989,7 @@
         <v>3.0</v>
       </c>
       <c r="X140" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y140" s="70"/>
     </row>
@@ -17968,7 +18016,7 @@
         <v>0.0</v>
       </c>
       <c r="X141" s="67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y141" s="67"/>
     </row>
@@ -17995,7 +18043,7 @@
         <v>3.0</v>
       </c>
       <c r="X142" s="71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y142" s="72"/>
     </row>
@@ -18022,7 +18070,7 @@
         <v>0.0</v>
       </c>
       <c r="X143" s="67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y143" s="74"/>
     </row>
@@ -18049,7 +18097,7 @@
         <v>0.0</v>
       </c>
       <c r="X144" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y144" s="70"/>
     </row>
@@ -18076,7 +18124,7 @@
         <v>3.0</v>
       </c>
       <c r="X145" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y145" s="67"/>
     </row>
@@ -18103,7 +18151,7 @@
         <v>0.0</v>
       </c>
       <c r="X146" s="79" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Y146" s="74"/>
     </row>
@@ -18130,7 +18178,7 @@
         <v>0.0</v>
       </c>
       <c r="X147" s="75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y147" s="67"/>
     </row>
@@ -18157,7 +18205,7 @@
         <v>0.0</v>
       </c>
       <c r="X148" s="67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y148" s="67"/>
     </row>
@@ -18184,7 +18232,7 @@
         <v>0.0</v>
       </c>
       <c r="X149" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y149" s="70"/>
     </row>
@@ -18211,7 +18259,7 @@
         <v>3.0</v>
       </c>
       <c r="X150" s="71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y150" s="72"/>
     </row>
@@ -18238,7 +18286,7 @@
         <v>3.0</v>
       </c>
       <c r="X151" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y151" s="72"/>
     </row>
@@ -18265,7 +18313,7 @@
         <v>0.0</v>
       </c>
       <c r="X152" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y152" s="70"/>
     </row>
@@ -18292,7 +18340,7 @@
         <v>0.0</v>
       </c>
       <c r="X153" s="67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y153" s="67"/>
     </row>
@@ -18319,7 +18367,7 @@
         <v>0.0</v>
       </c>
       <c r="X154" s="71" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Y154" s="72"/>
     </row>
@@ -18346,7 +18394,7 @@
         <v>0.0</v>
       </c>
       <c r="X155" s="67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y155" s="67"/>
     </row>
@@ -18373,7 +18421,7 @@
         <v>3.0</v>
       </c>
       <c r="X156" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y156" s="70"/>
     </row>
@@ -18400,7 +18448,7 @@
         <v>0.0</v>
       </c>
       <c r="X157" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y157" s="70"/>
     </row>
@@ -18427,7 +18475,7 @@
         <v>3.0</v>
       </c>
       <c r="X158" s="71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y158" s="72"/>
     </row>
@@ -18454,7 +18502,7 @@
         <v>0.0</v>
       </c>
       <c r="X159" s="67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y159" s="74"/>
     </row>
@@ -18481,7 +18529,7 @@
         <v>0.0</v>
       </c>
       <c r="X160" s="67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y160" s="67"/>
     </row>
@@ -18508,7 +18556,7 @@
         <v>3.0</v>
       </c>
       <c r="X161" s="67" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y161" s="67"/>
     </row>
@@ -18535,7 +18583,7 @@
         <v>0.0</v>
       </c>
       <c r="X162" s="71" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y162" s="72"/>
     </row>
@@ -18554,10 +18602,10 @@
     <row r="175" ht="15.75" customHeight="1"/>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="87" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B176" s="87" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C176" s="88"/>
       <c r="D176" s="88"/>
@@ -20160,7 +20208,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="67" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B177" s="43">
         <v>1.0</v>
@@ -23764,7 +23812,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B178" s="43">
         <v>1.0</v>
@@ -26769,7 +26817,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B179" s="43">
         <v>2.0</v>
@@ -32569,7 +32617,6 @@
     <row r="972" ht="15.75" customHeight="1"/>
     <row r="973" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$X$1:$X$973"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -32675,7 +32722,7 @@
         <v>1.6510464E9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="89"/>
     </row>
@@ -32694,12 +32741,12 @@
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5">
         <v>3.0</v>
@@ -32707,7 +32754,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5">
         <v>0.0</v>
@@ -32716,7 +32763,7 @@
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B11" s="41">
         <v>3.0</v>
@@ -32724,7 +32771,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -32789,7 +32836,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="G13" s="90" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H13" s="90"/>
       <c r="I13" s="90"/>
@@ -32801,40 +32848,40 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H14" s="58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I14" s="91" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K14" s="91" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L14" s="58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N14" s="91" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P14" s="58" t="s">
         <v>41</v>
@@ -32852,7 +32899,7 @@
         <v>45</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="V14" s="61" t="s">
         <v>41</v>
@@ -32931,37 +32978,37 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H15" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I15" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J15" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K15" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="L15" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="M15" s="43">
         <v>15.0</v>
       </c>
-      <c r="I15" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J15" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K15" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="L15" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="M15" s="43">
-        <v>4.0</v>
-      </c>
       <c r="N15" s="1">
         <v>0.0</v>
       </c>
-      <c r="P15" s="95">
+      <c r="P15" s="69">
         <v>0.0</v>
       </c>
       <c r="Q15" s="69">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="R15" s="69">
-        <v>7.0</v>
+        <v>44.0</v>
       </c>
       <c r="S15" s="69">
         <v>3.0</v>
@@ -32969,8 +33016,8 @@
       <c r="T15" s="95">
         <v>0.0</v>
       </c>
-      <c r="U15" s="75" t="s">
-        <v>167</v>
+      <c r="U15" s="96" t="s">
+        <v>170</v>
       </c>
       <c r="V15" s="61"/>
       <c r="W15" s="61"/>
@@ -33023,31 +33070,31 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="43">
-        <v>40.0</v>
+        <v>101.0</v>
       </c>
       <c r="E16" s="94">
         <v>0.0</v>
       </c>
       <c r="G16" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H16" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I16" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J16" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K16" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="L16" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="M16" s="43">
         <v>15.0</v>
-      </c>
-      <c r="I16" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J16" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K16" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="L16" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="M16" s="43">
-        <v>4.0</v>
       </c>
       <c r="N16" s="1">
         <v>0.0</v>
@@ -33067,8 +33114,8 @@
       <c r="T16" s="95">
         <v>0.0</v>
       </c>
-      <c r="U16" s="75" t="s">
-        <v>168</v>
+      <c r="U16" s="67" t="s">
+        <v>171</v>
       </c>
       <c r="V16" s="61"/>
       <c r="W16" s="61"/>
@@ -33121,31 +33168,31 @@
         <v>3.0</v>
       </c>
       <c r="D17" s="43">
+        <v>201.0</v>
+      </c>
+      <c r="E17" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="43">
         <v>80.0</v>
       </c>
-      <c r="E17" s="94">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="43">
-        <v>30.0</v>
-      </c>
       <c r="H17" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I17" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J17" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K17" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="L17" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="M17" s="43">
         <v>15.0</v>
-      </c>
-      <c r="I17" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J17" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K17" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="L17" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="M17" s="43">
-        <v>4.0</v>
       </c>
       <c r="N17" s="1">
         <v>0.0</v>
@@ -33165,8 +33212,8 @@
       <c r="T17" s="95">
         <v>3.0</v>
       </c>
-      <c r="U17" s="75" t="s">
-        <v>117</v>
+      <c r="U17" s="67" t="s">
+        <v>127</v>
       </c>
       <c r="V17" s="61"/>
       <c r="W17" s="61"/>
@@ -33219,32 +33266,32 @@
         <v>4.0</v>
       </c>
       <c r="D18" s="43">
-        <v>120.0</v>
+        <v>301.0</v>
       </c>
       <c r="E18" s="94">
         <v>0.0</v>
       </c>
       <c r="G18" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H18" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I18" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J18" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K18" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="L18" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="M18" s="43">
         <v>15.0</v>
       </c>
-      <c r="I18" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J18" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K18" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="L18" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="M18" s="43">
-        <v>4.0</v>
-      </c>
       <c r="N18" s="1">
         <v>0.0</v>
       </c>
@@ -33252,7 +33299,7 @@
         <v>0.0</v>
       </c>
       <c r="Q18" s="69">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="R18" s="95">
         <v>2.0</v>
@@ -33263,8 +33310,8 @@
       <c r="T18" s="95">
         <v>0.0</v>
       </c>
-      <c r="U18" s="75" t="s">
-        <v>169</v>
+      <c r="U18" s="67" t="s">
+        <v>172</v>
       </c>
       <c r="V18" s="61"/>
       <c r="W18" s="61"/>
@@ -33317,31 +33364,31 @@
         <v>5.0</v>
       </c>
       <c r="D19" s="43">
-        <v>160.0</v>
+        <v>401.0</v>
       </c>
       <c r="E19" s="94">
         <v>0.0</v>
       </c>
       <c r="G19" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H19" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I19" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J19" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K19" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="L19" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="M19" s="43">
         <v>15.0</v>
-      </c>
-      <c r="I19" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J19" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K19" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="L19" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="M19" s="43">
-        <v>4.0</v>
       </c>
       <c r="N19" s="1">
         <v>1.0</v>
@@ -33361,14 +33408,14 @@
       <c r="T19" s="95">
         <v>3.0</v>
       </c>
-      <c r="U19" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
+      <c r="U19" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
       <c r="AB19" s="92"/>
       <c r="AC19" s="92"/>
       <c r="AD19" s="92"/>
@@ -33415,43 +33462,43 @@
         <v>1.0</v>
       </c>
       <c r="D20" s="43">
-        <v>200.0</v>
+        <v>501.0</v>
       </c>
       <c r="E20" s="1">
         <v>4.0</v>
       </c>
       <c r="G20" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H20" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I20" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J20" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K20" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="L20" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="M20" s="43">
         <v>30.0</v>
       </c>
-      <c r="H20" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I20" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J20" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K20" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="L20" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="M20" s="43">
-        <v>8.0</v>
-      </c>
       <c r="N20" s="1">
         <v>0.0</v>
       </c>
-      <c r="P20" s="95">
+      <c r="P20" s="69">
         <v>0.0</v>
       </c>
       <c r="Q20" s="69">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="R20" s="69">
-        <v>7.0</v>
+        <v>44.0</v>
       </c>
       <c r="S20" s="69">
         <v>3.0</v>
@@ -33459,8 +33506,8 @@
       <c r="T20" s="95">
         <v>0.0</v>
       </c>
-      <c r="U20" s="75" t="s">
-        <v>170</v>
+      <c r="U20" s="96" t="s">
+        <v>173</v>
       </c>
       <c r="V20" s="61"/>
       <c r="W20" s="61"/>
@@ -33513,31 +33560,31 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="43">
-        <v>245.0</v>
+        <v>601.0</v>
       </c>
       <c r="E21" s="1">
         <v>4.0</v>
       </c>
       <c r="G21" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H21" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I21" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J21" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K21" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="L21" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="M21" s="43">
         <v>30.0</v>
-      </c>
-      <c r="H21" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I21" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J21" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K21" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="L21" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="M21" s="43">
-        <v>8.0</v>
       </c>
       <c r="N21" s="1">
         <v>0.0</v>
@@ -33557,8 +33604,8 @@
       <c r="T21" s="95">
         <v>0.0</v>
       </c>
-      <c r="U21" s="75" t="s">
-        <v>171</v>
+      <c r="U21" s="67" t="s">
+        <v>174</v>
       </c>
       <c r="V21" s="61"/>
       <c r="W21" s="61"/>
@@ -33611,31 +33658,31 @@
         <v>3.0</v>
       </c>
       <c r="D22" s="43">
-        <v>290.0</v>
+        <v>701.0</v>
       </c>
       <c r="E22" s="1">
         <v>4.0</v>
       </c>
       <c r="G22" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H22" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I22" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J22" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K22" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="L22" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="M22" s="43">
         <v>30.0</v>
-      </c>
-      <c r="H22" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I22" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J22" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K22" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="L22" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="M22" s="43">
-        <v>8.0</v>
       </c>
       <c r="N22" s="1">
         <v>0.0</v>
@@ -33655,8 +33702,8 @@
       <c r="T22" s="95">
         <v>3.0</v>
       </c>
-      <c r="U22" s="75" t="s">
-        <v>117</v>
+      <c r="U22" s="67" t="s">
+        <v>127</v>
       </c>
       <c r="V22" s="61"/>
       <c r="W22" s="61"/>
@@ -33709,32 +33756,32 @@
         <v>4.0</v>
       </c>
       <c r="D23" s="43">
-        <v>335.0</v>
+        <v>801.0</v>
       </c>
       <c r="E23" s="1">
         <v>4.0</v>
       </c>
       <c r="G23" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H23" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I23" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J23" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K23" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="L23" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="M23" s="43">
         <v>30.0</v>
       </c>
-      <c r="H23" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I23" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J23" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K23" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="L23" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="M23" s="43">
-        <v>8.0</v>
-      </c>
       <c r="N23" s="1">
         <v>0.0</v>
       </c>
@@ -33742,7 +33789,7 @@
         <v>0.0</v>
       </c>
       <c r="Q23" s="69">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="R23" s="95">
         <v>2.0</v>
@@ -33753,8 +33800,8 @@
       <c r="T23" s="95">
         <v>0.0</v>
       </c>
-      <c r="U23" s="75" t="s">
-        <v>172</v>
+      <c r="U23" s="67" t="s">
+        <v>175</v>
       </c>
       <c r="V23" s="61"/>
       <c r="W23" s="61"/>
@@ -33807,31 +33854,31 @@
         <v>5.0</v>
       </c>
       <c r="D24" s="43">
-        <v>380.0</v>
+        <v>901.0</v>
       </c>
       <c r="E24" s="1">
         <v>4.0</v>
       </c>
       <c r="G24" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H24" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I24" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J24" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K24" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="L24" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="M24" s="43">
         <v>30.0</v>
-      </c>
-      <c r="H24" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I24" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J24" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K24" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="L24" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="M24" s="43">
-        <v>8.0</v>
       </c>
       <c r="N24" s="1">
         <v>1.0</v>
@@ -33851,14 +33898,14 @@
       <c r="T24" s="95">
         <v>0.0</v>
       </c>
-      <c r="U24" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
+      <c r="U24" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
       <c r="AB24" s="92"/>
       <c r="AC24" s="92"/>
       <c r="AD24" s="92"/>
@@ -33905,43 +33952,43 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="43">
-        <v>425.0</v>
+        <v>1001.0</v>
       </c>
       <c r="E25" s="1">
         <v>6.0</v>
       </c>
       <c r="G25" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H25" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I25" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J25" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K25" s="43">
         <v>30.0</v>
       </c>
-      <c r="H25" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I25" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J25" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K25" s="43">
-        <v>8.0</v>
-      </c>
       <c r="L25" s="43">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="M25" s="43">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="N25" s="1">
         <v>0.0</v>
       </c>
-      <c r="P25" s="95">
+      <c r="P25" s="69">
         <v>0.0</v>
       </c>
       <c r="Q25" s="69">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="R25" s="69">
-        <v>7.0</v>
+        <v>44.0</v>
       </c>
       <c r="S25" s="69">
         <v>3.0</v>
@@ -33949,8 +33996,8 @@
       <c r="T25" s="95">
         <v>0.0</v>
       </c>
-      <c r="U25" s="75" t="s">
-        <v>173</v>
+      <c r="U25" s="96" t="s">
+        <v>176</v>
       </c>
       <c r="V25" s="61"/>
       <c r="W25" s="61"/>
@@ -34003,31 +34050,31 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="43">
-        <v>475.0</v>
+        <v>1101.0</v>
       </c>
       <c r="E26" s="1">
         <v>6.0</v>
       </c>
       <c r="G26" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H26" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I26" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J26" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K26" s="43">
         <v>30.0</v>
       </c>
-      <c r="H26" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I26" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J26" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K26" s="43">
-        <v>8.0</v>
-      </c>
       <c r="L26" s="43">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="M26" s="43">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="N26" s="1">
         <v>0.0</v>
@@ -34047,8 +34094,8 @@
       <c r="T26" s="95">
         <v>0.0</v>
       </c>
-      <c r="U26" s="75" t="s">
-        <v>174</v>
+      <c r="U26" s="67" t="s">
+        <v>177</v>
       </c>
       <c r="V26" s="61"/>
       <c r="W26" s="61"/>
@@ -34101,31 +34148,31 @@
         <v>3.0</v>
       </c>
       <c r="D27" s="43">
-        <v>525.0</v>
+        <v>1201.0</v>
       </c>
       <c r="E27" s="1">
         <v>6.0</v>
       </c>
       <c r="G27" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H27" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I27" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J27" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K27" s="43">
         <v>30.0</v>
       </c>
-      <c r="H27" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I27" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J27" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K27" s="43">
-        <v>8.0</v>
-      </c>
       <c r="L27" s="43">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="M27" s="43">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="N27" s="1">
         <v>0.0</v>
@@ -34145,8 +34192,8 @@
       <c r="T27" s="95">
         <v>3.0</v>
       </c>
-      <c r="U27" s="75" t="s">
-        <v>124</v>
+      <c r="U27" s="67" t="s">
+        <v>178</v>
       </c>
       <c r="V27" s="61"/>
       <c r="W27" s="61"/>
@@ -34199,31 +34246,31 @@
         <v>4.0</v>
       </c>
       <c r="D28" s="43">
-        <v>575.0</v>
+        <v>1301.0</v>
       </c>
       <c r="E28" s="1">
         <v>6.0</v>
       </c>
       <c r="G28" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H28" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I28" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J28" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K28" s="43">
         <v>30.0</v>
       </c>
-      <c r="H28" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I28" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J28" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K28" s="43">
-        <v>8.0</v>
-      </c>
       <c r="L28" s="43">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="M28" s="43">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="N28" s="1">
         <v>0.0</v>
@@ -34232,7 +34279,7 @@
         <v>0.0</v>
       </c>
       <c r="Q28" s="69">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="R28" s="95">
         <v>2.0</v>
@@ -34243,8 +34290,8 @@
       <c r="T28" s="95">
         <v>0.0</v>
       </c>
-      <c r="U28" s="75" t="s">
-        <v>175</v>
+      <c r="U28" s="67" t="s">
+        <v>179</v>
       </c>
       <c r="V28" s="61"/>
       <c r="W28" s="61"/>
@@ -34297,31 +34344,31 @@
         <v>5.0</v>
       </c>
       <c r="D29" s="43">
-        <v>625.0</v>
+        <v>1401.0</v>
       </c>
       <c r="E29" s="1">
         <v>6.0</v>
       </c>
       <c r="G29" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H29" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I29" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J29" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K29" s="43">
         <v>30.0</v>
       </c>
-      <c r="H29" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I29" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J29" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K29" s="43">
-        <v>8.0</v>
-      </c>
       <c r="L29" s="43">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="M29" s="43">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
       <c r="N29" s="1">
         <v>1.0</v>
@@ -34341,14 +34388,14 @@
       <c r="T29" s="95">
         <v>3.0</v>
       </c>
-      <c r="U29" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
+      <c r="U29" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
       <c r="AB29" s="92"/>
       <c r="AC29" s="92"/>
       <c r="AD29" s="92"/>
@@ -34395,43 +34442,43 @@
         <v>1.0</v>
       </c>
       <c r="D30" s="43">
-        <v>675.0</v>
+        <v>1501.0</v>
       </c>
       <c r="E30" s="1">
         <v>8.0</v>
       </c>
       <c r="G30" s="43">
+        <v>80.0</v>
+      </c>
+      <c r="H30" s="43">
+        <v>70.0</v>
+      </c>
+      <c r="I30" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="J30" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="K30" s="43">
+        <v>50.0</v>
+      </c>
+      <c r="L30" s="43">
+        <v>55.0</v>
+      </c>
+      <c r="M30" s="43">
+        <v>60.0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P30" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" s="69">
         <v>30.0</v>
       </c>
-      <c r="H30" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="I30" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="J30" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="K30" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="L30" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="M30" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="P30" s="95">
-        <v>0.0</v>
-      </c>
-      <c r="Q30" s="69">
-        <v>25.0</v>
-      </c>
       <c r="R30" s="69">
-        <v>7.0</v>
+        <v>44.0</v>
       </c>
       <c r="S30" s="69">
         <v>3.0</v>
@@ -34439,8 +34486,8 @@
       <c r="T30" s="95">
         <v>0.0</v>
       </c>
-      <c r="U30" s="75" t="s">
-        <v>176</v>
+      <c r="U30" s="96" t="s">
+        <v>180</v>
       </c>
       <c r="V30" s="61"/>
       <c r="W30" s="61"/>
@@ -34493,31 +34540,31 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="43">
-        <v>730.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E31" s="1">
         <v>8.0</v>
       </c>
       <c r="G31" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H31" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I31" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J31" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K31" s="43">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="L31" s="43">
-        <v>15.0</v>
+        <v>55.0</v>
       </c>
       <c r="M31" s="43">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="N31" s="1">
         <v>0.0</v>
@@ -34537,8 +34584,8 @@
       <c r="T31" s="95">
         <v>0.0</v>
       </c>
-      <c r="U31" s="75" t="s">
-        <v>177</v>
+      <c r="U31" s="67" t="s">
+        <v>181</v>
       </c>
       <c r="V31" s="61"/>
       <c r="W31" s="61"/>
@@ -34591,31 +34638,31 @@
         <v>3.0</v>
       </c>
       <c r="D32" s="43">
-        <v>785.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E32" s="1">
         <v>8.0</v>
       </c>
       <c r="G32" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H32" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I32" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J32" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K32" s="43">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="L32" s="43">
-        <v>15.0</v>
+        <v>55.0</v>
       </c>
       <c r="M32" s="43">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="N32" s="1">
         <v>0.0</v>
@@ -34635,8 +34682,8 @@
       <c r="T32" s="95">
         <v>3.0</v>
       </c>
-      <c r="U32" s="75" t="s">
-        <v>124</v>
+      <c r="U32" s="67" t="s">
+        <v>178</v>
       </c>
       <c r="V32" s="61"/>
       <c r="W32" s="61"/>
@@ -34689,31 +34736,31 @@
         <v>4.0</v>
       </c>
       <c r="D33" s="43">
-        <v>840.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E33" s="1">
         <v>8.0</v>
       </c>
       <c r="G33" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H33" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I33" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J33" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K33" s="43">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="L33" s="43">
-        <v>15.0</v>
+        <v>55.0</v>
       </c>
       <c r="M33" s="43">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="N33" s="1">
         <v>0.0</v>
@@ -34722,7 +34769,7 @@
         <v>0.0</v>
       </c>
       <c r="Q33" s="69">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="R33" s="95">
         <v>2.0</v>
@@ -34733,8 +34780,8 @@
       <c r="T33" s="95">
         <v>0.0</v>
       </c>
-      <c r="U33" s="75" t="s">
-        <v>178</v>
+      <c r="U33" s="67" t="s">
+        <v>182</v>
       </c>
       <c r="V33" s="61"/>
       <c r="W33" s="61"/>
@@ -34787,31 +34834,31 @@
         <v>5.0</v>
       </c>
       <c r="D34" s="43">
-        <v>895.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E34" s="1">
         <v>8.0</v>
       </c>
       <c r="G34" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H34" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I34" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J34" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K34" s="43">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="L34" s="43">
-        <v>15.0</v>
+        <v>55.0</v>
       </c>
       <c r="M34" s="43">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="N34" s="1">
         <v>1.0</v>
@@ -34831,14 +34878,14 @@
       <c r="T34" s="95">
         <v>0.0</v>
       </c>
-      <c r="U34" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="96"/>
+      <c r="U34" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
       <c r="AB34" s="92"/>
       <c r="AC34" s="92"/>
       <c r="AD34" s="92"/>
@@ -34885,32 +34932,32 @@
         <v>1.0</v>
       </c>
       <c r="D35" s="43">
-        <v>950.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ref="E35:E39" si="1">10</f>
         <v>10</v>
       </c>
       <c r="G35" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H35" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I35" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J35" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K35" s="43">
-        <v>13.0</v>
+        <v>60.0</v>
       </c>
       <c r="L35" s="43">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="M35" s="43">
-        <v>26.0</v>
+        <v>80.0</v>
       </c>
       <c r="N35" s="1">
         <v>0.0</v>
@@ -34930,8 +34977,8 @@
       <c r="T35" s="95">
         <v>0.0</v>
       </c>
-      <c r="U35" s="75" t="s">
-        <v>179</v>
+      <c r="U35" s="98" t="s">
+        <v>183</v>
       </c>
       <c r="V35" s="61"/>
       <c r="W35" s="61"/>
@@ -34984,32 +35031,32 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="43">
-        <v>1010.0</v>
+        <v>2101.0</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G36" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H36" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I36" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J36" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K36" s="43">
-        <v>13.0</v>
+        <v>60.0</v>
       </c>
       <c r="L36" s="43">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="M36" s="43">
-        <v>26.0</v>
+        <v>80.0</v>
       </c>
       <c r="N36" s="1">
         <v>0.0</v>
@@ -35029,8 +35076,8 @@
       <c r="T36" s="95">
         <v>0.0</v>
       </c>
-      <c r="U36" s="75" t="s">
-        <v>180</v>
+      <c r="U36" s="67" t="s">
+        <v>184</v>
       </c>
       <c r="V36" s="61"/>
       <c r="W36" s="61"/>
@@ -35083,32 +35130,32 @@
         <v>3.0</v>
       </c>
       <c r="D37" s="43">
-        <v>1070.0</v>
+        <v>2201.0</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G37" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H37" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I37" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J37" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K37" s="43">
-        <v>13.0</v>
+        <v>60.0</v>
       </c>
       <c r="L37" s="43">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="M37" s="43">
-        <v>26.0</v>
+        <v>80.0</v>
       </c>
       <c r="N37" s="1">
         <v>0.0</v>
@@ -35128,8 +35175,8 @@
       <c r="T37" s="95">
         <v>3.0</v>
       </c>
-      <c r="U37" s="75" t="s">
-        <v>181</v>
+      <c r="U37" s="67" t="s">
+        <v>185</v>
       </c>
       <c r="V37" s="61"/>
       <c r="W37" s="61"/>
@@ -35182,32 +35229,32 @@
         <v>4.0</v>
       </c>
       <c r="D38" s="43">
-        <v>1130.0</v>
+        <v>2301.0</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G38" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H38" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I38" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J38" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K38" s="43">
-        <v>13.0</v>
+        <v>60.0</v>
       </c>
       <c r="L38" s="43">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="M38" s="43">
-        <v>26.0</v>
+        <v>80.0</v>
       </c>
       <c r="N38" s="1">
         <v>0.0</v>
@@ -35216,7 +35263,7 @@
         <v>0.0</v>
       </c>
       <c r="Q38" s="69">
-        <v>500.0</v>
+        <v>250.0</v>
       </c>
       <c r="R38" s="95">
         <v>2.0</v>
@@ -35227,8 +35274,8 @@
       <c r="T38" s="95">
         <v>0.0</v>
       </c>
-      <c r="U38" s="75" t="s">
-        <v>182</v>
+      <c r="U38" s="67" t="s">
+        <v>186</v>
       </c>
       <c r="V38" s="61"/>
       <c r="W38" s="61"/>
@@ -35281,32 +35328,32 @@
         <v>5.0</v>
       </c>
       <c r="D39" s="43">
-        <v>1190.0</v>
+        <v>2401.0</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G39" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H39" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I39" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J39" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K39" s="43">
-        <v>13.0</v>
+        <v>60.0</v>
       </c>
       <c r="L39" s="43">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="M39" s="43">
-        <v>26.0</v>
+        <v>80.0</v>
       </c>
       <c r="N39" s="1">
         <v>1.0</v>
@@ -35326,14 +35373,14 @@
       <c r="T39" s="95">
         <v>3.0</v>
       </c>
-      <c r="U39" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
-      <c r="Z39" s="96"/>
+      <c r="U39" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="V39" s="97"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
       <c r="AB39" s="92"/>
       <c r="AC39" s="92"/>
       <c r="AD39" s="92"/>
@@ -35380,31 +35427,31 @@
         <v>1.0</v>
       </c>
       <c r="D40" s="43">
-        <v>1250.0</v>
+        <v>2501.0</v>
       </c>
       <c r="E40" s="1">
         <v>12.0</v>
       </c>
       <c r="G40" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H40" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I40" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J40" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K40" s="43">
-        <v>16.0</v>
+        <v>60.0</v>
       </c>
       <c r="L40" s="43">
-        <v>24.0</v>
+        <v>70.0</v>
       </c>
       <c r="M40" s="43">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="N40" s="1">
         <v>0.0</v>
@@ -35424,8 +35471,8 @@
       <c r="T40" s="95">
         <v>0.0</v>
       </c>
-      <c r="U40" s="75" t="s">
-        <v>183</v>
+      <c r="U40" s="98" t="s">
+        <v>187</v>
       </c>
       <c r="V40" s="61"/>
       <c r="W40" s="61"/>
@@ -35478,31 +35525,31 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="43">
-        <v>1315.0</v>
+        <v>2601.0</v>
       </c>
       <c r="E41" s="1">
         <v>12.0</v>
       </c>
       <c r="G41" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H41" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I41" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J41" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K41" s="43">
-        <v>16.0</v>
+        <v>60.0</v>
       </c>
       <c r="L41" s="43">
-        <v>24.0</v>
+        <v>70.0</v>
       </c>
       <c r="M41" s="43">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="N41" s="1">
         <v>0.0</v>
@@ -35522,8 +35569,8 @@
       <c r="T41" s="95">
         <v>0.0</v>
       </c>
-      <c r="U41" s="75" t="s">
-        <v>184</v>
+      <c r="U41" s="67" t="s">
+        <v>188</v>
       </c>
       <c r="V41" s="61"/>
       <c r="W41" s="61"/>
@@ -35576,31 +35623,31 @@
         <v>3.0</v>
       </c>
       <c r="D42" s="43">
-        <v>1385.0</v>
+        <v>2701.0</v>
       </c>
       <c r="E42" s="1">
         <v>12.0</v>
       </c>
       <c r="G42" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H42" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I42" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J42" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K42" s="43">
-        <v>16.0</v>
+        <v>60.0</v>
       </c>
       <c r="L42" s="43">
-        <v>24.0</v>
+        <v>70.0</v>
       </c>
       <c r="M42" s="43">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="N42" s="1">
         <v>0.0</v>
@@ -35620,8 +35667,8 @@
       <c r="T42" s="95">
         <v>3.0</v>
       </c>
-      <c r="U42" s="75" t="s">
-        <v>181</v>
+      <c r="U42" s="67" t="s">
+        <v>185</v>
       </c>
       <c r="V42" s="61"/>
       <c r="W42" s="61"/>
@@ -35674,31 +35721,31 @@
         <v>4.0</v>
       </c>
       <c r="D43" s="43">
-        <v>1460.0</v>
+        <v>2801.0</v>
       </c>
       <c r="E43" s="1">
         <v>12.0</v>
       </c>
       <c r="G43" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H43" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I43" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J43" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K43" s="43">
-        <v>16.0</v>
+        <v>60.0</v>
       </c>
       <c r="L43" s="43">
-        <v>24.0</v>
+        <v>70.0</v>
       </c>
       <c r="M43" s="43">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="N43" s="1">
         <v>0.0</v>
@@ -35707,7 +35754,7 @@
         <v>0.0</v>
       </c>
       <c r="Q43" s="69">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="R43" s="95">
         <v>2.0</v>
@@ -35718,8 +35765,8 @@
       <c r="T43" s="95">
         <v>0.0</v>
       </c>
-      <c r="U43" s="75" t="s">
-        <v>185</v>
+      <c r="U43" s="67" t="s">
+        <v>189</v>
       </c>
       <c r="V43" s="61"/>
       <c r="W43" s="61"/>
@@ -35772,31 +35819,31 @@
         <v>5.0</v>
       </c>
       <c r="D44" s="43">
-        <v>1545.0</v>
+        <v>2901.0</v>
       </c>
       <c r="E44" s="1">
         <v>12.0</v>
       </c>
       <c r="G44" s="43">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="H44" s="43">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="I44" s="43">
-        <v>10.0</v>
+        <v>60.0</v>
       </c>
       <c r="J44" s="43">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="K44" s="43">
-        <v>16.0</v>
+        <v>60.0</v>
       </c>
       <c r="L44" s="43">
-        <v>24.0</v>
+        <v>70.0</v>
       </c>
       <c r="M44" s="43">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="N44" s="1">
         <v>1.0</v>
@@ -35816,8 +35863,8 @@
       <c r="T44" s="95">
         <v>0.0</v>
       </c>
-      <c r="U44" s="71" t="s">
-        <v>186</v>
+      <c r="U44" s="79" t="s">
+        <v>190</v>
       </c>
       <c r="V44" s="61"/>
       <c r="W44" s="61"/>
@@ -36046,7 +36093,7 @@
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -36112,13 +36159,13 @@
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>41</v>
@@ -36246,7 +36293,7 @@
     <row r="60" ht="15.75" customHeight="1"/>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="50" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B61" s="82"/>
       <c r="C61" s="82"/>
@@ -36311,7 +36358,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B62" s="1">
         <v>1.4</v>
@@ -37396,13 +37443,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
@@ -37420,7 +37467,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>41</v>
@@ -37438,7 +37485,7 @@
         <v>45</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>41</v>
@@ -37456,7 +37503,7 @@
         <v>45</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>41</v>
@@ -37474,7 +37521,7 @@
         <v>45</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>41</v>
@@ -37492,15 +37539,15 @@
         <v>45</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="97">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>193</v>
+      <c r="A3" s="99">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>197</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -37520,8 +37567,8 @@
       <c r="H3" s="1">
         <v>0.0</v>
       </c>
-      <c r="I3" s="99" t="s">
-        <v>194</v>
+      <c r="I3" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J3" s="67"/>
       <c r="K3" s="2">
@@ -37539,11 +37586,11 @@
       <c r="O3" s="2">
         <v>0.0</v>
       </c>
-      <c r="P3" s="100"/>
+      <c r="P3" s="102"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="2">
         <v>2.0</v>
       </c>
@@ -37563,7 +37610,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J4" s="67"/>
       <c r="K4" s="2">
@@ -37581,11 +37628,11 @@
       <c r="O4" s="2">
         <v>0.0</v>
       </c>
-      <c r="P4" s="100"/>
+      <c r="P4" s="102"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="2">
         <v>3.0</v>
       </c>
@@ -37604,8 +37651,8 @@
       <c r="H5" s="1">
         <v>0.0</v>
       </c>
-      <c r="I5" s="99" t="s">
-        <v>194</v>
+      <c r="I5" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J5" s="67"/>
       <c r="K5" s="2">
@@ -37623,11 +37670,11 @@
       <c r="O5" s="2">
         <v>0.0</v>
       </c>
-      <c r="P5" s="100"/>
+      <c r="P5" s="102"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="2">
         <v>4.0</v>
       </c>
@@ -37647,7 +37694,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="2">
@@ -37665,11 +37712,11 @@
       <c r="O6" s="2">
         <v>0.0</v>
       </c>
-      <c r="P6" s="100"/>
+      <c r="P6" s="102"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="2">
         <v>5.0</v>
       </c>
@@ -37688,8 +37735,8 @@
       <c r="H7" s="1">
         <v>0.0</v>
       </c>
-      <c r="I7" s="99" t="s">
-        <v>194</v>
+      <c r="I7" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J7" s="67"/>
       <c r="K7" s="2">
@@ -37707,11 +37754,11 @@
       <c r="O7" s="2">
         <v>0.0</v>
       </c>
-      <c r="P7" s="100"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="2">
         <v>6.0</v>
       </c>
@@ -37731,7 +37778,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="2">
@@ -37749,11 +37796,11 @@
       <c r="O8" s="2">
         <v>0.0</v>
       </c>
-      <c r="P8" s="100"/>
+      <c r="P8" s="102"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="2">
         <v>7.0</v>
       </c>
@@ -37772,8 +37819,8 @@
       <c r="H9" s="1">
         <v>0.0</v>
       </c>
-      <c r="I9" s="99" t="s">
-        <v>194</v>
+      <c r="I9" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J9" s="67"/>
       <c r="K9" s="2">
@@ -37791,11 +37838,11 @@
       <c r="O9" s="2">
         <v>0.0</v>
       </c>
-      <c r="P9" s="100"/>
+      <c r="P9" s="102"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="2">
         <v>8.0</v>
       </c>
@@ -37814,8 +37861,8 @@
       <c r="H10" s="1">
         <v>0.0</v>
       </c>
-      <c r="I10" s="101" t="s">
-        <v>196</v>
+      <c r="I10" s="103" t="s">
+        <v>200</v>
       </c>
       <c r="J10" s="67"/>
       <c r="K10" s="2">
@@ -37833,11 +37880,11 @@
       <c r="O10" s="2">
         <v>0.0</v>
       </c>
-      <c r="P10" s="100"/>
+      <c r="P10" s="102"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="2">
         <v>9.0</v>
       </c>
@@ -37856,8 +37903,8 @@
       <c r="H11" s="1">
         <v>0.0</v>
       </c>
-      <c r="I11" s="102" t="s">
-        <v>197</v>
+      <c r="I11" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J11" s="67"/>
       <c r="K11" s="2">
@@ -37875,11 +37922,11 @@
       <c r="O11" s="2">
         <v>0.0</v>
       </c>
-      <c r="P11" s="100"/>
+      <c r="P11" s="102"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="2">
         <v>10.0</v>
       </c>
@@ -37898,8 +37945,8 @@
       <c r="H12" s="1">
         <v>0.0</v>
       </c>
-      <c r="I12" s="102" t="s">
-        <v>197</v>
+      <c r="I12" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J12" s="67"/>
       <c r="K12" s="2">
@@ -37917,11 +37964,11 @@
       <c r="O12" s="2">
         <v>0.0</v>
       </c>
-      <c r="P12" s="100"/>
+      <c r="P12" s="102"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="2">
         <v>11.0</v>
       </c>
@@ -37940,8 +37987,8 @@
       <c r="H13" s="1">
         <v>0.0</v>
       </c>
-      <c r="I13" s="102" t="s">
-        <v>197</v>
+      <c r="I13" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J13" s="67"/>
       <c r="K13" s="2">
@@ -37959,11 +38006,11 @@
       <c r="O13" s="2">
         <v>0.0</v>
       </c>
-      <c r="P13" s="100"/>
+      <c r="P13" s="102"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="2">
         <v>12.0</v>
       </c>
@@ -37982,8 +38029,8 @@
       <c r="H14" s="1">
         <v>0.0</v>
       </c>
-      <c r="I14" s="102" t="s">
-        <v>197</v>
+      <c r="I14" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J14" s="67"/>
       <c r="K14" s="2">
@@ -38001,11 +38048,11 @@
       <c r="O14" s="2">
         <v>0.0</v>
       </c>
-      <c r="P14" s="100"/>
+      <c r="P14" s="102"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="2">
         <v>13.0</v>
       </c>
@@ -38024,8 +38071,8 @@
       <c r="H15" s="1">
         <v>0.0</v>
       </c>
-      <c r="I15" s="102" t="s">
-        <v>197</v>
+      <c r="I15" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J15" s="67"/>
       <c r="K15" s="2">
@@ -38043,11 +38090,11 @@
       <c r="O15" s="2">
         <v>0.0</v>
       </c>
-      <c r="P15" s="100"/>
+      <c r="P15" s="102"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="2">
         <v>14.0</v>
       </c>
@@ -38066,8 +38113,8 @@
       <c r="H16" s="1">
         <v>0.0</v>
       </c>
-      <c r="I16" s="102" t="s">
-        <v>197</v>
+      <c r="I16" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J16" s="67"/>
       <c r="K16" s="2">
@@ -38085,14 +38132,14 @@
       <c r="O16" s="2">
         <v>0.0</v>
       </c>
-      <c r="P16" s="100"/>
+      <c r="P16" s="102"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="41">
         <v>2.0</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -38113,7 +38160,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J17" s="67"/>
       <c r="K17" s="2">
@@ -38131,7 +38178,7 @@
       <c r="O17" s="2">
         <v>0.0</v>
       </c>
-      <c r="P17" s="100"/>
+      <c r="P17" s="102"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="42"/>
@@ -38154,8 +38201,8 @@
       <c r="H18" s="1">
         <v>0.0</v>
       </c>
-      <c r="I18" s="99" t="s">
-        <v>194</v>
+      <c r="I18" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J18" s="67"/>
       <c r="K18" s="2">
@@ -38173,7 +38220,7 @@
       <c r="O18" s="2">
         <v>0.0</v>
       </c>
-      <c r="P18" s="100"/>
+      <c r="P18" s="102"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="42"/>
@@ -38197,7 +38244,7 @@
         <v>0.0</v>
       </c>
       <c r="I19" s="67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J19" s="67"/>
       <c r="K19" s="2">
@@ -38215,7 +38262,7 @@
       <c r="O19" s="2">
         <v>0.0</v>
       </c>
-      <c r="P19" s="100"/>
+      <c r="P19" s="102"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="42"/>
@@ -38238,8 +38285,8 @@
       <c r="H20" s="1">
         <v>0.0</v>
       </c>
-      <c r="I20" s="99" t="s">
-        <v>194</v>
+      <c r="I20" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J20" s="67"/>
       <c r="K20" s="2">
@@ -38257,7 +38304,7 @@
       <c r="O20" s="2">
         <v>0.0</v>
       </c>
-      <c r="P20" s="100"/>
+      <c r="P20" s="102"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="42"/>
@@ -38280,8 +38327,8 @@
       <c r="H21" s="1">
         <v>0.0</v>
       </c>
-      <c r="I21" s="101" t="s">
-        <v>199</v>
+      <c r="I21" s="103" t="s">
+        <v>203</v>
       </c>
       <c r="J21" s="67"/>
       <c r="K21" s="2">
@@ -38299,7 +38346,7 @@
       <c r="O21" s="2">
         <v>0.0</v>
       </c>
-      <c r="P21" s="100"/>
+      <c r="P21" s="102"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="42"/>
@@ -38322,8 +38369,8 @@
       <c r="H22" s="1">
         <v>0.0</v>
       </c>
-      <c r="I22" s="99" t="s">
-        <v>194</v>
+      <c r="I22" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J22" s="67"/>
       <c r="K22" s="2">
@@ -38341,7 +38388,7 @@
       <c r="O22" s="2">
         <v>0.0</v>
       </c>
-      <c r="P22" s="100"/>
+      <c r="P22" s="102"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="42"/>
@@ -38364,8 +38411,8 @@
       <c r="H23" s="1">
         <v>0.0</v>
       </c>
-      <c r="I23" s="103" t="s">
-        <v>200</v>
+      <c r="I23" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J23" s="67"/>
       <c r="K23" s="2">
@@ -38383,7 +38430,7 @@
       <c r="O23" s="2">
         <v>0.0</v>
       </c>
-      <c r="P23" s="100"/>
+      <c r="P23" s="102"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="42"/>
@@ -38406,8 +38453,8 @@
       <c r="H24" s="1">
         <v>0.0</v>
       </c>
-      <c r="I24" s="103" t="s">
-        <v>200</v>
+      <c r="I24" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J24" s="67"/>
       <c r="K24" s="2">
@@ -38425,7 +38472,7 @@
       <c r="O24" s="2">
         <v>0.0</v>
       </c>
-      <c r="P24" s="100"/>
+      <c r="P24" s="102"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="42"/>
@@ -38448,8 +38495,8 @@
       <c r="H25" s="1">
         <v>0.0</v>
       </c>
-      <c r="I25" s="102" t="s">
-        <v>197</v>
+      <c r="I25" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J25" s="67"/>
       <c r="K25" s="2">
@@ -38467,7 +38514,7 @@
       <c r="O25" s="2">
         <v>0.0</v>
       </c>
-      <c r="P25" s="100"/>
+      <c r="P25" s="102"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="42"/>
@@ -38490,8 +38537,8 @@
       <c r="H26" s="1">
         <v>0.0</v>
       </c>
-      <c r="I26" s="102" t="s">
-        <v>197</v>
+      <c r="I26" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J26" s="67"/>
       <c r="K26" s="2">
@@ -38509,14 +38556,14 @@
       <c r="O26" s="2">
         <v>0.0</v>
       </c>
-      <c r="P26" s="100"/>
+      <c r="P26" s="102"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="104">
+      <c r="A27" s="106">
         <v>3.0</v>
       </c>
-      <c r="B27" s="104" t="s">
-        <v>201</v>
+      <c r="B27" s="106" t="s">
+        <v>205</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -38536,10 +38583,10 @@
       <c r="H27" s="1">
         <v>0.0</v>
       </c>
-      <c r="I27" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="J27" s="106"/>
+      <c r="I27" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="108"/>
       <c r="K27" s="2">
         <v>0.0</v>
       </c>
@@ -38555,11 +38602,11 @@
       <c r="O27" s="2">
         <v>0.0</v>
       </c>
-      <c r="P27" s="100"/>
+      <c r="P27" s="102"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="107"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="2">
         <v>2.0</v>
       </c>
@@ -38579,7 +38626,7 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J28" s="67"/>
       <c r="K28" s="2">
@@ -38597,11 +38644,11 @@
       <c r="O28" s="2">
         <v>0.0</v>
       </c>
-      <c r="P28" s="100"/>
+      <c r="P28" s="102"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="107"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="2">
         <v>3.0</v>
       </c>
@@ -38620,8 +38667,8 @@
       <c r="H29" s="1">
         <v>0.0</v>
       </c>
-      <c r="I29" s="99" t="s">
-        <v>194</v>
+      <c r="I29" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J29" s="67"/>
       <c r="K29" s="2">
@@ -38639,11 +38686,11 @@
       <c r="O29" s="2">
         <v>0.0</v>
       </c>
-      <c r="P29" s="100"/>
+      <c r="P29" s="102"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="107"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="2">
         <v>4.0</v>
       </c>
@@ -38662,8 +38709,8 @@
       <c r="H30" s="1">
         <v>0.0</v>
       </c>
-      <c r="I30" s="101" t="s">
-        <v>202</v>
+      <c r="I30" s="103" t="s">
+        <v>206</v>
       </c>
       <c r="J30" s="67"/>
       <c r="K30" s="2">
@@ -38681,11 +38728,11 @@
       <c r="O30" s="2">
         <v>0.0</v>
       </c>
-      <c r="P30" s="100"/>
+      <c r="P30" s="102"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="2">
         <v>5.0</v>
       </c>
@@ -38704,8 +38751,8 @@
       <c r="H31" s="1">
         <v>0.0</v>
       </c>
-      <c r="I31" s="99" t="s">
-        <v>194</v>
+      <c r="I31" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J31" s="67"/>
       <c r="K31" s="2">
@@ -38723,11 +38770,11 @@
       <c r="O31" s="2">
         <v>0.0</v>
       </c>
-      <c r="P31" s="100"/>
+      <c r="P31" s="102"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="107"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="2">
         <v>6.0</v>
       </c>
@@ -38746,8 +38793,8 @@
       <c r="H32" s="1">
         <v>0.0</v>
       </c>
-      <c r="I32" s="103" t="s">
-        <v>200</v>
+      <c r="I32" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J32" s="67"/>
       <c r="K32" s="2">
@@ -38765,14 +38812,14 @@
       <c r="O32" s="2">
         <v>0.0</v>
       </c>
-      <c r="P32" s="100"/>
+      <c r="P32" s="102"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="98">
+      <c r="A33" s="100">
         <v>4.0</v>
       </c>
-      <c r="B33" s="98" t="s">
-        <v>203</v>
+      <c r="B33" s="100" t="s">
+        <v>207</v>
       </c>
       <c r="C33" s="1">
         <v>1.0</v>
@@ -38792,8 +38839,8 @@
       <c r="H33" s="1">
         <v>0.0</v>
       </c>
-      <c r="I33" s="99" t="s">
-        <v>194</v>
+      <c r="I33" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J33" s="67"/>
       <c r="K33" s="2">
@@ -38811,11 +38858,11 @@
       <c r="O33" s="2">
         <v>0.0</v>
       </c>
-      <c r="P33" s="100"/>
+      <c r="P33" s="102"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="1">
         <v>2.0</v>
       </c>
@@ -38835,7 +38882,7 @@
         <v>0.0</v>
       </c>
       <c r="I34" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J34" s="67"/>
       <c r="K34" s="2">
@@ -38853,11 +38900,11 @@
       <c r="O34" s="2">
         <v>0.0</v>
       </c>
-      <c r="P34" s="100"/>
+      <c r="P34" s="102"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="97"/>
-      <c r="B35" s="97"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="1">
         <v>3.0</v>
       </c>
@@ -38876,8 +38923,8 @@
       <c r="H35" s="1">
         <v>0.0</v>
       </c>
-      <c r="I35" s="99" t="s">
-        <v>194</v>
+      <c r="I35" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J35" s="67"/>
       <c r="K35" s="2">
@@ -38895,11 +38942,11 @@
       <c r="O35" s="2">
         <v>0.0</v>
       </c>
-      <c r="P35" s="100"/>
+      <c r="P35" s="102"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="97"/>
-      <c r="B36" s="97"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="1">
         <v>4.0</v>
       </c>
@@ -38919,7 +38966,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J36" s="67"/>
       <c r="K36" s="2">
@@ -38937,11 +38984,11 @@
       <c r="O36" s="2">
         <v>0.0</v>
       </c>
-      <c r="P36" s="100"/>
+      <c r="P36" s="102"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="97"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="1">
         <v>5.0</v>
       </c>
@@ -38960,8 +39007,8 @@
       <c r="H37" s="1">
         <v>0.0</v>
       </c>
-      <c r="I37" s="99" t="s">
-        <v>194</v>
+      <c r="I37" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J37" s="67"/>
       <c r="K37" s="2">
@@ -38979,11 +39026,11 @@
       <c r="O37" s="2">
         <v>0.0</v>
       </c>
-      <c r="P37" s="100"/>
+      <c r="P37" s="102"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="97"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="1">
         <v>6.0</v>
       </c>
@@ -39003,7 +39050,7 @@
         <v>0.0</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J38" s="67"/>
       <c r="K38" s="2">
@@ -39021,11 +39068,11 @@
       <c r="O38" s="2">
         <v>0.0</v>
       </c>
-      <c r="P38" s="100"/>
+      <c r="P38" s="102"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="1">
         <v>7.0</v>
       </c>
@@ -39044,8 +39091,8 @@
       <c r="H39" s="1">
         <v>0.0</v>
       </c>
-      <c r="I39" s="99" t="s">
-        <v>194</v>
+      <c r="I39" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J39" s="67"/>
       <c r="K39" s="2">
@@ -39063,11 +39110,11 @@
       <c r="O39" s="2">
         <v>0.0</v>
       </c>
-      <c r="P39" s="100"/>
+      <c r="P39" s="102"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="1">
         <v>8.0</v>
       </c>
@@ -39087,7 +39134,7 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J40" s="67"/>
       <c r="K40" s="2">
@@ -39105,11 +39152,11 @@
       <c r="O40" s="2">
         <v>0.0</v>
       </c>
-      <c r="P40" s="100"/>
+      <c r="P40" s="102"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="97"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="1">
         <v>9.0</v>
       </c>
@@ -39128,8 +39175,8 @@
       <c r="H41" s="1">
         <v>0.0</v>
       </c>
-      <c r="I41" s="99" t="s">
-        <v>194</v>
+      <c r="I41" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J41" s="67"/>
       <c r="K41" s="2">
@@ -39147,11 +39194,11 @@
       <c r="O41" s="2">
         <v>0.0</v>
       </c>
-      <c r="P41" s="100"/>
+      <c r="P41" s="102"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="1">
         <v>10.0</v>
       </c>
@@ -39170,8 +39217,8 @@
       <c r="H42" s="1">
         <v>0.0</v>
       </c>
-      <c r="I42" s="101" t="s">
-        <v>205</v>
+      <c r="I42" s="103" t="s">
+        <v>209</v>
       </c>
       <c r="J42" s="67"/>
       <c r="K42" s="2">
@@ -39189,11 +39236,11 @@
       <c r="O42" s="2">
         <v>0.0</v>
       </c>
-      <c r="P42" s="100"/>
+      <c r="P42" s="102"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="1">
         <v>11.0</v>
       </c>
@@ -39212,8 +39259,8 @@
       <c r="H43" s="1">
         <v>0.0</v>
       </c>
-      <c r="I43" s="102" t="s">
-        <v>197</v>
+      <c r="I43" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J43" s="67"/>
       <c r="K43" s="2">
@@ -39231,11 +39278,11 @@
       <c r="O43" s="2">
         <v>0.0</v>
       </c>
-      <c r="P43" s="100"/>
+      <c r="P43" s="102"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="97"/>
-      <c r="B44" s="97"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="1">
         <v>12.0</v>
       </c>
@@ -39254,8 +39301,8 @@
       <c r="H44" s="1">
         <v>0.0</v>
       </c>
-      <c r="I44" s="102" t="s">
-        <v>197</v>
+      <c r="I44" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J44" s="67"/>
       <c r="K44" s="2">
@@ -39273,11 +39320,11 @@
       <c r="O44" s="2">
         <v>0.0</v>
       </c>
-      <c r="P44" s="100"/>
+      <c r="P44" s="102"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="97"/>
-      <c r="B45" s="97"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="1">
         <v>13.0</v>
       </c>
@@ -39296,8 +39343,8 @@
       <c r="H45" s="1">
         <v>0.0</v>
       </c>
-      <c r="I45" s="102" t="s">
-        <v>197</v>
+      <c r="I45" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J45" s="67"/>
       <c r="K45" s="2">
@@ -39315,11 +39362,11 @@
       <c r="O45" s="2">
         <v>0.0</v>
       </c>
-      <c r="P45" s="100"/>
+      <c r="P45" s="102"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="97"/>
-      <c r="B46" s="97"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="1">
         <v>14.0</v>
       </c>
@@ -39338,8 +39385,8 @@
       <c r="H46" s="1">
         <v>0.0</v>
       </c>
-      <c r="I46" s="102" t="s">
-        <v>197</v>
+      <c r="I46" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J46" s="67"/>
       <c r="K46" s="2">
@@ -39357,11 +39404,11 @@
       <c r="O46" s="2">
         <v>0.0</v>
       </c>
-      <c r="P46" s="100"/>
+      <c r="P46" s="102"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="97"/>
-      <c r="B47" s="97"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="1">
         <v>15.0</v>
       </c>
@@ -39380,8 +39427,8 @@
       <c r="H47" s="1">
         <v>0.0</v>
       </c>
-      <c r="I47" s="102" t="s">
-        <v>197</v>
+      <c r="I47" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J47" s="67"/>
       <c r="K47" s="2">
@@ -39399,11 +39446,11 @@
       <c r="O47" s="2">
         <v>0.0</v>
       </c>
-      <c r="P47" s="100"/>
+      <c r="P47" s="102"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="97"/>
-      <c r="B48" s="97"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="1">
         <v>16.0</v>
       </c>
@@ -39422,8 +39469,8 @@
       <c r="H48" s="1">
         <v>0.0</v>
       </c>
-      <c r="I48" s="102" t="s">
-        <v>197</v>
+      <c r="I48" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J48" s="67"/>
       <c r="K48" s="2">
@@ -39441,14 +39488,14 @@
       <c r="O48" s="2">
         <v>0.0</v>
       </c>
-      <c r="P48" s="100"/>
+      <c r="P48" s="102"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="41">
         <v>5.0</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C49" s="1">
         <v>1.0</v>
@@ -39469,7 +39516,7 @@
         <v>0.0</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J49" s="67"/>
       <c r="K49" s="2">
@@ -39487,7 +39534,7 @@
       <c r="O49" s="2">
         <v>0.0</v>
       </c>
-      <c r="P49" s="100"/>
+      <c r="P49" s="102"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="42"/>
@@ -39510,8 +39557,8 @@
       <c r="H50" s="1">
         <v>0.0</v>
       </c>
-      <c r="I50" s="99" t="s">
-        <v>194</v>
+      <c r="I50" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J50" s="67"/>
       <c r="K50" s="2">
@@ -39529,7 +39576,7 @@
       <c r="O50" s="2">
         <v>0.0</v>
       </c>
-      <c r="P50" s="100"/>
+      <c r="P50" s="102"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="42"/>
@@ -39553,7 +39600,7 @@
         <v>0.0</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J51" s="67"/>
       <c r="K51" s="2">
@@ -39571,7 +39618,7 @@
       <c r="O51" s="2">
         <v>0.0</v>
       </c>
-      <c r="P51" s="100"/>
+      <c r="P51" s="102"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="42"/>
@@ -39594,8 +39641,8 @@
       <c r="H52" s="1">
         <v>0.0</v>
       </c>
-      <c r="I52" s="99" t="s">
-        <v>194</v>
+      <c r="I52" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J52" s="67"/>
       <c r="K52" s="2">
@@ -39613,7 +39660,7 @@
       <c r="O52" s="2">
         <v>0.0</v>
       </c>
-      <c r="P52" s="100"/>
+      <c r="P52" s="102"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="42"/>
@@ -39637,7 +39684,7 @@
         <v>0.0</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J53" s="67"/>
       <c r="K53" s="2">
@@ -39655,7 +39702,7 @@
       <c r="O53" s="2">
         <v>0.0</v>
       </c>
-      <c r="P53" s="100"/>
+      <c r="P53" s="102"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="42"/>
@@ -39678,8 +39725,8 @@
       <c r="H54" s="1">
         <v>0.0</v>
       </c>
-      <c r="I54" s="99" t="s">
-        <v>194</v>
+      <c r="I54" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J54" s="67"/>
       <c r="K54" s="2">
@@ -39697,7 +39744,7 @@
       <c r="O54" s="2">
         <v>0.0</v>
       </c>
-      <c r="P54" s="100"/>
+      <c r="P54" s="102"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="42"/>
@@ -39720,8 +39767,8 @@
       <c r="H55" s="1">
         <v>0.0</v>
       </c>
-      <c r="I55" s="101" t="s">
-        <v>207</v>
+      <c r="I55" s="103" t="s">
+        <v>172</v>
       </c>
       <c r="J55" s="67"/>
       <c r="K55" s="2">
@@ -39739,7 +39786,7 @@
       <c r="O55" s="2">
         <v>0.0</v>
       </c>
-      <c r="P55" s="100"/>
+      <c r="P55" s="102"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="42"/>
@@ -39762,8 +39809,8 @@
       <c r="H56" s="1">
         <v>0.0</v>
       </c>
-      <c r="I56" s="103" t="s">
-        <v>200</v>
+      <c r="I56" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J56" s="67"/>
       <c r="K56" s="2">
@@ -39781,7 +39828,7 @@
       <c r="O56" s="2">
         <v>0.0</v>
       </c>
-      <c r="P56" s="100"/>
+      <c r="P56" s="102"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="42"/>
@@ -39804,8 +39851,8 @@
       <c r="H57" s="1">
         <v>0.0</v>
       </c>
-      <c r="I57" s="103" t="s">
-        <v>200</v>
+      <c r="I57" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J57" s="67"/>
       <c r="K57" s="2">
@@ -39823,7 +39870,7 @@
       <c r="O57" s="2">
         <v>0.0</v>
       </c>
-      <c r="P57" s="100"/>
+      <c r="P57" s="102"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="42"/>
@@ -39846,8 +39893,8 @@
       <c r="H58" s="1">
         <v>0.0</v>
       </c>
-      <c r="I58" s="102" t="s">
-        <v>197</v>
+      <c r="I58" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J58" s="67"/>
       <c r="K58" s="2">
@@ -39865,7 +39912,7 @@
       <c r="O58" s="2">
         <v>0.0</v>
       </c>
-      <c r="P58" s="100"/>
+      <c r="P58" s="102"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="42"/>
@@ -39888,8 +39935,8 @@
       <c r="H59" s="1">
         <v>0.0</v>
       </c>
-      <c r="I59" s="102" t="s">
-        <v>197</v>
+      <c r="I59" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J59" s="67"/>
       <c r="K59" s="2">
@@ -39907,7 +39954,7 @@
       <c r="O59" s="2">
         <v>0.0</v>
       </c>
-      <c r="P59" s="100"/>
+      <c r="P59" s="102"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="42"/>
@@ -39930,8 +39977,8 @@
       <c r="H60" s="1">
         <v>0.0</v>
       </c>
-      <c r="I60" s="102" t="s">
-        <v>197</v>
+      <c r="I60" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J60" s="67"/>
       <c r="K60" s="2">
@@ -39949,14 +39996,14 @@
       <c r="O60" s="2">
         <v>0.0</v>
       </c>
-      <c r="P60" s="100"/>
+      <c r="P60" s="102"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="104">
+      <c r="A61" s="106">
         <v>6.0</v>
       </c>
-      <c r="B61" s="104" t="s">
-        <v>208</v>
+      <c r="B61" s="106" t="s">
+        <v>211</v>
       </c>
       <c r="C61" s="1">
         <v>1.0</v>
@@ -39976,10 +40023,10 @@
       <c r="H61" s="1">
         <v>0.0</v>
       </c>
-      <c r="I61" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="J61" s="106"/>
+      <c r="I61" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" s="108"/>
       <c r="K61" s="2">
         <v>0.0</v>
       </c>
@@ -39995,11 +40042,11 @@
       <c r="O61" s="2">
         <v>0.0</v>
       </c>
-      <c r="P61" s="100"/>
+      <c r="P61" s="102"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="107"/>
-      <c r="B62" s="107"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="1">
         <v>2.0</v>
       </c>
@@ -40019,7 +40066,7 @@
         <v>0.0</v>
       </c>
       <c r="I62" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J62" s="67"/>
       <c r="K62" s="2">
@@ -40037,11 +40084,11 @@
       <c r="O62" s="2">
         <v>0.0</v>
       </c>
-      <c r="P62" s="100"/>
+      <c r="P62" s="102"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="107"/>
-      <c r="B63" s="107"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="1">
         <v>3.0</v>
       </c>
@@ -40060,8 +40107,8 @@
       <c r="H63" s="1">
         <v>0.0</v>
       </c>
-      <c r="I63" s="99" t="s">
-        <v>194</v>
+      <c r="I63" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J63" s="67"/>
       <c r="K63" s="2">
@@ -40079,11 +40126,11 @@
       <c r="O63" s="2">
         <v>0.0</v>
       </c>
-      <c r="P63" s="100"/>
+      <c r="P63" s="102"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="107"/>
-      <c r="B64" s="107"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="109"/>
       <c r="C64" s="1">
         <v>4.0</v>
       </c>
@@ -40103,7 +40150,7 @@
         <v>0.0</v>
       </c>
       <c r="I64" s="67" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J64" s="67"/>
       <c r="K64" s="2">
@@ -40121,11 +40168,11 @@
       <c r="O64" s="2">
         <v>0.0</v>
       </c>
-      <c r="P64" s="100"/>
+      <c r="P64" s="102"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="107"/>
-      <c r="B65" s="107"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="109"/>
       <c r="C65" s="1">
         <v>5.0</v>
       </c>
@@ -40144,8 +40191,8 @@
       <c r="H65" s="1">
         <v>0.0</v>
       </c>
-      <c r="I65" s="99" t="s">
-        <v>194</v>
+      <c r="I65" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J65" s="67"/>
       <c r="K65" s="2">
@@ -40163,11 +40210,11 @@
       <c r="O65" s="2">
         <v>0.0</v>
       </c>
-      <c r="P65" s="100"/>
+      <c r="P65" s="102"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
+      <c r="A66" s="109"/>
+      <c r="B66" s="109"/>
       <c r="C66" s="1">
         <v>6.0</v>
       </c>
@@ -40186,8 +40233,8 @@
       <c r="H66" s="1">
         <v>0.0</v>
       </c>
-      <c r="I66" s="101" t="s">
-        <v>196</v>
+      <c r="I66" s="103" t="s">
+        <v>200</v>
       </c>
       <c r="J66" s="67"/>
       <c r="K66" s="2">
@@ -40205,11 +40252,11 @@
       <c r="O66" s="2">
         <v>0.0</v>
       </c>
-      <c r="P66" s="100"/>
+      <c r="P66" s="102"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="107"/>
-      <c r="B67" s="107"/>
+      <c r="A67" s="109"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="1">
         <v>7.0</v>
       </c>
@@ -40228,8 +40275,8 @@
       <c r="H67" s="1">
         <v>0.0</v>
       </c>
-      <c r="I67" s="108" t="s">
-        <v>209</v>
+      <c r="I67" s="110" t="s">
+        <v>212</v>
       </c>
       <c r="J67" s="67"/>
       <c r="K67" s="2">
@@ -40247,11 +40294,11 @@
       <c r="O67" s="2">
         <v>0.0</v>
       </c>
-      <c r="P67" s="100"/>
+      <c r="P67" s="102"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="1">
         <v>8.0</v>
       </c>
@@ -40270,8 +40317,8 @@
       <c r="H68" s="1">
         <v>0.0</v>
       </c>
-      <c r="I68" s="103" t="s">
-        <v>200</v>
+      <c r="I68" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J68" s="67"/>
       <c r="K68" s="2">
@@ -40289,14 +40336,14 @@
       <c r="O68" s="2">
         <v>0.0</v>
       </c>
-      <c r="P68" s="100"/>
+      <c r="P68" s="102"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="98">
+      <c r="A69" s="100">
         <v>7.0</v>
       </c>
-      <c r="B69" s="98" t="s">
-        <v>210</v>
+      <c r="B69" s="100" t="s">
+        <v>213</v>
       </c>
       <c r="C69" s="1">
         <v>1.0</v>
@@ -40316,8 +40363,8 @@
       <c r="H69" s="1">
         <v>0.0</v>
       </c>
-      <c r="I69" s="99" t="s">
-        <v>194</v>
+      <c r="I69" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J69" s="67"/>
       <c r="K69" s="2">
@@ -40335,11 +40382,11 @@
       <c r="O69" s="2">
         <v>0.0</v>
       </c>
-      <c r="P69" s="100"/>
+      <c r="P69" s="102"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="97"/>
-      <c r="B70" s="97"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="1">
         <v>2.0</v>
       </c>
@@ -40359,7 +40406,7 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J70" s="67"/>
       <c r="K70" s="2">
@@ -40377,11 +40424,11 @@
       <c r="O70" s="2">
         <v>0.0</v>
       </c>
-      <c r="P70" s="100"/>
+      <c r="P70" s="102"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="97"/>
-      <c r="B71" s="97"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="1">
         <v>3.0</v>
       </c>
@@ -40400,8 +40447,8 @@
       <c r="H71" s="1">
         <v>0.0</v>
       </c>
-      <c r="I71" s="99" t="s">
-        <v>194</v>
+      <c r="I71" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J71" s="67"/>
       <c r="K71" s="2">
@@ -40419,11 +40466,11 @@
       <c r="O71" s="2">
         <v>0.0</v>
       </c>
-      <c r="P71" s="100"/>
+      <c r="P71" s="102"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="97"/>
-      <c r="B72" s="97"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="1">
         <v>4.0</v>
       </c>
@@ -40443,7 +40490,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J72" s="67"/>
       <c r="K72" s="2">
@@ -40461,11 +40508,11 @@
       <c r="O72" s="2">
         <v>0.0</v>
       </c>
-      <c r="P72" s="100"/>
+      <c r="P72" s="102"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="97"/>
-      <c r="B73" s="97"/>
+      <c r="A73" s="99"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="1">
         <v>5.0</v>
       </c>
@@ -40484,8 +40531,8 @@
       <c r="H73" s="1">
         <v>0.0</v>
       </c>
-      <c r="I73" s="99" t="s">
-        <v>194</v>
+      <c r="I73" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J73" s="67"/>
       <c r="K73" s="2">
@@ -40503,11 +40550,11 @@
       <c r="O73" s="2">
         <v>0.0</v>
       </c>
-      <c r="P73" s="100"/>
+      <c r="P73" s="102"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="97"/>
-      <c r="B74" s="97"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="1">
         <v>6.0</v>
       </c>
@@ -40527,7 +40574,7 @@
         <v>0.0</v>
       </c>
       <c r="I74" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J74" s="67"/>
       <c r="K74" s="2">
@@ -40545,11 +40592,11 @@
       <c r="O74" s="2">
         <v>0.0</v>
       </c>
-      <c r="P74" s="100"/>
+      <c r="P74" s="102"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="97"/>
-      <c r="B75" s="97"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="1">
         <v>7.0</v>
       </c>
@@ -40568,8 +40615,8 @@
       <c r="H75" s="1">
         <v>0.0</v>
       </c>
-      <c r="I75" s="99" t="s">
-        <v>194</v>
+      <c r="I75" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J75" s="67"/>
       <c r="K75" s="2">
@@ -40587,11 +40634,11 @@
       <c r="O75" s="2">
         <v>0.0</v>
       </c>
-      <c r="P75" s="100"/>
+      <c r="P75" s="102"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="97"/>
-      <c r="B76" s="97"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="99"/>
       <c r="C76" s="1">
         <v>8.0</v>
       </c>
@@ -40611,7 +40658,7 @@
         <v>0.0</v>
       </c>
       <c r="I76" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J76" s="67"/>
       <c r="K76" s="2">
@@ -40629,11 +40676,11 @@
       <c r="O76" s="2">
         <v>0.0</v>
       </c>
-      <c r="P76" s="100"/>
+      <c r="P76" s="102"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="97"/>
-      <c r="B77" s="97"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="99"/>
       <c r="C77" s="1">
         <v>9.0</v>
       </c>
@@ -40652,8 +40699,8 @@
       <c r="H77" s="1">
         <v>0.0</v>
       </c>
-      <c r="I77" s="99" t="s">
-        <v>194</v>
+      <c r="I77" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J77" s="67"/>
       <c r="K77" s="2">
@@ -40671,11 +40718,11 @@
       <c r="O77" s="2">
         <v>0.0</v>
       </c>
-      <c r="P77" s="100"/>
+      <c r="P77" s="102"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="97"/>
-      <c r="B78" s="97"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="99"/>
       <c r="C78" s="1">
         <v>10.0</v>
       </c>
@@ -40695,7 +40742,7 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J78" s="67"/>
       <c r="K78" s="2">
@@ -40713,11 +40760,11 @@
       <c r="O78" s="2">
         <v>0.0</v>
       </c>
-      <c r="P78" s="100"/>
+      <c r="P78" s="102"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="97"/>
-      <c r="B79" s="97"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="1">
         <v>11.0</v>
       </c>
@@ -40736,8 +40783,8 @@
       <c r="H79" s="1">
         <v>0.0</v>
       </c>
-      <c r="I79" s="101" t="s">
-        <v>212</v>
+      <c r="I79" s="103" t="s">
+        <v>215</v>
       </c>
       <c r="J79" s="67"/>
       <c r="K79" s="2">
@@ -40755,11 +40802,11 @@
       <c r="O79" s="2">
         <v>0.0</v>
       </c>
-      <c r="P79" s="100"/>
+      <c r="P79" s="102"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="97"/>
-      <c r="B80" s="97"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="99"/>
       <c r="C80" s="1">
         <v>12.0</v>
       </c>
@@ -40778,8 +40825,8 @@
       <c r="H80" s="1">
         <v>0.0</v>
       </c>
-      <c r="I80" s="102" t="s">
-        <v>197</v>
+      <c r="I80" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J80" s="67"/>
       <c r="K80" s="2">
@@ -40797,11 +40844,11 @@
       <c r="O80" s="2">
         <v>0.0</v>
       </c>
-      <c r="P80" s="100"/>
+      <c r="P80" s="102"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="97"/>
-      <c r="B81" s="97"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="99"/>
       <c r="C81" s="1">
         <v>13.0</v>
       </c>
@@ -40820,8 +40867,8 @@
       <c r="H81" s="1">
         <v>0.0</v>
       </c>
-      <c r="I81" s="102" t="s">
-        <v>197</v>
+      <c r="I81" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J81" s="67"/>
       <c r="K81" s="2">
@@ -40839,11 +40886,11 @@
       <c r="O81" s="2">
         <v>0.0</v>
       </c>
-      <c r="P81" s="100"/>
+      <c r="P81" s="102"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="97"/>
-      <c r="B82" s="97"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="99"/>
       <c r="C82" s="1">
         <v>14.0</v>
       </c>
@@ -40862,8 +40909,8 @@
       <c r="H82" s="1">
         <v>0.0</v>
       </c>
-      <c r="I82" s="102" t="s">
-        <v>197</v>
+      <c r="I82" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J82" s="67"/>
       <c r="K82" s="2">
@@ -40881,11 +40928,11 @@
       <c r="O82" s="2">
         <v>0.0</v>
       </c>
-      <c r="P82" s="100"/>
+      <c r="P82" s="102"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="97"/>
-      <c r="B83" s="97"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="1">
         <v>15.0</v>
       </c>
@@ -40904,8 +40951,8 @@
       <c r="H83" s="1">
         <v>0.0</v>
       </c>
-      <c r="I83" s="102" t="s">
-        <v>197</v>
+      <c r="I83" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J83" s="67"/>
       <c r="K83" s="2">
@@ -40923,11 +40970,11 @@
       <c r="O83" s="2">
         <v>0.0</v>
       </c>
-      <c r="P83" s="100"/>
+      <c r="P83" s="102"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="97"/>
-      <c r="B84" s="97"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="99"/>
       <c r="C84" s="1">
         <v>16.0</v>
       </c>
@@ -40946,8 +40993,8 @@
       <c r="H84" s="1">
         <v>0.0</v>
       </c>
-      <c r="I84" s="102" t="s">
-        <v>197</v>
+      <c r="I84" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J84" s="67"/>
       <c r="K84" s="2">
@@ -40965,11 +41012,11 @@
       <c r="O84" s="2">
         <v>0.0</v>
       </c>
-      <c r="P84" s="100"/>
+      <c r="P84" s="102"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="97"/>
-      <c r="B85" s="97"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="1">
         <v>17.0</v>
       </c>
@@ -40988,8 +41035,8 @@
       <c r="H85" s="1">
         <v>0.0</v>
       </c>
-      <c r="I85" s="102" t="s">
-        <v>197</v>
+      <c r="I85" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J85" s="67"/>
       <c r="K85" s="2">
@@ -41007,11 +41054,11 @@
       <c r="O85" s="2">
         <v>0.0</v>
       </c>
-      <c r="P85" s="100"/>
+      <c r="P85" s="102"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="97"/>
-      <c r="B86" s="97"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="99"/>
       <c r="C86" s="1">
         <v>18.0</v>
       </c>
@@ -41030,8 +41077,8 @@
       <c r="H86" s="1">
         <v>0.0</v>
       </c>
-      <c r="I86" s="102" t="s">
-        <v>197</v>
+      <c r="I86" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J86" s="67"/>
       <c r="K86" s="2">
@@ -41049,14 +41096,14 @@
       <c r="O86" s="2">
         <v>0.0</v>
       </c>
-      <c r="P86" s="100"/>
+      <c r="P86" s="102"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="41">
         <v>8.0</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C87" s="1">
         <v>1.0</v>
@@ -41077,7 +41124,7 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J87" s="67"/>
       <c r="K87" s="2">
@@ -41095,7 +41142,7 @@
       <c r="O87" s="2">
         <v>0.0</v>
       </c>
-      <c r="P87" s="100"/>
+      <c r="P87" s="102"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="42"/>
@@ -41118,8 +41165,8 @@
       <c r="H88" s="1">
         <v>0.0</v>
       </c>
-      <c r="I88" s="99" t="s">
-        <v>194</v>
+      <c r="I88" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J88" s="67"/>
       <c r="K88" s="2">
@@ -41137,7 +41184,7 @@
       <c r="O88" s="2">
         <v>0.0</v>
       </c>
-      <c r="P88" s="100"/>
+      <c r="P88" s="102"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="42"/>
@@ -41161,7 +41208,7 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J89" s="67"/>
       <c r="K89" s="2">
@@ -41179,7 +41226,7 @@
       <c r="O89" s="2">
         <v>0.0</v>
       </c>
-      <c r="P89" s="100"/>
+      <c r="P89" s="102"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="42"/>
@@ -41202,8 +41249,8 @@
       <c r="H90" s="1">
         <v>0.0</v>
       </c>
-      <c r="I90" s="99" t="s">
-        <v>194</v>
+      <c r="I90" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J90" s="67"/>
       <c r="K90" s="2">
@@ -41221,7 +41268,7 @@
       <c r="O90" s="2">
         <v>0.0</v>
       </c>
-      <c r="P90" s="100"/>
+      <c r="P90" s="102"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="42"/>
@@ -41245,7 +41292,7 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J91" s="67"/>
       <c r="K91" s="2">
@@ -41263,7 +41310,7 @@
       <c r="O91" s="2">
         <v>0.0</v>
       </c>
-      <c r="P91" s="100"/>
+      <c r="P91" s="102"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="42"/>
@@ -41286,8 +41333,8 @@
       <c r="H92" s="1">
         <v>0.0</v>
       </c>
-      <c r="I92" s="99" t="s">
-        <v>194</v>
+      <c r="I92" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J92" s="67"/>
       <c r="K92" s="2">
@@ -41305,7 +41352,7 @@
       <c r="O92" s="2">
         <v>0.0</v>
       </c>
-      <c r="P92" s="100"/>
+      <c r="P92" s="102"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="42"/>
@@ -41329,7 +41376,7 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J93" s="67"/>
       <c r="K93" s="2">
@@ -41347,7 +41394,7 @@
       <c r="O93" s="2">
         <v>0.0</v>
       </c>
-      <c r="P93" s="100"/>
+      <c r="P93" s="102"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="42"/>
@@ -41370,8 +41417,8 @@
       <c r="H94" s="1">
         <v>0.0</v>
       </c>
-      <c r="I94" s="101" t="s">
-        <v>214</v>
+      <c r="I94" s="103" t="s">
+        <v>217</v>
       </c>
       <c r="J94" s="67"/>
       <c r="K94" s="2">
@@ -41389,7 +41436,7 @@
       <c r="O94" s="2">
         <v>0.0</v>
       </c>
-      <c r="P94" s="100"/>
+      <c r="P94" s="102"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="42"/>
@@ -41412,8 +41459,8 @@
       <c r="H95" s="1">
         <v>0.0</v>
       </c>
-      <c r="I95" s="103" t="s">
-        <v>200</v>
+      <c r="I95" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J95" s="67"/>
       <c r="K95" s="2">
@@ -41431,7 +41478,7 @@
       <c r="O95" s="2">
         <v>0.0</v>
       </c>
-      <c r="P95" s="100"/>
+      <c r="P95" s="102"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="42"/>
@@ -41454,8 +41501,8 @@
       <c r="H96" s="1">
         <v>0.0</v>
       </c>
-      <c r="I96" s="103" t="s">
-        <v>200</v>
+      <c r="I96" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J96" s="67"/>
       <c r="K96" s="2">
@@ -41473,7 +41520,7 @@
       <c r="O96" s="2">
         <v>0.0</v>
       </c>
-      <c r="P96" s="100"/>
+      <c r="P96" s="102"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="42"/>
@@ -41496,8 +41543,8 @@
       <c r="H97" s="1">
         <v>0.0</v>
       </c>
-      <c r="I97" s="103" t="s">
-        <v>200</v>
+      <c r="I97" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J97" s="67"/>
       <c r="K97" s="2">
@@ -41515,7 +41562,7 @@
       <c r="O97" s="2">
         <v>0.0</v>
       </c>
-      <c r="P97" s="100"/>
+      <c r="P97" s="102"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="42"/>
@@ -41538,8 +41585,8 @@
       <c r="H98" s="1">
         <v>0.0</v>
       </c>
-      <c r="I98" s="102" t="s">
-        <v>197</v>
+      <c r="I98" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J98" s="67"/>
       <c r="K98" s="2">
@@ -41557,7 +41604,7 @@
       <c r="O98" s="2">
         <v>0.0</v>
       </c>
-      <c r="P98" s="100"/>
+      <c r="P98" s="102"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="42"/>
@@ -41580,8 +41627,8 @@
       <c r="H99" s="1">
         <v>0.0</v>
       </c>
-      <c r="I99" s="102" t="s">
-        <v>197</v>
+      <c r="I99" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J99" s="67"/>
       <c r="K99" s="2">
@@ -41599,7 +41646,7 @@
       <c r="O99" s="2">
         <v>0.0</v>
       </c>
-      <c r="P99" s="100"/>
+      <c r="P99" s="102"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="42"/>
@@ -41622,8 +41669,8 @@
       <c r="H100" s="1">
         <v>0.0</v>
       </c>
-      <c r="I100" s="102" t="s">
-        <v>197</v>
+      <c r="I100" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J100" s="67"/>
       <c r="K100" s="2">
@@ -41641,14 +41688,14 @@
       <c r="O100" s="2">
         <v>0.0</v>
       </c>
-      <c r="P100" s="100"/>
+      <c r="P100" s="102"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="104">
+      <c r="A101" s="106">
         <v>9.0</v>
       </c>
-      <c r="B101" s="104" t="s">
-        <v>215</v>
+      <c r="B101" s="106" t="s">
+        <v>218</v>
       </c>
       <c r="C101" s="1">
         <v>1.0</v>
@@ -41668,10 +41715,10 @@
       <c r="H101" s="1">
         <v>0.0</v>
       </c>
-      <c r="I101" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="J101" s="106"/>
+      <c r="I101" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J101" s="108"/>
       <c r="K101" s="2">
         <v>0.0</v>
       </c>
@@ -41687,11 +41734,11 @@
       <c r="O101" s="2">
         <v>0.0</v>
       </c>
-      <c r="P101" s="100"/>
+      <c r="P101" s="102"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="107"/>
-      <c r="B102" s="107"/>
+      <c r="A102" s="109"/>
+      <c r="B102" s="109"/>
       <c r="C102" s="1">
         <v>2.0</v>
       </c>
@@ -41711,7 +41758,7 @@
         <v>0.0</v>
       </c>
       <c r="I102" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J102" s="67"/>
       <c r="K102" s="2">
@@ -41729,11 +41776,11 @@
       <c r="O102" s="2">
         <v>0.0</v>
       </c>
-      <c r="P102" s="100"/>
+      <c r="P102" s="102"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="107"/>
-      <c r="B103" s="107"/>
+      <c r="A103" s="109"/>
+      <c r="B103" s="109"/>
       <c r="C103" s="1">
         <v>3.0</v>
       </c>
@@ -41752,8 +41799,8 @@
       <c r="H103" s="1">
         <v>0.0</v>
       </c>
-      <c r="I103" s="99" t="s">
-        <v>194</v>
+      <c r="I103" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J103" s="67"/>
       <c r="K103" s="2">
@@ -41771,11 +41818,11 @@
       <c r="O103" s="2">
         <v>0.0</v>
       </c>
-      <c r="P103" s="100"/>
+      <c r="P103" s="102"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="107"/>
-      <c r="B104" s="107"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="109"/>
       <c r="C104" s="1">
         <v>4.0</v>
       </c>
@@ -41795,7 +41842,7 @@
         <v>0.0</v>
       </c>
       <c r="I104" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J104" s="67"/>
       <c r="K104" s="2">
@@ -41813,11 +41860,11 @@
       <c r="O104" s="2">
         <v>0.0</v>
       </c>
-      <c r="P104" s="100"/>
+      <c r="P104" s="102"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="107"/>
-      <c r="B105" s="107"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="109"/>
       <c r="C105" s="1">
         <v>5.0</v>
       </c>
@@ -41836,8 +41883,8 @@
       <c r="H105" s="1">
         <v>0.0</v>
       </c>
-      <c r="I105" s="99" t="s">
-        <v>194</v>
+      <c r="I105" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J105" s="67"/>
       <c r="K105" s="2">
@@ -41855,11 +41902,11 @@
       <c r="O105" s="2">
         <v>0.0</v>
       </c>
-      <c r="P105" s="100"/>
+      <c r="P105" s="102"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="107"/>
-      <c r="B106" s="107"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="109"/>
       <c r="C106" s="1">
         <v>6.0</v>
       </c>
@@ -41879,7 +41926,7 @@
         <v>0.0</v>
       </c>
       <c r="I106" s="67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J106" s="67"/>
       <c r="K106" s="2">
@@ -41897,11 +41944,11 @@
       <c r="O106" s="2">
         <v>0.0</v>
       </c>
-      <c r="P106" s="100"/>
+      <c r="P106" s="102"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="107"/>
-      <c r="B107" s="107"/>
+      <c r="A107" s="109"/>
+      <c r="B107" s="109"/>
       <c r="C107" s="1">
         <v>7.0</v>
       </c>
@@ -41920,8 +41967,8 @@
       <c r="H107" s="1">
         <v>0.0</v>
       </c>
-      <c r="I107" s="101" t="s">
-        <v>205</v>
+      <c r="I107" s="103" t="s">
+        <v>209</v>
       </c>
       <c r="J107" s="67"/>
       <c r="K107" s="2">
@@ -41939,11 +41986,11 @@
       <c r="O107" s="2">
         <v>0.0</v>
       </c>
-      <c r="P107" s="100"/>
+      <c r="P107" s="102"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="107"/>
-      <c r="B108" s="107"/>
+      <c r="A108" s="109"/>
+      <c r="B108" s="109"/>
       <c r="C108" s="1">
         <v>8.0</v>
       </c>
@@ -41962,8 +42009,8 @@
       <c r="H108" s="1">
         <v>0.0</v>
       </c>
-      <c r="I108" s="108" t="s">
-        <v>209</v>
+      <c r="I108" s="110" t="s">
+        <v>212</v>
       </c>
       <c r="J108" s="67"/>
       <c r="K108" s="2">
@@ -41981,11 +42028,11 @@
       <c r="O108" s="2">
         <v>0.0</v>
       </c>
-      <c r="P108" s="100"/>
+      <c r="P108" s="102"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="107"/>
-      <c r="B109" s="107"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="109"/>
       <c r="C109" s="1">
         <v>9.0</v>
       </c>
@@ -42004,8 +42051,8 @@
       <c r="H109" s="1">
         <v>0.0</v>
       </c>
-      <c r="I109" s="108" t="s">
-        <v>209</v>
+      <c r="I109" s="110" t="s">
+        <v>212</v>
       </c>
       <c r="J109" s="67"/>
       <c r="K109" s="2">
@@ -42023,11 +42070,11 @@
       <c r="O109" s="2">
         <v>0.0</v>
       </c>
-      <c r="P109" s="100"/>
+      <c r="P109" s="102"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="107"/>
-      <c r="B110" s="107"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="109"/>
       <c r="C110" s="1">
         <v>10.0</v>
       </c>
@@ -42046,8 +42093,8 @@
       <c r="H110" s="1">
         <v>0.0</v>
       </c>
-      <c r="I110" s="103" t="s">
-        <v>200</v>
+      <c r="I110" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J110" s="67"/>
       <c r="K110" s="2">
@@ -42065,14 +42112,14 @@
       <c r="O110" s="2">
         <v>0.0</v>
       </c>
-      <c r="P110" s="100"/>
+      <c r="P110" s="102"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="98">
+      <c r="A111" s="100">
         <v>10.0</v>
       </c>
-      <c r="B111" s="98" t="s">
-        <v>216</v>
+      <c r="B111" s="100" t="s">
+        <v>219</v>
       </c>
       <c r="C111" s="1">
         <v>1.0</v>
@@ -42092,8 +42139,8 @@
       <c r="H111" s="1">
         <v>0.0</v>
       </c>
-      <c r="I111" s="99" t="s">
-        <v>194</v>
+      <c r="I111" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J111" s="67"/>
       <c r="K111" s="2">
@@ -42111,11 +42158,11 @@
       <c r="O111" s="2">
         <v>0.0</v>
       </c>
-      <c r="P111" s="100"/>
+      <c r="P111" s="102"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="97"/>
-      <c r="B112" s="97"/>
+      <c r="A112" s="99"/>
+      <c r="B112" s="99"/>
       <c r="C112" s="1">
         <v>2.0</v>
       </c>
@@ -42135,7 +42182,7 @@
         <v>0.0</v>
       </c>
       <c r="I112" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J112" s="67"/>
       <c r="K112" s="2">
@@ -42153,11 +42200,11 @@
       <c r="O112" s="2">
         <v>0.0</v>
       </c>
-      <c r="P112" s="100"/>
+      <c r="P112" s="102"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="97"/>
-      <c r="B113" s="97"/>
+      <c r="A113" s="99"/>
+      <c r="B113" s="99"/>
       <c r="C113" s="1">
         <v>3.0</v>
       </c>
@@ -42176,8 +42223,8 @@
       <c r="H113" s="1">
         <v>0.0</v>
       </c>
-      <c r="I113" s="99" t="s">
-        <v>194</v>
+      <c r="I113" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J113" s="67"/>
       <c r="K113" s="2">
@@ -42195,11 +42242,11 @@
       <c r="O113" s="2">
         <v>0.0</v>
       </c>
-      <c r="P113" s="100"/>
+      <c r="P113" s="102"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="97"/>
-      <c r="B114" s="97"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="99"/>
       <c r="C114" s="1">
         <v>4.0</v>
       </c>
@@ -42219,7 +42266,7 @@
         <v>0.0</v>
       </c>
       <c r="I114" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J114" s="67"/>
       <c r="K114" s="2">
@@ -42237,11 +42284,11 @@
       <c r="O114" s="2">
         <v>0.0</v>
       </c>
-      <c r="P114" s="100"/>
+      <c r="P114" s="102"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="97"/>
-      <c r="B115" s="97"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="99"/>
       <c r="C115" s="1">
         <v>5.0</v>
       </c>
@@ -42260,8 +42307,8 @@
       <c r="H115" s="1">
         <v>0.0</v>
       </c>
-      <c r="I115" s="99" t="s">
-        <v>194</v>
+      <c r="I115" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J115" s="67"/>
       <c r="K115" s="2">
@@ -42279,11 +42326,11 @@
       <c r="O115" s="2">
         <v>0.0</v>
       </c>
-      <c r="P115" s="100"/>
+      <c r="P115" s="102"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="97"/>
-      <c r="B116" s="97"/>
+      <c r="A116" s="99"/>
+      <c r="B116" s="99"/>
       <c r="C116" s="1">
         <v>6.0</v>
       </c>
@@ -42303,7 +42350,7 @@
         <v>0.0</v>
       </c>
       <c r="I116" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J116" s="67"/>
       <c r="K116" s="2">
@@ -42321,11 +42368,11 @@
       <c r="O116" s="2">
         <v>0.0</v>
       </c>
-      <c r="P116" s="100"/>
+      <c r="P116" s="102"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="97"/>
-      <c r="B117" s="97"/>
+      <c r="A117" s="99"/>
+      <c r="B117" s="99"/>
       <c r="C117" s="1">
         <v>7.0</v>
       </c>
@@ -42344,8 +42391,8 @@
       <c r="H117" s="1">
         <v>0.0</v>
       </c>
-      <c r="I117" s="99" t="s">
-        <v>194</v>
+      <c r="I117" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J117" s="67"/>
       <c r="K117" s="2">
@@ -42363,11 +42410,11 @@
       <c r="O117" s="2">
         <v>0.0</v>
       </c>
-      <c r="P117" s="100"/>
+      <c r="P117" s="102"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="97"/>
-      <c r="B118" s="97"/>
+      <c r="A118" s="99"/>
+      <c r="B118" s="99"/>
       <c r="C118" s="1">
         <v>8.0</v>
       </c>
@@ -42387,7 +42434,7 @@
         <v>0.0</v>
       </c>
       <c r="I118" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J118" s="67"/>
       <c r="K118" s="2">
@@ -42405,11 +42452,11 @@
       <c r="O118" s="2">
         <v>0.0</v>
       </c>
-      <c r="P118" s="100"/>
+      <c r="P118" s="102"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="97"/>
-      <c r="B119" s="97"/>
+      <c r="A119" s="99"/>
+      <c r="B119" s="99"/>
       <c r="C119" s="1">
         <v>9.0</v>
       </c>
@@ -42428,8 +42475,8 @@
       <c r="H119" s="1">
         <v>0.0</v>
       </c>
-      <c r="I119" s="99" t="s">
-        <v>194</v>
+      <c r="I119" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J119" s="67"/>
       <c r="K119" s="2">
@@ -42447,11 +42494,11 @@
       <c r="O119" s="2">
         <v>0.0</v>
       </c>
-      <c r="P119" s="100"/>
+      <c r="P119" s="102"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="97"/>
-      <c r="B120" s="97"/>
+      <c r="A120" s="99"/>
+      <c r="B120" s="99"/>
       <c r="C120" s="1">
         <v>10.0</v>
       </c>
@@ -42471,7 +42518,7 @@
         <v>0.0</v>
       </c>
       <c r="I120" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J120" s="67"/>
       <c r="K120" s="2">
@@ -42489,11 +42536,11 @@
       <c r="O120" s="2">
         <v>0.0</v>
       </c>
-      <c r="P120" s="100"/>
+      <c r="P120" s="102"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="97"/>
-      <c r="B121" s="97"/>
+      <c r="A121" s="99"/>
+      <c r="B121" s="99"/>
       <c r="C121" s="1">
         <v>11.0</v>
       </c>
@@ -42512,8 +42559,8 @@
       <c r="H121" s="1">
         <v>0.0</v>
       </c>
-      <c r="I121" s="99" t="s">
-        <v>194</v>
+      <c r="I121" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J121" s="67"/>
       <c r="K121" s="2">
@@ -42531,11 +42578,11 @@
       <c r="O121" s="2">
         <v>0.0</v>
       </c>
-      <c r="P121" s="100"/>
+      <c r="P121" s="102"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="97"/>
-      <c r="B122" s="97"/>
+      <c r="A122" s="99"/>
+      <c r="B122" s="99"/>
       <c r="C122" s="1">
         <v>12.0</v>
       </c>
@@ -42554,8 +42601,8 @@
       <c r="H122" s="1">
         <v>0.0</v>
       </c>
-      <c r="I122" s="101" t="s">
-        <v>172</v>
+      <c r="I122" s="103" t="s">
+        <v>182</v>
       </c>
       <c r="J122" s="67"/>
       <c r="K122" s="2">
@@ -42573,11 +42620,11 @@
       <c r="O122" s="2">
         <v>0.0</v>
       </c>
-      <c r="P122" s="100"/>
+      <c r="P122" s="102"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="97"/>
-      <c r="B123" s="97"/>
+      <c r="A123" s="99"/>
+      <c r="B123" s="99"/>
       <c r="C123" s="1">
         <v>13.0</v>
       </c>
@@ -42596,8 +42643,8 @@
       <c r="H123" s="1">
         <v>0.0</v>
       </c>
-      <c r="I123" s="102" t="s">
-        <v>197</v>
+      <c r="I123" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J123" s="67"/>
       <c r="K123" s="2">
@@ -42615,11 +42662,11 @@
       <c r="O123" s="2">
         <v>0.0</v>
       </c>
-      <c r="P123" s="100"/>
+      <c r="P123" s="102"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="97"/>
-      <c r="B124" s="97"/>
+      <c r="A124" s="99"/>
+      <c r="B124" s="99"/>
       <c r="C124" s="1">
         <v>14.0</v>
       </c>
@@ -42638,8 +42685,8 @@
       <c r="H124" s="1">
         <v>0.0</v>
       </c>
-      <c r="I124" s="102" t="s">
-        <v>197</v>
+      <c r="I124" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J124" s="67"/>
       <c r="K124" s="2">
@@ -42657,11 +42704,11 @@
       <c r="O124" s="2">
         <v>0.0</v>
       </c>
-      <c r="P124" s="100"/>
+      <c r="P124" s="102"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="97"/>
-      <c r="B125" s="97"/>
+      <c r="A125" s="99"/>
+      <c r="B125" s="99"/>
       <c r="C125" s="1">
         <v>15.0</v>
       </c>
@@ -42680,8 +42727,8 @@
       <c r="H125" s="1">
         <v>0.0</v>
       </c>
-      <c r="I125" s="102" t="s">
-        <v>197</v>
+      <c r="I125" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J125" s="67"/>
       <c r="K125" s="2">
@@ -42699,11 +42746,11 @@
       <c r="O125" s="2">
         <v>0.0</v>
       </c>
-      <c r="P125" s="100"/>
+      <c r="P125" s="102"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="97"/>
-      <c r="B126" s="97"/>
+      <c r="A126" s="99"/>
+      <c r="B126" s="99"/>
       <c r="C126" s="1">
         <v>16.0</v>
       </c>
@@ -42722,8 +42769,8 @@
       <c r="H126" s="1">
         <v>0.0</v>
       </c>
-      <c r="I126" s="102" t="s">
-        <v>197</v>
+      <c r="I126" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J126" s="67"/>
       <c r="K126" s="2">
@@ -42741,11 +42788,11 @@
       <c r="O126" s="2">
         <v>0.0</v>
       </c>
-      <c r="P126" s="100"/>
+      <c r="P126" s="102"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="97"/>
-      <c r="B127" s="97"/>
+      <c r="A127" s="99"/>
+      <c r="B127" s="99"/>
       <c r="C127" s="1">
         <v>17.0</v>
       </c>
@@ -42764,8 +42811,8 @@
       <c r="H127" s="1">
         <v>0.0</v>
       </c>
-      <c r="I127" s="102" t="s">
-        <v>197</v>
+      <c r="I127" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J127" s="67"/>
       <c r="K127" s="2">
@@ -42783,11 +42830,11 @@
       <c r="O127" s="2">
         <v>0.0</v>
       </c>
-      <c r="P127" s="100"/>
+      <c r="P127" s="102"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="97"/>
-      <c r="B128" s="97"/>
+      <c r="A128" s="99"/>
+      <c r="B128" s="99"/>
       <c r="C128" s="1">
         <v>18.0</v>
       </c>
@@ -42806,8 +42853,8 @@
       <c r="H128" s="1">
         <v>0.0</v>
       </c>
-      <c r="I128" s="102" t="s">
-        <v>197</v>
+      <c r="I128" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J128" s="67"/>
       <c r="K128" s="2">
@@ -42825,11 +42872,11 @@
       <c r="O128" s="2">
         <v>0.0</v>
       </c>
-      <c r="P128" s="100"/>
+      <c r="P128" s="102"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="97"/>
-      <c r="B129" s="97"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="99"/>
       <c r="C129" s="1">
         <v>19.0</v>
       </c>
@@ -42848,8 +42895,8 @@
       <c r="H129" s="1">
         <v>0.0</v>
       </c>
-      <c r="I129" s="102" t="s">
-        <v>197</v>
+      <c r="I129" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J129" s="67"/>
       <c r="K129" s="2">
@@ -42867,11 +42914,11 @@
       <c r="O129" s="2">
         <v>0.0</v>
       </c>
-      <c r="P129" s="100"/>
+      <c r="P129" s="102"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="97"/>
-      <c r="B130" s="97"/>
+      <c r="A130" s="99"/>
+      <c r="B130" s="99"/>
       <c r="C130" s="1">
         <v>20.0</v>
       </c>
@@ -42890,8 +42937,8 @@
       <c r="H130" s="1">
         <v>0.0</v>
       </c>
-      <c r="I130" s="102" t="s">
-        <v>197</v>
+      <c r="I130" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J130" s="67"/>
       <c r="K130" s="2">
@@ -42909,14 +42956,14 @@
       <c r="O130" s="2">
         <v>0.0</v>
       </c>
-      <c r="P130" s="100"/>
+      <c r="P130" s="102"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="41">
         <v>11.0</v>
       </c>
       <c r="B131" s="41" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C131" s="1">
         <v>1.0</v>
@@ -42936,8 +42983,8 @@
       <c r="H131" s="1">
         <v>0.0</v>
       </c>
-      <c r="I131" s="99" t="s">
-        <v>194</v>
+      <c r="I131" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J131" s="67"/>
       <c r="K131" s="2">
@@ -42955,7 +43002,7 @@
       <c r="O131" s="2">
         <v>0.0</v>
       </c>
-      <c r="P131" s="100"/>
+      <c r="P131" s="102"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="42"/>
@@ -42979,7 +43026,7 @@
         <v>0.0</v>
       </c>
       <c r="I132" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J132" s="67"/>
       <c r="K132" s="2">
@@ -42997,7 +43044,7 @@
       <c r="O132" s="2">
         <v>0.0</v>
       </c>
-      <c r="P132" s="100"/>
+      <c r="P132" s="102"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="42"/>
@@ -43020,8 +43067,8 @@
       <c r="H133" s="1">
         <v>0.0</v>
       </c>
-      <c r="I133" s="99" t="s">
-        <v>194</v>
+      <c r="I133" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J133" s="67"/>
       <c r="K133" s="2">
@@ -43039,7 +43086,7 @@
       <c r="O133" s="2">
         <v>0.0</v>
       </c>
-      <c r="P133" s="100"/>
+      <c r="P133" s="102"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="42"/>
@@ -43063,7 +43110,7 @@
         <v>0.0</v>
       </c>
       <c r="I134" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J134" s="67"/>
       <c r="K134" s="2">
@@ -43081,7 +43128,7 @@
       <c r="O134" s="2">
         <v>0.0</v>
       </c>
-      <c r="P134" s="100"/>
+      <c r="P134" s="102"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="42"/>
@@ -43104,8 +43151,8 @@
       <c r="H135" s="1">
         <v>0.0</v>
       </c>
-      <c r="I135" s="99" t="s">
-        <v>194</v>
+      <c r="I135" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J135" s="67"/>
       <c r="K135" s="2">
@@ -43123,7 +43170,7 @@
       <c r="O135" s="2">
         <v>0.0</v>
       </c>
-      <c r="P135" s="100"/>
+      <c r="P135" s="102"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="42"/>
@@ -43147,7 +43194,7 @@
         <v>0.0</v>
       </c>
       <c r="I136" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J136" s="67"/>
       <c r="K136" s="2">
@@ -43165,7 +43212,7 @@
       <c r="O136" s="2">
         <v>0.0</v>
       </c>
-      <c r="P136" s="100"/>
+      <c r="P136" s="102"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="42"/>
@@ -43188,8 +43235,8 @@
       <c r="H137" s="1">
         <v>0.0</v>
       </c>
-      <c r="I137" s="99" t="s">
-        <v>194</v>
+      <c r="I137" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J137" s="67"/>
       <c r="K137" s="2">
@@ -43207,7 +43254,7 @@
       <c r="O137" s="2">
         <v>0.0</v>
       </c>
-      <c r="P137" s="100"/>
+      <c r="P137" s="102"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="42"/>
@@ -43231,7 +43278,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J138" s="67"/>
       <c r="K138" s="2">
@@ -43249,7 +43296,7 @@
       <c r="O138" s="2">
         <v>0.0</v>
       </c>
-      <c r="P138" s="100"/>
+      <c r="P138" s="102"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="42"/>
@@ -43272,8 +43319,8 @@
       <c r="H139" s="1">
         <v>0.0</v>
       </c>
-      <c r="I139" s="99" t="s">
-        <v>194</v>
+      <c r="I139" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J139" s="67"/>
       <c r="K139" s="2">
@@ -43291,7 +43338,7 @@
       <c r="O139" s="2">
         <v>0.0</v>
       </c>
-      <c r="P139" s="100"/>
+      <c r="P139" s="102"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="42"/>
@@ -43314,8 +43361,8 @@
       <c r="H140" s="1">
         <v>0.0</v>
       </c>
-      <c r="I140" s="101" t="s">
-        <v>219</v>
+      <c r="I140" s="103" t="s">
+        <v>179</v>
       </c>
       <c r="J140" s="67"/>
       <c r="K140" s="2">
@@ -43333,7 +43380,7 @@
       <c r="O140" s="2">
         <v>0.0</v>
       </c>
-      <c r="P140" s="100"/>
+      <c r="P140" s="102"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="42"/>
@@ -43356,8 +43403,8 @@
       <c r="H141" s="1">
         <v>0.0</v>
       </c>
-      <c r="I141" s="103" t="s">
-        <v>200</v>
+      <c r="I141" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J141" s="67"/>
       <c r="K141" s="2">
@@ -43375,7 +43422,7 @@
       <c r="O141" s="2">
         <v>0.0</v>
       </c>
-      <c r="P141" s="100"/>
+      <c r="P141" s="102"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="42"/>
@@ -43398,8 +43445,8 @@
       <c r="H142" s="1">
         <v>0.0</v>
       </c>
-      <c r="I142" s="103" t="s">
-        <v>200</v>
+      <c r="I142" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J142" s="67"/>
       <c r="K142" s="2">
@@ -43417,7 +43464,7 @@
       <c r="O142" s="2">
         <v>0.0</v>
       </c>
-      <c r="P142" s="100"/>
+      <c r="P142" s="102"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="42"/>
@@ -43440,8 +43487,8 @@
       <c r="H143" s="1">
         <v>0.0</v>
       </c>
-      <c r="I143" s="103" t="s">
-        <v>200</v>
+      <c r="I143" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J143" s="67"/>
       <c r="K143" s="2">
@@ -43459,7 +43506,7 @@
       <c r="O143" s="2">
         <v>0.0</v>
       </c>
-      <c r="P143" s="100"/>
+      <c r="P143" s="102"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="42"/>
@@ -43482,8 +43529,8 @@
       <c r="H144" s="1">
         <v>0.0</v>
       </c>
-      <c r="I144" s="102" t="s">
-        <v>197</v>
+      <c r="I144" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J144" s="67"/>
       <c r="K144" s="2">
@@ -43501,7 +43548,7 @@
       <c r="O144" s="2">
         <v>0.0</v>
       </c>
-      <c r="P144" s="100"/>
+      <c r="P144" s="102"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="42"/>
@@ -43524,8 +43571,8 @@
       <c r="H145" s="1">
         <v>0.0</v>
       </c>
-      <c r="I145" s="102" t="s">
-        <v>197</v>
+      <c r="I145" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J145" s="67"/>
       <c r="K145" s="2">
@@ -43543,7 +43590,7 @@
       <c r="O145" s="2">
         <v>0.0</v>
       </c>
-      <c r="P145" s="100"/>
+      <c r="P145" s="102"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="42"/>
@@ -43566,8 +43613,8 @@
       <c r="H146" s="1">
         <v>0.0</v>
       </c>
-      <c r="I146" s="102" t="s">
-        <v>197</v>
+      <c r="I146" s="104" t="s">
+        <v>201</v>
       </c>
       <c r="J146" s="67"/>
       <c r="K146" s="2">
@@ -43585,14 +43632,14 @@
       <c r="O146" s="2">
         <v>0.0</v>
       </c>
-      <c r="P146" s="100"/>
+      <c r="P146" s="102"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="104">
+      <c r="A147" s="106">
         <v>12.0</v>
       </c>
-      <c r="B147" s="104" t="s">
-        <v>220</v>
+      <c r="B147" s="106" t="s">
+        <v>222</v>
       </c>
       <c r="C147" s="1">
         <v>1.0</v>
@@ -43612,10 +43659,10 @@
       <c r="H147" s="1">
         <v>0.0</v>
       </c>
-      <c r="I147" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="J147" s="106"/>
+      <c r="I147" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J147" s="108"/>
       <c r="K147" s="2">
         <v>0.0</v>
       </c>
@@ -43631,11 +43678,11 @@
       <c r="O147" s="2">
         <v>0.0</v>
       </c>
-      <c r="P147" s="100"/>
+      <c r="P147" s="102"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="107"/>
-      <c r="B148" s="107"/>
+      <c r="A148" s="109"/>
+      <c r="B148" s="109"/>
       <c r="C148" s="1">
         <v>2.0</v>
       </c>
@@ -43655,7 +43702,7 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J148" s="67"/>
       <c r="K148" s="2">
@@ -43673,11 +43720,11 @@
       <c r="O148" s="2">
         <v>0.0</v>
       </c>
-      <c r="P148" s="100"/>
+      <c r="P148" s="102"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="107"/>
-      <c r="B149" s="107"/>
+      <c r="A149" s="109"/>
+      <c r="B149" s="109"/>
       <c r="C149" s="1">
         <v>3.0</v>
       </c>
@@ -43696,8 +43743,8 @@
       <c r="H149" s="1">
         <v>0.0</v>
       </c>
-      <c r="I149" s="99" t="s">
-        <v>194</v>
+      <c r="I149" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J149" s="67"/>
       <c r="K149" s="2">
@@ -43715,11 +43762,11 @@
       <c r="O149" s="2">
         <v>0.0</v>
       </c>
-      <c r="P149" s="100"/>
+      <c r="P149" s="102"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="107"/>
-      <c r="B150" s="107"/>
+      <c r="A150" s="109"/>
+      <c r="B150" s="109"/>
       <c r="C150" s="1">
         <v>4.0</v>
       </c>
@@ -43739,7 +43786,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J150" s="67"/>
       <c r="K150" s="2">
@@ -43757,11 +43804,11 @@
       <c r="O150" s="2">
         <v>0.0</v>
       </c>
-      <c r="P150" s="100"/>
+      <c r="P150" s="102"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="107"/>
-      <c r="B151" s="107"/>
+      <c r="A151" s="109"/>
+      <c r="B151" s="109"/>
       <c r="C151" s="1">
         <v>5.0</v>
       </c>
@@ -43780,8 +43827,8 @@
       <c r="H151" s="1">
         <v>0.0</v>
       </c>
-      <c r="I151" s="99" t="s">
-        <v>194</v>
+      <c r="I151" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J151" s="67"/>
       <c r="K151" s="2">
@@ -43799,11 +43846,11 @@
       <c r="O151" s="2">
         <v>0.0</v>
       </c>
-      <c r="P151" s="100"/>
+      <c r="P151" s="102"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="107"/>
-      <c r="B152" s="107"/>
+      <c r="A152" s="109"/>
+      <c r="B152" s="109"/>
       <c r="C152" s="1">
         <v>6.0</v>
       </c>
@@ -43823,7 +43870,7 @@
         <v>0.0</v>
       </c>
       <c r="I152" s="67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J152" s="67"/>
       <c r="K152" s="2">
@@ -43841,11 +43888,11 @@
       <c r="O152" s="2">
         <v>0.0</v>
       </c>
-      <c r="P152" s="100"/>
+      <c r="P152" s="102"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="107"/>
-      <c r="B153" s="107"/>
+      <c r="A153" s="109"/>
+      <c r="B153" s="109"/>
       <c r="C153" s="1">
         <v>7.0</v>
       </c>
@@ -43864,8 +43911,8 @@
       <c r="H153" s="1">
         <v>0.0</v>
       </c>
-      <c r="I153" s="99" t="s">
-        <v>194</v>
+      <c r="I153" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="J153" s="67"/>
       <c r="K153" s="2">
@@ -43883,11 +43930,11 @@
       <c r="O153" s="2">
         <v>0.0</v>
       </c>
-      <c r="P153" s="100"/>
+      <c r="P153" s="102"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="107"/>
-      <c r="B154" s="107"/>
+      <c r="A154" s="109"/>
+      <c r="B154" s="109"/>
       <c r="C154" s="1">
         <v>8.0</v>
       </c>
@@ -43906,8 +43953,8 @@
       <c r="H154" s="1">
         <v>0.0</v>
       </c>
-      <c r="I154" s="101" t="s">
-        <v>169</v>
+      <c r="I154" s="103" t="s">
+        <v>175</v>
       </c>
       <c r="J154" s="67"/>
       <c r="K154" s="2">
@@ -43925,11 +43972,11 @@
       <c r="O154" s="2">
         <v>0.0</v>
       </c>
-      <c r="P154" s="100"/>
+      <c r="P154" s="102"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="107"/>
-      <c r="B155" s="107"/>
+      <c r="A155" s="109"/>
+      <c r="B155" s="109"/>
       <c r="C155" s="1">
         <v>9.0</v>
       </c>
@@ -43948,8 +43995,8 @@
       <c r="H155" s="1">
         <v>0.0</v>
       </c>
-      <c r="I155" s="108" t="s">
-        <v>209</v>
+      <c r="I155" s="110" t="s">
+        <v>212</v>
       </c>
       <c r="J155" s="67"/>
       <c r="K155" s="2">
@@ -43967,11 +44014,11 @@
       <c r="O155" s="2">
         <v>0.0</v>
       </c>
-      <c r="P155" s="100"/>
+      <c r="P155" s="102"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="107"/>
-      <c r="B156" s="107"/>
+      <c r="A156" s="109"/>
+      <c r="B156" s="109"/>
       <c r="C156" s="1">
         <v>10.0</v>
       </c>
@@ -43990,8 +44037,8 @@
       <c r="H156" s="1">
         <v>0.0</v>
       </c>
-      <c r="I156" s="108" t="s">
-        <v>209</v>
+      <c r="I156" s="110" t="s">
+        <v>212</v>
       </c>
       <c r="J156" s="67"/>
       <c r="K156" s="2">
@@ -44009,11 +44056,11 @@
       <c r="O156" s="2">
         <v>0.0</v>
       </c>
-      <c r="P156" s="100"/>
+      <c r="P156" s="102"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="107"/>
-      <c r="B157" s="107"/>
+      <c r="A157" s="109"/>
+      <c r="B157" s="109"/>
       <c r="C157" s="1">
         <v>11.0</v>
       </c>
@@ -44032,8 +44079,8 @@
       <c r="H157" s="1">
         <v>0.0</v>
       </c>
-      <c r="I157" s="108" t="s">
-        <v>209</v>
+      <c r="I157" s="110" t="s">
+        <v>212</v>
       </c>
       <c r="J157" s="67"/>
       <c r="K157" s="2">
@@ -44051,11 +44098,11 @@
       <c r="O157" s="2">
         <v>0.0</v>
       </c>
-      <c r="P157" s="100"/>
+      <c r="P157" s="102"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="107"/>
-      <c r="B158" s="107"/>
+      <c r="A158" s="109"/>
+      <c r="B158" s="109"/>
       <c r="C158" s="1">
         <v>12.0</v>
       </c>
@@ -44074,8 +44121,8 @@
       <c r="H158" s="1">
         <v>0.0</v>
       </c>
-      <c r="I158" s="103" t="s">
-        <v>200</v>
+      <c r="I158" s="105" t="s">
+        <v>204</v>
       </c>
       <c r="J158" s="67"/>
       <c r="K158" s="2">
@@ -44093,7 +44140,7 @@
       <c r="O158" s="2">
         <v>0.0</v>
       </c>
-      <c r="P158" s="100"/>
+      <c r="P158" s="102"/>
     </row>
     <row r="159" ht="15.75" customHeight="1"/>
     <row r="160" ht="15.75" customHeight="1"/>
@@ -44958,16 +45005,16 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">

--- a/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
+++ b/CourseCardSystem/HomeField/HomeFieldConfig.xlsx
@@ -33955,7 +33955,7 @@
         <v>1001.0</v>
       </c>
       <c r="E25" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G25" s="43">
         <v>80.0</v>
@@ -34053,7 +34053,7 @@
         <v>1101.0</v>
       </c>
       <c r="E26" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G26" s="43">
         <v>80.0</v>
@@ -34151,7 +34151,7 @@
         <v>1201.0</v>
       </c>
       <c r="E27" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G27" s="43">
         <v>80.0</v>
@@ -34249,7 +34249,7 @@
         <v>1301.0</v>
       </c>
       <c r="E28" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G28" s="43">
         <v>80.0</v>
@@ -34347,7 +34347,7 @@
         <v>1401.0</v>
       </c>
       <c r="E29" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G29" s="43">
         <v>80.0</v>
@@ -34445,7 +34445,7 @@
         <v>1501.0</v>
       </c>
       <c r="E30" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G30" s="43">
         <v>80.0</v>
@@ -34543,7 +34543,7 @@
         <v>1601.0</v>
       </c>
       <c r="E31" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G31" s="43">
         <v>80.0</v>
@@ -34641,7 +34641,7 @@
         <v>1701.0</v>
       </c>
       <c r="E32" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G32" s="43">
         <v>80.0</v>
@@ -34739,7 +34739,7 @@
         <v>1801.0</v>
       </c>
       <c r="E33" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" s="43">
         <v>80.0</v>
@@ -34837,7 +34837,7 @@
         <v>1901.0</v>
       </c>
       <c r="E34" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G34" s="43">
         <v>80.0</v>
@@ -34934,9 +34934,8 @@
       <c r="D35" s="43">
         <v>2001.0</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" ref="E35:E39" si="1">10</f>
-        <v>10</v>
+      <c r="E35" s="1">
+        <v>7.0</v>
       </c>
       <c r="G35" s="43">
         <v>80.0</v>
@@ -35033,9 +35032,8 @@
       <c r="D36" s="43">
         <v>2101.0</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="E36" s="1">
+        <v>7.0</v>
       </c>
       <c r="G36" s="43">
         <v>80.0</v>
@@ -35132,9 +35130,8 @@
       <c r="D37" s="43">
         <v>2201.0</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="E37" s="1">
+        <v>7.0</v>
       </c>
       <c r="G37" s="43">
         <v>80.0</v>
@@ -35231,9 +35228,8 @@
       <c r="D38" s="43">
         <v>2301.0</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="E38" s="1">
+        <v>7.0</v>
       </c>
       <c r="G38" s="43">
         <v>80.0</v>
@@ -35330,9 +35326,8 @@
       <c r="D39" s="43">
         <v>2401.0</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="E39" s="1">
+        <v>7.0</v>
       </c>
       <c r="G39" s="43">
         <v>80.0</v>
@@ -35430,7 +35425,7 @@
         <v>2501.0</v>
       </c>
       <c r="E40" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G40" s="43">
         <v>80.0</v>
@@ -35528,7 +35523,7 @@
         <v>2601.0</v>
       </c>
       <c r="E41" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G41" s="43">
         <v>80.0</v>
@@ -35626,7 +35621,7 @@
         <v>2701.0</v>
       </c>
       <c r="E42" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G42" s="43">
         <v>80.0</v>
@@ -35724,7 +35719,7 @@
         <v>2801.0</v>
       </c>
       <c r="E43" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G43" s="43">
         <v>80.0</v>
@@ -35822,7 +35817,7 @@
         <v>2901.0</v>
       </c>
       <c r="E44" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="G44" s="43">
         <v>80.0</v>
